--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO2.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA15667-7109-49CD-A499-D4B599A3CF0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236A0E87-6107-4542-9BB4-65C0D7D5FABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20745" yWindow="2790" windowWidth="23610" windowHeight="15390" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="22470" yWindow="1650" windowWidth="17355" windowHeight="15390" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;workbook&gt;SET" sheetId="7" r:id="rId1"/>
@@ -158,7 +158,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BM21" authorId="0" shapeId="0" xr:uid="{DBAEA875-97D9-49CC-91CB-8D02BC0FE8C9}">
+    <comment ref="BM21" authorId="0" shapeId="0" xr:uid="{09858284-5840-42A9-A542-B1DD3A3B8A38}">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BN21" authorId="0" shapeId="0" xr:uid="{D1B6547A-9DE0-4EFF-936F-A5423FDB3551}">
+    <comment ref="BN21" authorId="0" shapeId="0" xr:uid="{7F37EF21-5253-4F25-93B3-54D3D4A62710}">
       <text>
         <r>
           <rPr>
@@ -211,7 +211,22 @@
         </r>
       </text>
     </comment>
-    <comment ref="BO21" authorId="0" shapeId="0" xr:uid="{5ECA7E43-3504-41DB-8B08-19C9BF784F2A}">
+    <comment ref="BO21" authorId="0" shapeId="0" xr:uid="{A80E2F67-FD5C-4C25-B0F0-67DAF9D3CCD3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Номер строки, для удобства смотреть предыдущую</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP21" authorId="0" shapeId="0" xr:uid="{B5075101-A280-471A-AE4B-29E87B163163}">
       <text>
         <r>
           <rPr>
@@ -229,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BP21" authorId="0" shapeId="0" xr:uid="{89C0055E-945E-4AD1-9E8F-2C4435114A8B}">
+    <comment ref="BQ21" authorId="0" shapeId="0" xr:uid="{89391925-9394-402D-839F-08DD073A50BB}">
       <text>
         <r>
           <rPr>
@@ -256,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BQ21" authorId="0" shapeId="0" xr:uid="{98607095-1A33-4740-BD64-BD4496AC62B7}">
+    <comment ref="BR21" authorId="0" shapeId="0" xr:uid="{96335A93-A431-4967-98ED-95819F0DD46E}">
       <text>
         <r>
           <rPr>
@@ -282,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BR21" authorId="0" shapeId="0" xr:uid="{9D7022F5-501E-4484-8117-D555F8B7C222}">
+    <comment ref="BS21" authorId="0" shapeId="0" xr:uid="{6ACE6DB7-F638-4F68-B68D-94673183A0CA}">
       <text>
         <r>
           <rPr>
@@ -290,13 +305,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Определяем есть ли группирование ниже в автоматах</t>
         </r>
       </text>
     </comment>
-    <comment ref="BS21" authorId="0" shapeId="0" xr:uid="{48F68922-9ED8-48DB-A141-FF204B4BF323}">
+    <comment ref="BT21" authorId="0" shapeId="0" xr:uid="{6B4F71A2-462E-469D-916E-AD1AC47A85C5}">
       <text>
         <r>
           <rPr>
@@ -304,13 +320,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Определяем подключение автоматов внутри распределительного щита</t>
         </r>
       </text>
     </comment>
-    <comment ref="BT21" authorId="0" shapeId="0" xr:uid="{6F6D8B3D-9E13-4CB4-93D3-385DB7A710AD}">
+    <comment ref="BU21" authorId="0" shapeId="0" xr:uid="{12617574-C341-4EA4-B1C5-9114C82F8751}">
       <text>
         <r>
           <rPr>
@@ -318,13 +335,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Передо мной УУ</t>
         </r>
       </text>
     </comment>
-    <comment ref="BU21" authorId="0" shapeId="0" xr:uid="{69650E7E-E432-4DB7-8F52-112D978040B4}">
+    <comment ref="BV21" authorId="0" shapeId="0" xr:uid="{D7C9A58D-B174-41F6-85A0-368F70EF7747}">
       <text>
         <r>
           <rPr>
@@ -332,13 +350,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>После меня УУ</t>
         </r>
       </text>
     </comment>
-    <comment ref="BV21" authorId="0" shapeId="0" xr:uid="{A8169036-38F0-4A46-80D5-9A1C242A4CB0}">
+    <comment ref="BW21" authorId="0" shapeId="0" xr:uid="{6BDDBBFE-9587-4544-B76A-F1E87E1F96F6}">
       <text>
         <r>
           <rPr>
@@ -346,13 +365,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
-          <t>Момент переключения группы, и фиксация места в диапазонне</t>
+          <t>Строка изменения глобальный группы для построение гибкой системы поиска. ВАЖНО</t>
         </r>
       </text>
     </comment>
-    <comment ref="BW21" authorId="0" shapeId="0" xr:uid="{490AF9CF-70C2-4675-A756-A2627864F6F8}">
+    <comment ref="BY21" authorId="0" shapeId="0" xr:uid="{D6F624EE-4643-407B-B64A-D993E6A26A3C}">
       <text>
         <r>
           <rPr>
@@ -360,13 +380,16 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
-          <t>Имена ячейки для формирования диапазона поиска 1 уровень</t>
+          <t>Внутри щита управления есть ящики управления
+ 1 - есть
+ 0 - нет</t>
         </r>
       </text>
     </comment>
-    <comment ref="BX21" authorId="0" shapeId="0" xr:uid="{EA17A6ED-C7BB-4723-B591-18D25F766414}">
+    <comment ref="BZ21" authorId="0" shapeId="0" xr:uid="{6BE982A4-3193-4C4B-9E16-AA029257111D}">
       <text>
         <r>
           <rPr>
@@ -374,13 +397,15 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
-          <t>номер уровень подключения устройства для 2стартового элемента</t>
+          <t xml:space="preserve">ЕСТЬ продолжение главной группы:
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="BY21" authorId="0" shapeId="0" xr:uid="{3227312A-00ED-4E61-A9F8-926A5A3F7C34}">
+    <comment ref="CA21" authorId="0" shapeId="0" xr:uid="{E0D83316-21EC-4DE0-B39D-5A91F5A99E56}">
       <text>
         <r>
           <rPr>
@@ -388,7 +413,38 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Настоящее устройство ипредыдущее лежит в одной группе глоабльной или УУ</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CB21" authorId="0" shapeId="0" xr:uid="{41D1C052-5BDE-4389-A110-0292426D615D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>номер уровень подключения устройства для 2стартового элемента</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CC21" authorId="0" shapeId="0" xr:uid="{D6994F2C-50E3-46A6-9BFB-701DDE8FD12C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Смещение вставки по X</t>
         </r>
@@ -1785,7 +1841,7 @@
     <t>VSCHEMADevpos</t>
   </si>
   <si>
-    <t>Elec234</t>
+    <t>Elec237</t>
   </si>
 </sst>
 </file>
@@ -1930,7 +1986,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2003,6 +2059,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="53">
     <border>
@@ -2690,7 +2758,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="147">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2959,9 +3027,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -2973,7 +3038,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2981,6 +3045,26 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3028,6 +3112,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4428,7 +4518,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4718,10 +4808,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8C22C-893A-456C-B6B4-5CEC07C317DD}">
-  <dimension ref="C1:CY24"/>
+  <dimension ref="C1:DC24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="CY29" sqref="CY29"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AK11" sqref="AK11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4751,13 +4841,13 @@
     <col min="51" max="52" width="7.7109375" customWidth="1"/>
     <col min="53" max="56" width="8.85546875" customWidth="1"/>
     <col min="57" max="64" width="10.42578125" customWidth="1"/>
-    <col min="65" max="75" width="3.7109375" customWidth="1"/>
-    <col min="76" max="77" width="4.7109375" customWidth="1"/>
-    <col min="78" max="78" width="10.42578125" customWidth="1"/>
-    <col min="79" max="79" width="28" customWidth="1"/>
-    <col min="80" max="85" width="10.42578125" customWidth="1"/>
-    <col min="86" max="86" width="25" customWidth="1"/>
-    <col min="87" max="102" width="10.42578125" customWidth="1"/>
+    <col min="65" max="76" width="3.7109375" customWidth="1"/>
+    <col min="77" max="81" width="4.7109375" customWidth="1"/>
+    <col min="82" max="82" width="10.42578125" customWidth="1"/>
+    <col min="83" max="83" width="28" customWidth="1"/>
+    <col min="84" max="89" width="10.42578125" customWidth="1"/>
+    <col min="90" max="90" width="25" customWidth="1"/>
+    <col min="91" max="106" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:31" x14ac:dyDescent="0.25">
@@ -4783,33 +4873,33 @@
       </c>
     </row>
     <row r="4" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="129" t="s">
         <v>285</v>
       </c>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="122"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="129"/>
       <c r="I4" s="84" t="s">
         <v>286</v>
       </c>
       <c r="O4" s="84"/>
-      <c r="P4" s="122" t="s">
+      <c r="P4" s="129" t="s">
         <v>287</v>
       </c>
-      <c r="Q4" s="122"/>
-      <c r="R4" s="122"/>
-      <c r="S4" s="122"/>
-      <c r="T4" s="122"/>
-      <c r="U4" s="122"/>
+      <c r="Q4" s="129"/>
+      <c r="R4" s="129"/>
+      <c r="S4" s="129"/>
+      <c r="T4" s="129"/>
+      <c r="U4" s="129"/>
     </row>
     <row r="5" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D5" s="113" t="s">
+      <c r="D5" s="120" t="s">
         <v>288</v>
       </c>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
       <c r="H5" s="78" t="str">
         <f>'&lt;zlight&gt;'!F18</f>
         <v>NMO_Name</v>
@@ -4820,25 +4910,25 @@
       <c r="O5" s="82" t="s">
         <v>290</v>
       </c>
-      <c r="P5" s="123" t="s">
+      <c r="P5" s="130" t="s">
         <v>291</v>
       </c>
-      <c r="Q5" s="123"/>
-      <c r="R5" s="123"/>
-      <c r="S5" s="123"/>
-      <c r="T5" s="123" t="e">
+      <c r="Q5" s="130"/>
+      <c r="R5" s="130"/>
+      <c r="S5" s="130"/>
+      <c r="T5" s="130" t="e">
         <f ca="1">SUM($AC$24:$AC$12000)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U5" s="123"/>
+      <c r="U5" s="130"/>
     </row>
     <row r="6" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D6" s="113" t="s">
+      <c r="D6" s="120" t="s">
         <v>292</v>
       </c>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="113"/>
+      <c r="E6" s="120"/>
+      <c r="F6" s="120"/>
+      <c r="G6" s="120"/>
       <c r="H6" s="79" t="s">
         <v>293</v>
       </c>
@@ -4848,25 +4938,25 @@
       <c r="O6" s="82">
         <v>63</v>
       </c>
-      <c r="P6" s="123" t="s">
+      <c r="P6" s="130" t="s">
         <v>295</v>
       </c>
-      <c r="Q6" s="123"/>
-      <c r="R6" s="123"/>
-      <c r="S6" s="123"/>
-      <c r="T6" s="123" t="e">
+      <c r="Q6" s="130"/>
+      <c r="R6" s="130"/>
+      <c r="S6" s="130"/>
+      <c r="T6" s="130" t="e">
         <f ca="1">T5*T11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U6" s="123"/>
+      <c r="U6" s="130"/>
     </row>
     <row r="7" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D7" s="113" t="s">
+      <c r="D7" s="120" t="s">
         <v>296</v>
       </c>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
       <c r="H7" s="79">
         <v>45399</v>
       </c>
@@ -4876,25 +4966,25 @@
       <c r="O7" s="82">
         <v>32</v>
       </c>
-      <c r="P7" s="123" t="s">
+      <c r="P7" s="130" t="s">
         <v>298</v>
       </c>
-      <c r="Q7" s="123"/>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123" t="e">
+      <c r="Q7" s="130"/>
+      <c r="R7" s="130"/>
+      <c r="S7" s="130"/>
+      <c r="T7" s="130" t="e">
         <f ca="1">SUM($AE$24:$AE$12000)*T11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U7" s="123"/>
+      <c r="U7" s="130"/>
     </row>
     <row r="8" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="113" t="s">
+      <c r="D8" s="120" t="s">
         <v>299</v>
       </c>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
       <c r="H8" s="79" t="s">
         <v>300</v>
       </c>
@@ -4904,24 +4994,24 @@
       <c r="O8" s="82">
         <v>6</v>
       </c>
-      <c r="P8" s="124" t="s">
+      <c r="P8" s="131" t="s">
         <v>321</v>
       </c>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="S8" s="126"/>
-      <c r="T8" s="116">
+      <c r="Q8" s="132"/>
+      <c r="R8" s="132"/>
+      <c r="S8" s="133"/>
+      <c r="T8" s="123">
         <v>0.92</v>
       </c>
-      <c r="U8" s="116"/>
+      <c r="U8" s="123"/>
     </row>
     <row r="9" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D9" s="113" t="s">
+      <c r="D9" s="120" t="s">
         <v>303</v>
       </c>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="113"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
       <c r="H9" s="79" t="s">
         <v>304</v>
       </c>
@@ -4931,42 +5021,42 @@
       <c r="O9" s="82" t="s">
         <v>306</v>
       </c>
-      <c r="P9" s="115" t="s">
+      <c r="P9" s="122" t="s">
         <v>302</v>
       </c>
-      <c r="Q9" s="115"/>
-      <c r="R9" s="115"/>
-      <c r="S9" s="115"/>
-      <c r="T9" s="116"/>
-      <c r="U9" s="116"/>
+      <c r="Q9" s="122"/>
+      <c r="R9" s="122"/>
+      <c r="S9" s="122"/>
+      <c r="T9" s="123"/>
+      <c r="U9" s="123"/>
     </row>
     <row r="10" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D10" s="113" t="s">
+      <c r="D10" s="120" t="s">
         <v>307</v>
       </c>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="113"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
       <c r="I10" s="82" t="s">
         <v>308</v>
       </c>
       <c r="O10" s="82">
         <v>4</v>
       </c>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="116"/>
-      <c r="U10" s="116"/>
+      <c r="P10" s="122"/>
+      <c r="Q10" s="122"/>
+      <c r="R10" s="122"/>
+      <c r="S10" s="122"/>
+      <c r="T10" s="123"/>
+      <c r="U10" s="123"/>
     </row>
     <row r="11" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D11" s="113" t="s">
+      <c r="D11" s="120" t="s">
         <v>323</v>
       </c>
-      <c r="E11" s="113"/>
-      <c r="F11" s="113"/>
-      <c r="G11" s="113"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
       <c r="H11" s="79">
         <v>380</v>
       </c>
@@ -4976,24 +5066,24 @@
       <c r="O11" s="82" t="s">
         <v>311</v>
       </c>
-      <c r="P11" s="117" t="s">
+      <c r="P11" s="124" t="s">
         <v>312</v>
       </c>
-      <c r="Q11" s="118"/>
-      <c r="R11" s="118"/>
-      <c r="S11" s="119"/>
-      <c r="T11" s="117">
+      <c r="Q11" s="125"/>
+      <c r="R11" s="125"/>
+      <c r="S11" s="126"/>
+      <c r="T11" s="124">
         <v>0.65</v>
       </c>
-      <c r="U11" s="119"/>
+      <c r="U11" s="126"/>
     </row>
     <row r="12" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D12" s="113" t="s">
+      <c r="D12" s="120" t="s">
         <v>309</v>
       </c>
-      <c r="E12" s="113"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="113"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
       <c r="H12" s="79" t="s">
         <v>322</v>
       </c>
@@ -5003,79 +5093,79 @@
       <c r="O12" s="82" t="s">
         <v>315</v>
       </c>
-      <c r="P12" s="114" t="s">
+      <c r="P12" s="121" t="s">
         <v>316</v>
       </c>
-      <c r="Q12" s="114"/>
-      <c r="R12" s="114"/>
-      <c r="S12" s="114"/>
-      <c r="T12" s="114">
+      <c r="Q12" s="121"/>
+      <c r="R12" s="121"/>
+      <c r="S12" s="121"/>
+      <c r="T12" s="121">
         <v>44.5</v>
       </c>
-      <c r="U12" s="114"/>
+      <c r="U12" s="121"/>
     </row>
     <row r="13" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="113" t="s">
+      <c r="D13" s="120" t="s">
         <v>313</v>
       </c>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
       <c r="H13" s="79" t="s">
         <v>314</v>
       </c>
       <c r="I13" s="83"/>
       <c r="O13" s="83"/>
-      <c r="P13" s="114" t="s">
+      <c r="P13" s="121" t="s">
         <v>318</v>
       </c>
-      <c r="Q13" s="114"/>
-      <c r="R13" s="114"/>
-      <c r="S13" s="114"/>
-      <c r="T13" s="114">
+      <c r="Q13" s="121"/>
+      <c r="R13" s="121"/>
+      <c r="S13" s="121"/>
+      <c r="T13" s="121">
         <v>44.5</v>
       </c>
-      <c r="U13" s="114"/>
+      <c r="U13" s="121"/>
       <c r="AC13" s="52"/>
       <c r="AD13" s="52"/>
       <c r="AE13" s="52"/>
     </row>
     <row r="14" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D14" s="113" t="s">
+      <c r="D14" s="120" t="s">
         <v>317</v>
       </c>
-      <c r="E14" s="113"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
       <c r="H14" s="80" t="str">
         <f>'&lt;zlight&gt;'!G18&amp;"."&amp;'&lt;zlight&gt;'!H18</f>
         <v>GC_HeadDevice.GC_HDGroup</v>
       </c>
       <c r="I14" s="83"/>
       <c r="O14" s="83"/>
-      <c r="P14" s="114" t="s">
+      <c r="P14" s="121" t="s">
         <v>320</v>
       </c>
-      <c r="Q14" s="114"/>
-      <c r="R14" s="114"/>
-      <c r="S14" s="114"/>
-      <c r="T14" s="114">
+      <c r="Q14" s="121"/>
+      <c r="R14" s="121"/>
+      <c r="S14" s="121"/>
+      <c r="T14" s="121">
         <v>44.5</v>
       </c>
-      <c r="U14" s="114"/>
+      <c r="U14" s="121"/>
     </row>
     <row r="15" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D15" s="113" t="s">
+      <c r="D15" s="120" t="s">
         <v>319</v>
       </c>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
       <c r="H15" s="79">
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="3:103" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:107" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>99</v>
       </c>
@@ -5095,192 +5185,200 @@
         <v>100</v>
       </c>
       <c r="BM18" s="1"/>
-      <c r="BO18" s="1"/>
+      <c r="BP18" s="1"/>
     </row>
-    <row r="20" spans="3:103" x14ac:dyDescent="0.25">
-      <c r="CA20" s="77" t="s">
+    <row r="20" spans="3:107" x14ac:dyDescent="0.25">
+      <c r="CE20" s="77" t="s">
         <v>273</v>
       </c>
-      <c r="CB20" s="77" t="s">
+      <c r="CF20" s="77" t="s">
         <v>274</v>
       </c>
-      <c r="CC20" s="77" t="s">
+      <c r="CG20" s="77" t="s">
         <v>275</v>
       </c>
-      <c r="CD20" s="77" t="s">
+      <c r="CH20" s="77" t="s">
         <v>276</v>
       </c>
-      <c r="CE20" s="77" t="s">
+      <c r="CI20" s="77" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="3:103" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:107" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BM21" s="11"/>
       <c r="BN21" s="11"/>
-      <c r="BO21" s="11"/>
+      <c r="BO21" s="96"/>
       <c r="BP21" s="11"/>
       <c r="BQ21" s="11"/>
       <c r="BR21" s="11"/>
-      <c r="BS21" s="11"/>
-      <c r="BT21" s="79"/>
+      <c r="BS21" s="98"/>
+      <c r="BT21" s="11"/>
       <c r="BU21" s="79"/>
-      <c r="BV21" s="93"/>
-      <c r="BW21" s="93"/>
-      <c r="BX21" s="95"/>
-      <c r="BY21" s="96"/>
-      <c r="BZ21" t="s">
+      <c r="BV21" s="79"/>
+      <c r="BW21" s="118"/>
+      <c r="BX21" s="119"/>
+      <c r="BY21" s="99"/>
+      <c r="BZ21" s="99"/>
+      <c r="CA21" s="99"/>
+      <c r="CB21" s="93"/>
+      <c r="CC21" s="94"/>
+      <c r="CD21" t="s">
         <v>60</v>
       </c>
-      <c r="CA21" s="1" t="s">
+      <c r="CE21" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="CB21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CC21" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD21" s="1">
+      <c r="CF21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CG21" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH21" s="1">
         <v>1</v>
       </c>
-      <c r="CE21" s="1">
+      <c r="CI21" s="1">
         <v>1</v>
       </c>
-      <c r="CX21" t="s">
+      <c r="DB21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="3:103" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="141" t="s">
+    <row r="22" spans="3:107" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="148" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="145" t="s">
+      <c r="E22" s="152" t="s">
         <v>190</v>
       </c>
-      <c r="F22" s="136" t="s">
+      <c r="F22" s="143" t="s">
         <v>191</v>
       </c>
-      <c r="G22" s="145" t="s">
+      <c r="G22" s="152" t="s">
         <v>192</v>
       </c>
-      <c r="H22" s="136" t="s">
+      <c r="H22" s="143" t="s">
         <v>193</v>
       </c>
-      <c r="I22" s="136" t="s">
+      <c r="I22" s="143" t="s">
         <v>194</v>
       </c>
-      <c r="J22" s="138" t="s">
+      <c r="J22" s="145" t="s">
         <v>329</v>
       </c>
-      <c r="K22" s="138"/>
-      <c r="L22" s="138"/>
-      <c r="M22" s="139" t="s">
+      <c r="K22" s="145"/>
+      <c r="L22" s="145"/>
+      <c r="M22" s="146" t="s">
         <v>334</v>
       </c>
-      <c r="O22" s="143" t="s">
+      <c r="O22" s="150" t="s">
         <v>127</v>
       </c>
-      <c r="P22" s="144"/>
-      <c r="Q22" s="144"/>
-      <c r="R22" s="144"/>
-      <c r="S22" s="144"/>
-      <c r="T22" s="144"/>
-      <c r="U22" s="144"/>
-      <c r="V22" s="144"/>
-      <c r="W22" s="144"/>
-      <c r="X22" s="144"/>
-      <c r="Y22" s="144"/>
-      <c r="Z22" s="144"/>
-      <c r="AA22" s="127" t="s">
+      <c r="P22" s="151"/>
+      <c r="Q22" s="151"/>
+      <c r="R22" s="151"/>
+      <c r="S22" s="151"/>
+      <c r="T22" s="151"/>
+      <c r="U22" s="151"/>
+      <c r="V22" s="151"/>
+      <c r="W22" s="151"/>
+      <c r="X22" s="151"/>
+      <c r="Y22" s="151"/>
+      <c r="Z22" s="151"/>
+      <c r="AA22" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="AB22" s="128"/>
-      <c r="AC22" s="128"/>
-      <c r="AD22" s="128"/>
-      <c r="AE22" s="128"/>
-      <c r="AF22" s="128"/>
-      <c r="AG22" s="128"/>
-      <c r="AH22" s="128"/>
-      <c r="AI22" s="129"/>
-      <c r="AJ22" s="130" t="s">
+      <c r="AB22" s="135"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="135"/>
+      <c r="AE22" s="135"/>
+      <c r="AF22" s="135"/>
+      <c r="AG22" s="135"/>
+      <c r="AH22" s="135"/>
+      <c r="AI22" s="136"/>
+      <c r="AJ22" s="137" t="s">
         <v>133</v>
       </c>
-      <c r="AK22" s="131"/>
-      <c r="AL22" s="131"/>
-      <c r="AM22" s="131"/>
-      <c r="AN22" s="131"/>
-      <c r="AO22" s="131"/>
-      <c r="AP22" s="131"/>
-      <c r="AQ22" s="131"/>
-      <c r="AR22" s="131"/>
-      <c r="AS22" s="131"/>
-      <c r="AT22" s="131"/>
-      <c r="AU22" s="131"/>
-      <c r="AV22" s="131"/>
-      <c r="AW22" s="132"/>
-      <c r="AX22" s="127" t="s">
+      <c r="AK22" s="138"/>
+      <c r="AL22" s="138"/>
+      <c r="AM22" s="138"/>
+      <c r="AN22" s="138"/>
+      <c r="AO22" s="138"/>
+      <c r="AP22" s="138"/>
+      <c r="AQ22" s="138"/>
+      <c r="AR22" s="138"/>
+      <c r="AS22" s="138"/>
+      <c r="AT22" s="138"/>
+      <c r="AU22" s="138"/>
+      <c r="AV22" s="138"/>
+      <c r="AW22" s="139"/>
+      <c r="AX22" s="134" t="s">
         <v>222</v>
       </c>
-      <c r="AY22" s="128"/>
-      <c r="AZ22" s="128"/>
-      <c r="BA22" s="128"/>
-      <c r="BB22" s="128"/>
-      <c r="BC22" s="128"/>
-      <c r="BD22" s="128"/>
-      <c r="BE22" s="129"/>
-      <c r="BF22" s="133" t="s">
+      <c r="AY22" s="135"/>
+      <c r="AZ22" s="135"/>
+      <c r="BA22" s="135"/>
+      <c r="BB22" s="135"/>
+      <c r="BC22" s="135"/>
+      <c r="BD22" s="135"/>
+      <c r="BE22" s="136"/>
+      <c r="BF22" s="140" t="s">
         <v>230</v>
       </c>
-      <c r="BG22" s="134"/>
-      <c r="BH22" s="134"/>
-      <c r="BI22" s="134"/>
-      <c r="BJ22" s="134"/>
-      <c r="BK22" s="134"/>
-      <c r="BL22" s="135"/>
-      <c r="BM22" s="120" t="s">
+      <c r="BG22" s="141"/>
+      <c r="BH22" s="141"/>
+      <c r="BI22" s="141"/>
+      <c r="BJ22" s="141"/>
+      <c r="BK22" s="141"/>
+      <c r="BL22" s="142"/>
+      <c r="BM22" s="127" t="s">
         <v>126</v>
       </c>
-      <c r="BN22" s="121"/>
-      <c r="BO22" s="121"/>
-      <c r="BP22" s="121"/>
-      <c r="BQ22" s="121"/>
-      <c r="BR22" s="121"/>
-      <c r="BS22" s="121"/>
-      <c r="BT22" s="121"/>
-      <c r="BU22" s="121"/>
-      <c r="BV22" s="121"/>
-      <c r="BW22" s="121"/>
-      <c r="BX22" s="90"/>
-      <c r="BY22" s="92"/>
-      <c r="BZ22" t="s">
+      <c r="BN22" s="128"/>
+      <c r="BO22" s="128"/>
+      <c r="BP22" s="128"/>
+      <c r="BQ22" s="128"/>
+      <c r="BR22" s="128"/>
+      <c r="BS22" s="128"/>
+      <c r="BT22" s="128"/>
+      <c r="BU22" s="128"/>
+      <c r="BV22" s="128"/>
+      <c r="BW22" s="128"/>
+      <c r="BX22" s="128"/>
+      <c r="BY22" s="89"/>
+      <c r="BZ22" s="91"/>
+      <c r="CA22" s="95"/>
+      <c r="CB22" s="95"/>
+      <c r="CC22" s="95"/>
+      <c r="CD22" t="s">
         <v>60</v>
       </c>
-      <c r="CA22" s="1" t="s">
+      <c r="CE22" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="CB22" s="1">
+      <c r="CF22" s="1">
         <v>60</v>
       </c>
-      <c r="CC22" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD22" s="1">
+      <c r="CG22" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH22" s="1">
         <v>1</v>
       </c>
-      <c r="CE22" s="1">
+      <c r="CI22" s="1">
         <v>1</v>
       </c>
-      <c r="CX22" t="s">
+      <c r="DB22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="3:103" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="142"/>
-      <c r="E23" s="146"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="137"/>
+    <row r="23" spans="3:107" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="149"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="153"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
       <c r="J23" s="85" t="s">
         <v>330</v>
       </c>
@@ -5290,7 +5388,7 @@
       <c r="L23" s="85" t="s">
         <v>332</v>
       </c>
-      <c r="M23" s="140"/>
+      <c r="M23" s="147"/>
       <c r="O23" s="56" t="s">
         <v>125</v>
       </c>
@@ -5441,24 +5539,28 @@
       <c r="BL23" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="BM23" s="120"/>
-      <c r="BN23" s="121"/>
-      <c r="BO23" s="121"/>
-      <c r="BP23" s="121"/>
-      <c r="BQ23" s="121"/>
-      <c r="BR23" s="121"/>
-      <c r="BS23" s="121"/>
-      <c r="BT23" s="121"/>
-      <c r="BU23" s="121"/>
-      <c r="BV23" s="121"/>
-      <c r="BW23" s="121"/>
-      <c r="BX23" s="90"/>
-      <c r="BY23" s="92"/>
-      <c r="CB23" s="1">
+      <c r="BM23" s="127"/>
+      <c r="BN23" s="128"/>
+      <c r="BO23" s="128"/>
+      <c r="BP23" s="128"/>
+      <c r="BQ23" s="128"/>
+      <c r="BR23" s="128"/>
+      <c r="BS23" s="128"/>
+      <c r="BT23" s="128"/>
+      <c r="BU23" s="128"/>
+      <c r="BV23" s="128"/>
+      <c r="BW23" s="128"/>
+      <c r="BX23" s="128"/>
+      <c r="BY23" s="89"/>
+      <c r="BZ23" s="91"/>
+      <c r="CA23" s="95"/>
+      <c r="CB23" s="95"/>
+      <c r="CC23" s="95"/>
+      <c r="CF23" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="3:103" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:107" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>283</v>
       </c>
@@ -5487,19 +5589,19 @@
         <v>#VALUE!</v>
       </c>
       <c r="J24" s="1">
-        <f>IF(BP24=0,1,0)</f>
+        <f>IF(BQ24=0,1,0)</f>
         <v>1</v>
       </c>
       <c r="K24" s="1">
-        <f>IF(BP24=0,0,IF(L24=0,IF(MATCH(BP24,$O$24:O24,0)=0,0,1),0))</f>
+        <f>IF(BQ24=0,0,IF(L24=0,IF(MATCH(BQ24,$O$24:O24,0)=0,0,1),0))</f>
         <v>0</v>
       </c>
       <c r="L24" s="1">
-        <f>IF(BP24=0,0,IF(INDEX($BP$24:BP24,MATCH(BP24,$O$24:O24,0))=0,0,1))</f>
+        <f>IF(BQ24=0,0,IF(INDEX($BQ$24:BQ24,MATCH(BQ24,$O$24:O24,0))=0,0,1))</f>
         <v>0</v>
       </c>
       <c r="M24" s="88" t="e">
-        <f ca="1">IF(AJ24="","",AK24&amp;" L="&amp;AL24&amp;"м")</f>
+        <f ca="1">IF(AJ24="","",AJ24&amp;"; "&amp;AK24&amp;" L="&amp;AL24&amp;"м")</f>
         <v>#N/A</v>
       </c>
       <c r="O24" s="65" t="str">
@@ -5582,7 +5684,7 @@
         <v>3</v>
       </c>
       <c r="AJ24" s="67" t="str">
-        <f>IF(D24="",IF(BP24=0,"",IF(BP24=O24,"",BP24&amp;"."&amp;BQ24)),'&lt;zlight&gt;DEVEXPORT'!E11&amp;"."&amp;'&lt;zlight&gt;DEVEXPORT'!F11)</f>
+        <f>IF(D24="",IF(BQ24=0,"",IF(BQ24=O24,"",BQ24&amp;"."&amp;BR24)),'&lt;zlight&gt;DEVEXPORT'!E11&amp;"."&amp;'&lt;zlight&gt;DEVEXPORT'!F11)</f>
         <v>GC_HeadDevice.GC_HDGroup</v>
       </c>
       <c r="AK24" s="67" t="e">
@@ -5699,141 +5801,157 @@
         <f ca="1">INDIRECT("'"&amp;O24&amp;"'!"&amp;"X14")</f>
         <v>#REF!</v>
       </c>
-      <c r="BO24" s="11" t="str">
-        <f>IF('&lt;zlight&gt;DEVEXPORT'!T11="-",'&lt;zlight&gt;DEVEXPORT'!T11,1)</f>
-        <v>-</v>
-      </c>
-      <c r="BP24" s="11">
-        <f>IF('&lt;zlight&gt;DEVEXPORT'!U11="-",0,'&lt;zlight&gt;DEVEXPORT'!U11)</f>
-        <v>0</v>
-      </c>
-      <c r="BQ24" s="11">
-        <f>IF('&lt;zlight&gt;DEVEXPORT'!U11="-",0,'&lt;zlight&gt;DEVEXPORT'!F11)</f>
-        <v>0</v>
-      </c>
-      <c r="BR24" s="89">
+      <c r="BO24" s="97">
+        <f>COUNT($BM$24:BM24)</f>
+        <v>0</v>
+      </c>
+      <c r="BP24" s="97">
+        <f>IF('&lt;zlight&gt;DEVEXPORT'!T11=0,'&lt;zlight&gt;DEVEXPORT'!T11,1)</f>
+        <v>0</v>
+      </c>
+      <c r="BQ24" s="97">
+        <f>IF('&lt;zlight&gt;DEVEXPORT'!U11=0,0,'&lt;zlight&gt;DEVEXPORT'!U11)</f>
+        <v>0</v>
+      </c>
+      <c r="BR24" s="97">
+        <f>IF('&lt;zlight&gt;DEVEXPORT'!U11=0,0,'&lt;zlight&gt;DEVEXPORT'!F11)</f>
+        <v>0</v>
+      </c>
+      <c r="BS24" s="90">
         <f>IF(MATCH(BM24,$BM$24:BM24,0)=COUNT($BM$24:BM24),COUNTIFS(F24:$F$120000,F24),0)</f>
         <v>0</v>
       </c>
-      <c r="BS24" s="89">
-        <f>IF(INDEX($BR$24:BR24,MATCH(BM24,$BM$24:BM24,0))&gt;1,IF(BR24=0,2,1),IF(BR24=1,1,0))</f>
-        <v>0</v>
-      </c>
-      <c r="BT24" s="91" t="e">
-        <f>INDEX($BO$24:BO24,COUNT($BM$24:BM24)-1)</f>
+      <c r="BT24" s="11">
+        <f>IF(INDEX($BS$24:BS24,MATCH(BM24,$BM$24:BM24,0))&gt;1,IF(BS24=0,2,1),IF(BS24=1,1,0))</f>
+        <v>0</v>
+      </c>
+      <c r="BU24" s="90" t="e">
+        <f>INDEX($BP$24:BP24,COUNT($BM$24:BM24)-1)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BU24" s="91">
-        <f>IF(INDEX($BO$24:$BO$120000,COUNT($BM$24:BM24))=1,IF(INDEX($BO$24:$BO$120000,COUNT($BM$24:BM24)+1)=1,1,0),0)</f>
-        <v>0</v>
-      </c>
-      <c r="BV24" s="91" t="e">
+      <c r="BV24" s="90">
+        <f>IF(INDEX($BP$24:$BP$120000,COUNT($BM$24:BM24))=1,IF(INDEX($BP$24:$BP$120000,COUNT($BM$24:BM24)+1)=1,1,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="BW24" s="100" t="e">
         <f>IF(COUNT($BM$24:BM24)=1,1,IF(INDEX($BM$24:BM24,COUNT($BM$24:BM24)-1)=INDEX($BM$24:BM24,COUNT($BM$24:BM24)),0,COUNT($BM$24:BM24)))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BW24" s="91" t="e">
-        <f>IF(BV24&gt;0,ADDRESS(ROW(),COLUMN(K24)),0)</f>
+      <c r="BX24" s="100" t="e">
+        <f>IF(BW24&gt;0,ROW(),"-")</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BX24" s="96">
+      <c r="BY24" s="100">
+        <f>IF(BQ24=0,0,SUMIFS(BP24:$BP$120000,BQ24:$BQ$120000,BQ24))</f>
+        <v>0</v>
+      </c>
+      <c r="BZ24" s="100" t="e">
+        <f ca="1">IF(COUNTIF(INDIRECT(ADDRESS(ROW(),COLUMN(BQ24))&amp;":"&amp;ADDRESS(MIN(BX24:$BX$120000),COLUMN(BQ24))),0)&gt;1,1,0)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CA24" s="90" t="e">
+        <f>IF(BO24=1,0,IF(INDEX($BM$24:BM24,BO24-1)=BM24,IF(INDEX($BQ$24:BQ24,BO24-1)=BQ24,IF(INDEX($BR$24:BR24,BO24-1)=BR24,1,0),0),0))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CB24" s="94">
         <f>MATCH(1,J24:L24,0)</f>
         <v>1</v>
       </c>
-      <c r="BY24" s="96" t="e">
-        <f>IF(COUNT($BM$24:BM24)&lt;&gt;1,INDEX($BY$24:BY24,COUNT($BM$24:BM24)-1)+25 - IF(BO24="-",IF(BT24=1,25,0),0),60)</f>
+      <c r="CC24" s="101" t="e">
+        <f>IF(BO24&lt;&gt;1,INDEX($CC$24:CC24,BO24-1)+25 - IF(BP24=0,IF(BU24=1,IF(BY24&lt;2,25,0),0),0),60)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="BZ24" t="s">
+      <c r="CD24" t="s">
         <v>60</v>
       </c>
-      <c r="CA24" s="1" t="s">
+      <c r="CE24" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="CB24" s="1" t="e">
-        <f>BY24</f>
+      <c r="CF24" s="1" t="e">
+        <f>CC24</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CC24" s="1">
-        <v>0</v>
-      </c>
-      <c r="CD24" s="1">
+      <c r="CG24" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH24" s="1">
         <v>1</v>
       </c>
-      <c r="CE24" s="1">
+      <c r="CI24" s="1">
         <v>1</v>
       </c>
-      <c r="CF24" s="1" t="s">
+      <c r="CJ24" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="CG24" s="1" t="e">
-        <f t="shared" ref="CG24" ca="1" si="0">IF(Q24="ABC","BOOLEAN_1","BOOLEAN_0")</f>
+      <c r="CK24" s="1" t="e">
+        <f ca="1">IF(Q24="ABC","BOOLEAN_1","BOOLEAN_0")</f>
         <v>#N/A</v>
       </c>
-      <c r="CH24" s="1" t="s">
+      <c r="CL24" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="CI24" s="1" t="e">
-        <f ca="1">IF(H24&lt;&gt;"","INTEGER_0",IF(BR24=0,IF(BS24=0,"INTEGER_3","INTEGER_"&amp;BS24),"INTEGER_"&amp;BS24))</f>
+      <c r="CM24" s="1" t="e">
+        <f ca="1">IF(H24&lt;&gt;"","INTEGER_0",IF(BS24=0,IF(BT24=0,"INTEGER_3","INTEGER_"&amp;BT24),"INTEGER_"&amp;BT24))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="CJ24" s="94" t="s">
+      <c r="CN24" s="92" t="s">
         <v>340</v>
       </c>
-      <c r="CK24" s="1" t="str">
-        <f ca="1">IF(BO24="-","INTEGER_0",IF(COUNTIF(INDIRECT(ADDRESS(ROW(),COLUMN(K24))&amp;":"&amp;INDEX($BW$24:BW24,MAX($BV$24:BV24))),1)=1,"INTEGER_2","INTEGER_0"))</f>
+      <c r="CO24" s="1" t="str">
+        <f t="shared" ref="CO24" ca="1" si="0">IFERROR(_xlfn.IFS(CM24="INTEGER_0","INTEGER_0",CM24="INTEGER_1","INTEGER_0",IF(BU24=1,IF(CB24=1,1,0),0),"INTEGER_1",IF(BP24=1,IF(BU24=1,1,0),0),"INTEGER_2",IF(BP24=0,IF(BU24=1,1,0),0),"INTEGER_0",IF(BU24=1,IF(CB24=2,IF(BQ24=0,IF(BZ24=0,1,0),0),0),0),"INTEGER_2",IF(BU24=1,IF(CB24=2,IF(BQ24=0,IF(BZ24&lt;&gt;0,1,0),0),0),0),"INTEGER_4",IF(BU24=1,IF(CB24=2,IF(BQ24&lt;&gt;0,1,0),0),0),"INTEGER_3",IF(BU24=0,IF(BP24=1,IF(CA24=1,1,0),0),0),"INTEGER_5"),"INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
-      <c r="CL24" s="94" t="s">
+      <c r="CP24" s="92" t="s">
         <v>341</v>
       </c>
-      <c r="CM24" s="1" t="e">
-        <f ca="1">IF(COUNTIF(INDIRECT(ADDRESS(ROW(),COLUMN(K24))&amp;":"&amp;INDEX($BW$24:BW24,MAX($BV$24:BV24))),1)&gt;1,"INTEGER_2","INTEGER_0")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CN24" s="94" t="s">
+      <c r="CQ24" s="1" t="str">
+        <f t="shared" ref="CQ24" si="1">"INTEGER_0"</f>
+        <v>INTEGER_0</v>
+      </c>
+      <c r="CR24" s="92" t="s">
         <v>342</v>
       </c>
-      <c r="CO24" s="1" t="e">
-        <f t="shared" ref="CO24" ca="1" si="1">IF(I24&lt;&gt;"","INTEGER_1",IF(K24=1,"INTEGER_2","INTEGER_0"))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CP24" s="94" t="s">
+      <c r="CS24" s="1" t="str">
+        <f t="shared" ref="CS24" ca="1" si="2">IFERROR(_xlfn.IFS(CM24="INTEGER_0","INTEGER_4",CM24="INTEGER_1","INTEGER_4",IF(BP24=1,IF(BU24=1,1,0),0),"INTEGER_2",CO24="INTEGER_5","INTEGER_3"),"INTEGER_0")</f>
+        <v>INTEGER_0</v>
+      </c>
+      <c r="CT24" s="92" t="s">
         <v>343</v>
       </c>
-      <c r="CQ24" s="1" t="e">
-        <f ca="1">IF(BU24=0,IF(I24&lt;&gt;"","INTEGER_0",IF(BO24="-",IF(BT24=1,"INTEGER_0",IF(INDEX($BX$24:BX24,COUNT($BM$24:BM24)-1)=INDEX($BX$24:BX24,COUNT($BM$24:BM24)),"INTEGER_1","INTEGER_0")),"INTEGER_0")),"INTEGER_0")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CR24" s="94" t="s">
+      <c r="CU24" s="1" t="str">
+        <f ca="1">IFERROR(_xlfn.IFS(BP24=1,"INTEGER_0",I24&lt;&gt;"","INTEGER_0",IF(BU24=1,1,0),"INTEGER_0",IF(BP24=0,IF(BU24=0,IF(AJ24="",1,0),0),0),"INTEGER_3",IF(BP24=0,IF(BU24=0,IF(AJ24=INDEX($AJ$24:AJ24,BO24-1),1,0),0),0),"INTEGER_3"),"INTEGER_0")</f>
+        <v>INTEGER_0</v>
+      </c>
+      <c r="CV24" s="92" t="s">
         <v>344</v>
       </c>
-      <c r="CS24" s="1" t="str">
-        <f t="shared" ref="CS24" si="2">IF(BU24=0,"INTEGER_0","INTEGER_0")</f>
+      <c r="CW24" s="1" t="str">
+        <f t="shared" ref="CW24" si="3">IF(BV24=0,"INTEGER_0","INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
-      <c r="CT24" s="94" t="s">
+      <c r="CX24" s="92" t="s">
         <v>345</v>
       </c>
-      <c r="CU24" s="1" t="e">
-        <f t="shared" ref="CU24" ca="1" si="3">IF(BU24=0,IF(BO24=1,"INTEGER_5",IF(CQ24="INTEGER_1","INTEGER_1",IF(CO24="INTEGER_1","INTEGER_5",IF(CO24="INTEGER_2","INTEGER_5","INTEGER_0")))),"INTEGER_0")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="CV24" s="1" t="s">
+      <c r="CY24" s="1" t="str">
+        <f ca="1">IFERROR(_xlfn.IFS(IF(BP24=1,1,0),"INTEGER_0",I24&lt;&gt;"","INTEGER_5",CU24="INTEGER_3","INTEGER_3",IF(BU24=1,IF(BP24=0,1,0),0),"INTEGER_5",IF(AJ24=INDEX($AJ$24:AJ24,BO24-1),1,0),"INTEGER_5"),"INTEGER_0")</f>
+        <v>INTEGER_0</v>
+      </c>
+      <c r="CZ24" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="CW24" s="1" t="str">
-        <f t="shared" ref="CW24" si="4">O24</f>
+      <c r="DA24" s="1" t="str">
+        <f t="shared" ref="DA24" si="4">O24</f>
         <v>Position</v>
       </c>
-      <c r="CX24" t="s">
+      <c r="DB24" t="s">
         <v>59</v>
       </c>
-      <c r="CY24" t="s">
+      <c r="DC24" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="46">
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="O22:Z22"/>
     <mergeCell ref="E22:E23"/>
@@ -5847,7 +5965,7 @@
     <mergeCell ref="I22:I23"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="M22:M23"/>
-    <mergeCell ref="BM22:BW23"/>
+    <mergeCell ref="BM22:BX23"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="P4:U4"/>
     <mergeCell ref="D5:G5"/>
@@ -5871,6 +5989,7 @@
     <mergeCell ref="P11:S11"/>
     <mergeCell ref="T11:U11"/>
     <mergeCell ref="D11:G11"/>
+    <mergeCell ref="BW21:BX21"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="P14:S14"/>
     <mergeCell ref="P12:S12"/>
@@ -5881,72 +6000,72 @@
     <mergeCell ref="D13:G13"/>
   </mergeCells>
   <conditionalFormatting sqref="P24">
-    <cfRule type="expression" dxfId="102" priority="116">
+    <cfRule type="expression" dxfId="102" priority="284">
       <formula>NOT(_xlfn.ISFORMULA(P24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24">
-    <cfRule type="expression" dxfId="101" priority="110">
+    <cfRule type="expression" dxfId="101" priority="278">
       <formula>NOT(_xlfn.ISFORMULA(Q24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24">
-    <cfRule type="expression" dxfId="100" priority="109">
+    <cfRule type="expression" dxfId="100" priority="277">
       <formula>NOT(_xlfn.ISFORMULA(R24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24">
-    <cfRule type="expression" dxfId="99" priority="108">
+    <cfRule type="expression" dxfId="99" priority="276">
       <formula>NOT(_xlfn.ISFORMULA(S24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24">
-    <cfRule type="expression" dxfId="98" priority="107">
+    <cfRule type="expression" dxfId="98" priority="275">
       <formula>NOT(_xlfn.ISFORMULA(Y24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP24">
-    <cfRule type="expression" dxfId="97" priority="105">
+    <cfRule type="expression" dxfId="97" priority="273">
       <formula>NOT(_xlfn.ISFORMULA(AP24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS24">
-    <cfRule type="expression" dxfId="96" priority="104">
+    <cfRule type="expression" dxfId="96" priority="272">
       <formula>NOT(_xlfn.ISFORMULA(AS24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV24">
-    <cfRule type="expression" dxfId="95" priority="102">
+    <cfRule type="expression" dxfId="95" priority="270">
       <formula>NOT(_xlfn.ISFORMULA(AV24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24">
-    <cfRule type="expression" dxfId="94" priority="101">
+    <cfRule type="expression" dxfId="94" priority="269">
       <formula>NOT(_xlfn.ISFORMULA(AQ24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="93" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="267" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="268" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:L24">
-    <cfRule type="cellIs" dxfId="91" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="265" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="266" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI24">
+  <conditionalFormatting sqref="CZ24">
     <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CI24">
+  <conditionalFormatting sqref="CZ24">
     <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -5963,12 +6082,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ24">
+  <conditionalFormatting sqref="DA24">
     <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CJ24">
+  <conditionalFormatting sqref="DA24">
     <cfRule type="cellIs" dxfId="82" priority="79" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -5985,12 +6104,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK24">
+  <conditionalFormatting sqref="CM24">
     <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CK24">
+  <conditionalFormatting sqref="CM24">
     <cfRule type="cellIs" dxfId="76" priority="73" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6007,12 +6126,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL24">
+  <conditionalFormatting sqref="CN24">
     <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CL24">
+  <conditionalFormatting sqref="CN24">
     <cfRule type="cellIs" dxfId="70" priority="67" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6029,12 +6148,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM24">
+  <conditionalFormatting sqref="CO24">
     <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CM24">
+  <conditionalFormatting sqref="CO24">
     <cfRule type="cellIs" dxfId="64" priority="61" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6051,12 +6170,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN24">
+  <conditionalFormatting sqref="CP24">
     <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CN24">
+  <conditionalFormatting sqref="CP24">
     <cfRule type="cellIs" dxfId="58" priority="55" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6073,12 +6192,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO24">
+  <conditionalFormatting sqref="CQ24">
     <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CO24">
+  <conditionalFormatting sqref="CQ24">
     <cfRule type="cellIs" dxfId="52" priority="49" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6095,12 +6214,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CP24">
+  <conditionalFormatting sqref="CR24">
     <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CP24">
+  <conditionalFormatting sqref="CR24">
     <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6117,12 +6236,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CQ24">
+  <conditionalFormatting sqref="CS24">
     <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CQ24">
+  <conditionalFormatting sqref="CS24">
     <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6139,12 +6258,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CR24">
+  <conditionalFormatting sqref="CT24">
     <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CR24">
+  <conditionalFormatting sqref="CT24">
     <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6161,12 +6280,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CS24">
+  <conditionalFormatting sqref="CU24">
     <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CS24">
+  <conditionalFormatting sqref="CU24">
     <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6183,12 +6302,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CT24">
+  <conditionalFormatting sqref="CV24">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CT24">
+  <conditionalFormatting sqref="CV24">
     <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6205,12 +6324,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CU24">
+  <conditionalFormatting sqref="CW24">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CU24">
+  <conditionalFormatting sqref="CW24">
     <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6227,12 +6346,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CV24">
+  <conditionalFormatting sqref="CX24">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CV24">
+  <conditionalFormatting sqref="CX24">
     <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6249,12 +6368,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CW24">
+  <conditionalFormatting sqref="CY24">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CW24">
+  <conditionalFormatting sqref="CY24">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6281,8 +6400,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772FECD8-F93D-41DA-984E-EC1C5AEE2748}">
   <dimension ref="B5:W11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6459,13 +6578,13 @@
         <f>IF(R11=1,1,0)</f>
         <v>1</v>
       </c>
-      <c r="T11" s="1" t="str">
-        <f>IFERROR(IF(MATCH(D11,$E$11:$E$12000,0)&gt;0,D11,"-"),"-")</f>
-        <v>-</v>
-      </c>
-      <c r="U11" s="1" t="str">
-        <f>IFERROR(IF(MATCH(E11,$D$11:D11,0)&gt;0,INDEX($D$11:D11,MATCH(E11,$D$11:D11,0)),"-"),"-")</f>
-        <v>-</v>
+      <c r="T11" s="1">
+        <f>IFERROR(IF(MATCH(D11,$E$11:$E$12000,0)&gt;0,D11,0),0)</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="1">
+        <f>IFERROR(IF(MATCH(E11,$D$11:D11,0)&gt;0,INDEX($D$11:D11,MATCH(E11,$D$11:D11,0)),0),0)</f>
+        <v>0</v>
       </c>
       <c r="V11" s="1" t="str">
         <f>IF(IFERROR(MATCH(E11,$D$11:D11,0),0)&gt;0,INDEX($V$11:V11,MATCH(E11,$D$11:D11,0)),F11)</f>
@@ -6894,75 +7013,75 @@
   <sheetData>
     <row r="2" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:67" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="102" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="99"/>
-      <c r="F3" s="100" t="s">
+      <c r="B3" s="103"/>
+      <c r="C3" s="104"/>
+      <c r="F3" s="105" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="102"/>
-      <c r="K3" s="105" t="s">
+      <c r="G3" s="106"/>
+      <c r="H3" s="107"/>
+      <c r="K3" s="110" t="s">
         <v>195</v>
       </c>
-      <c r="L3" s="106"/>
-      <c r="M3" s="106"/>
-      <c r="N3" s="106"/>
-      <c r="O3" s="106"/>
-      <c r="P3" s="106"/>
-      <c r="Q3" s="106"/>
-      <c r="R3" s="106"/>
-      <c r="S3" s="106"/>
-      <c r="T3" s="106"/>
-      <c r="U3" s="106"/>
-      <c r="V3" s="106"/>
-      <c r="W3" s="106"/>
-      <c r="X3" s="106"/>
-      <c r="Y3" s="106"/>
-      <c r="Z3" s="106"/>
-      <c r="AA3" s="106"/>
-      <c r="AB3" s="106"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="106"/>
-      <c r="AG3" s="106"/>
-      <c r="AH3" s="106"/>
-      <c r="AI3" s="106"/>
-      <c r="AJ3" s="106"/>
-      <c r="AK3" s="106"/>
-      <c r="AL3" s="106"/>
-      <c r="AM3" s="106"/>
-      <c r="AN3" s="106"/>
-      <c r="AO3" s="106"/>
-      <c r="AP3" s="106"/>
-      <c r="AQ3" s="106"/>
-      <c r="AR3" s="106"/>
-      <c r="AS3" s="106"/>
-      <c r="AT3" s="106"/>
-      <c r="AU3" s="106"/>
-      <c r="AV3" s="106"/>
-      <c r="AW3" s="106"/>
-      <c r="AX3" s="106"/>
-      <c r="AY3" s="106"/>
-      <c r="AZ3" s="106"/>
-      <c r="BA3" s="106"/>
-      <c r="BB3" s="106"/>
-      <c r="BC3" s="106"/>
-      <c r="BD3" s="106"/>
-      <c r="BE3" s="106"/>
-      <c r="BF3" s="106"/>
-      <c r="BG3" s="106"/>
-      <c r="BH3" s="106"/>
-      <c r="BI3" s="106"/>
-      <c r="BJ3" s="106"/>
-      <c r="BK3" s="106"/>
-      <c r="BL3" s="106"/>
-      <c r="BM3" s="106"/>
-      <c r="BN3" s="106"/>
-      <c r="BO3" s="106"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="111"/>
+      <c r="Q3" s="111"/>
+      <c r="R3" s="111"/>
+      <c r="S3" s="111"/>
+      <c r="T3" s="111"/>
+      <c r="U3" s="111"/>
+      <c r="V3" s="111"/>
+      <c r="W3" s="111"/>
+      <c r="X3" s="111"/>
+      <c r="Y3" s="111"/>
+      <c r="Z3" s="111"/>
+      <c r="AA3" s="111"/>
+      <c r="AB3" s="111"/>
+      <c r="AC3" s="111"/>
+      <c r="AD3" s="111"/>
+      <c r="AE3" s="111"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="111"/>
+      <c r="AH3" s="111"/>
+      <c r="AI3" s="111"/>
+      <c r="AJ3" s="111"/>
+      <c r="AK3" s="111"/>
+      <c r="AL3" s="111"/>
+      <c r="AM3" s="111"/>
+      <c r="AN3" s="111"/>
+      <c r="AO3" s="111"/>
+      <c r="AP3" s="111"/>
+      <c r="AQ3" s="111"/>
+      <c r="AR3" s="111"/>
+      <c r="AS3" s="111"/>
+      <c r="AT3" s="111"/>
+      <c r="AU3" s="111"/>
+      <c r="AV3" s="111"/>
+      <c r="AW3" s="111"/>
+      <c r="AX3" s="111"/>
+      <c r="AY3" s="111"/>
+      <c r="AZ3" s="111"/>
+      <c r="BA3" s="111"/>
+      <c r="BB3" s="111"/>
+      <c r="BC3" s="111"/>
+      <c r="BD3" s="111"/>
+      <c r="BE3" s="111"/>
+      <c r="BF3" s="111"/>
+      <c r="BG3" s="111"/>
+      <c r="BH3" s="111"/>
+      <c r="BI3" s="111"/>
+      <c r="BJ3" s="111"/>
+      <c r="BK3" s="111"/>
+      <c r="BL3" s="111"/>
+      <c r="BM3" s="111"/>
+      <c r="BN3" s="111"/>
+      <c r="BO3" s="111"/>
     </row>
     <row r="4" spans="1:67" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
@@ -7889,10 +8008,10 @@
       <c r="BO8" s="10"/>
     </row>
     <row r="9" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="103" t="s">
+      <c r="A9" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="104"/>
+      <c r="B9" s="109"/>
       <c r="F9" s="36">
         <v>2500</v>
       </c>
@@ -12115,11 +12234,11 @@
     </row>
     <row r="41" spans="6:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="6:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="100" t="s">
+      <c r="F42" s="105" t="s">
         <v>188</v>
       </c>
-      <c r="G42" s="101"/>
-      <c r="H42" s="102"/>
+      <c r="G42" s="106"/>
+      <c r="H42" s="107"/>
     </row>
     <row r="43" spans="6:67" ht="31.5" x14ac:dyDescent="0.25">
       <c r="F43" s="45" t="s">
@@ -12349,41 +12468,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="110" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
-      <c r="I2" s="106"/>
-      <c r="J2" s="106"/>
-      <c r="K2" s="106"/>
-      <c r="L2" s="106"/>
-      <c r="M2" s="106"/>
-      <c r="N2" s="106"/>
-      <c r="O2" s="106"/>
-      <c r="P2" s="106"/>
-      <c r="Q2" s="106"/>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
-      <c r="AA2" s="106"/>
-      <c r="AB2" s="106"/>
-      <c r="AC2" s="106"/>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="106"/>
-      <c r="AG2" s="106"/>
-      <c r="AH2" s="107"/>
+      <c r="C2" s="111"/>
+      <c r="D2" s="111"/>
+      <c r="E2" s="111"/>
+      <c r="F2" s="111"/>
+      <c r="G2" s="111"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+      <c r="J2" s="111"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
+      <c r="M2" s="111"/>
+      <c r="N2" s="111"/>
+      <c r="O2" s="111"/>
+      <c r="P2" s="111"/>
+      <c r="Q2" s="111"/>
+      <c r="R2" s="111"/>
+      <c r="S2" s="111"/>
+      <c r="T2" s="111"/>
+      <c r="U2" s="111"/>
+      <c r="V2" s="111"/>
+      <c r="W2" s="111"/>
+      <c r="X2" s="111"/>
+      <c r="Y2" s="111"/>
+      <c r="Z2" s="111"/>
+      <c r="AA2" s="111"/>
+      <c r="AB2" s="111"/>
+      <c r="AC2" s="111"/>
+      <c r="AD2" s="111"/>
+      <c r="AE2" s="111"/>
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="111"/>
+      <c r="AH2" s="112"/>
     </row>
     <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="54" t="s">
@@ -13324,49 +13443,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="113" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+      <c r="I1" s="113"/>
+      <c r="J1" s="113"/>
+      <c r="K1" s="113"/>
+      <c r="L1" s="113"/>
+      <c r="M1" s="113"/>
+      <c r="N1" s="113"/>
+      <c r="O1" s="113"/>
+      <c r="P1" s="113"/>
+      <c r="Q1" s="113"/>
+      <c r="R1" s="113"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
       <c r="B2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="109"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="110"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="115"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
@@ -13862,20 +13981,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D1" s="111" t="s">
+      <c r="D1" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -13949,216 +14068,216 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="8" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
+      <c r="F8" s="117"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="117"/>
+      <c r="J8" s="117"/>
+      <c r="K8" s="117"/>
+      <c r="L8" s="117"/>
+      <c r="M8" s="117"/>
+      <c r="N8" s="117"/>
+      <c r="O8" s="117"/>
+      <c r="P8" s="117"/>
     </row>
     <row r="9" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="112"/>
-      <c r="F9" s="112"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="112"/>
-      <c r="J9" s="112"/>
-      <c r="K9" s="112"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="112"/>
-      <c r="N9" s="112"/>
-      <c r="O9" s="112"/>
-      <c r="P9" s="112"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="117"/>
+      <c r="I9" s="117"/>
+      <c r="J9" s="117"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="117"/>
+      <c r="N9" s="117"/>
+      <c r="O9" s="117"/>
+      <c r="P9" s="117"/>
     </row>
     <row r="10" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="112"/>
-      <c r="F10" s="112"/>
-      <c r="G10" s="112"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="112"/>
-      <c r="J10" s="112"/>
-      <c r="K10" s="112"/>
-      <c r="L10" s="112"/>
-      <c r="M10" s="112"/>
-      <c r="N10" s="112"/>
-      <c r="O10" s="112"/>
-      <c r="P10" s="112"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="117"/>
+      <c r="K10" s="117"/>
+      <c r="L10" s="117"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="117"/>
+      <c r="P10" s="117"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="112"/>
-      <c r="F11" s="112"/>
-      <c r="G11" s="112"/>
-      <c r="H11" s="112"/>
-      <c r="I11" s="112"/>
-      <c r="J11" s="112"/>
-      <c r="K11" s="112"/>
-      <c r="L11" s="112"/>
-      <c r="M11" s="112"/>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="117"/>
+      <c r="N11" s="117"/>
+      <c r="O11" s="117"/>
+      <c r="P11" s="117"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="112"/>
-      <c r="F12" s="112"/>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112"/>
-      <c r="I12" s="112"/>
-      <c r="J12" s="112"/>
-      <c r="K12" s="112"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="112"/>
-      <c r="N12" s="112"/>
-      <c r="O12" s="112"/>
-      <c r="P12" s="112"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="117"/>
+      <c r="I12" s="117"/>
+      <c r="J12" s="117"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="117"/>
+      <c r="P12" s="117"/>
     </row>
     <row r="13" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E13" s="112"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="112"/>
-      <c r="J13" s="112"/>
-      <c r="K13" s="112"/>
-      <c r="L13" s="112"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="117"/>
     </row>
     <row r="14" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="112"/>
-      <c r="J14" s="112"/>
-      <c r="K14" s="112"/>
-      <c r="L14" s="112"/>
-      <c r="M14" s="112"/>
-      <c r="N14" s="112"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
+      <c r="K14" s="117"/>
+      <c r="L14" s="117"/>
+      <c r="M14" s="117"/>
+      <c r="N14" s="117"/>
+      <c r="O14" s="117"/>
+      <c r="P14" s="117"/>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="112"/>
-      <c r="J15" s="112"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="112"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="112"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="117"/>
+      <c r="K15" s="117"/>
+      <c r="L15" s="117"/>
+      <c r="M15" s="117"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="117"/>
+      <c r="P15" s="117"/>
     </row>
     <row r="16" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="112"/>
-      <c r="J16" s="112"/>
-      <c r="K16" s="112"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="112"/>
-      <c r="N16" s="112"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="117"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="117"/>
+      <c r="N16" s="117"/>
+      <c r="O16" s="117"/>
+      <c r="P16" s="117"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="112"/>
-      <c r="J17" s="112"/>
-      <c r="K17" s="112"/>
-      <c r="L17" s="112"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="117"/>
+      <c r="K17" s="117"/>
+      <c r="L17" s="117"/>
+      <c r="M17" s="117"/>
+      <c r="N17" s="117"/>
+      <c r="O17" s="117"/>
+      <c r="P17" s="117"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="112"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="117"/>
+      <c r="K18" s="117"/>
+      <c r="L18" s="117"/>
+      <c r="M18" s="117"/>
+      <c r="N18" s="117"/>
+      <c r="O18" s="117"/>
+      <c r="P18" s="117"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="112"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="112"/>
-      <c r="J19" s="112"/>
-      <c r="K19" s="112"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="112"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+      <c r="I19" s="117"/>
+      <c r="J19" s="117"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="117"/>
+      <c r="N19" s="117"/>
+      <c r="O19" s="117"/>
+      <c r="P19" s="117"/>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-      <c r="K20" s="112"/>
-      <c r="L20" s="112"/>
-      <c r="M20" s="112"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
+      <c r="I20" s="117"/>
+      <c r="J20" s="117"/>
+      <c r="K20" s="117"/>
+      <c r="L20" s="117"/>
+      <c r="M20" s="117"/>
+      <c r="N20" s="117"/>
+      <c r="O20" s="117"/>
+      <c r="P20" s="117"/>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-      <c r="K21" s="112"/>
-      <c r="L21" s="112"/>
-      <c r="M21" s="112"/>
-      <c r="N21" s="112"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
+      <c r="I21" s="117"/>
+      <c r="J21" s="117"/>
+      <c r="K21" s="117"/>
+      <c r="L21" s="117"/>
+      <c r="M21" s="117"/>
+      <c r="N21" s="117"/>
+      <c r="O21" s="117"/>
+      <c r="P21" s="117"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="112"/>
-      <c r="N22" s="112"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
+      <c r="I22" s="117"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="117"/>
+      <c r="N22" s="117"/>
+      <c r="O22" s="117"/>
+      <c r="P22" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO2.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236A0E87-6107-4542-9BB4-65C0D7D5FABE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE28AC63-1F49-4D87-AC43-000A0B89922A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22470" yWindow="1650" windowWidth="17355" windowHeight="15390" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="24225" yWindow="1140" windowWidth="17355" windowHeight="14670" firstSheet="8" activeTab="11" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;workbook&gt;SET" sheetId="7" r:id="rId1"/>
@@ -789,7 +789,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="370">
   <si>
     <t>&lt;zlight&gt;DEVEXPORT</t>
   </si>
@@ -1841,7 +1841,73 @@
     <t>VSCHEMADevpos</t>
   </si>
   <si>
-    <t>Elec237</t>
+    <t>NMO_BaseName</t>
+  </si>
+  <si>
+    <t>VSCHEMADevpower</t>
+  </si>
+  <si>
+    <t>VSCHEMADevamperage</t>
+  </si>
+  <si>
+    <t>VSCHEMADevname</t>
+  </si>
+  <si>
+    <t>VSCHEMAShieldpos</t>
+  </si>
+  <si>
+    <t>VSCHEMAShieldname</t>
+  </si>
+  <si>
+    <t>VSCHEMAPy</t>
+  </si>
+  <si>
+    <t>VSCHEMAKc</t>
+  </si>
+  <si>
+    <t>VSCHEMAPp</t>
+  </si>
+  <si>
+    <t>VSCHEMACosf</t>
+  </si>
+  <si>
+    <t>VSCHEMAIp</t>
+  </si>
+  <si>
+    <t>Расчетный ток,А</t>
+  </si>
+  <si>
+    <t>VSCHEMAFeedernamemain</t>
+  </si>
+  <si>
+    <t>VSCHEMACable11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>VSCHEMACable12</t>
+  </si>
+  <si>
+    <t>VSCHEMACable21</t>
+  </si>
+  <si>
+    <t>Elec238</t>
+  </si>
+  <si>
+    <t>DEVICE_VSCHEMES_QF</t>
+  </si>
+  <si>
+    <t>АВТОМАТ 1-й</t>
+  </si>
+  <si>
+    <t>АВUGO</t>
+  </si>
+  <si>
+    <t>АВMOVEX</t>
+  </si>
+  <si>
+    <t>АВMOVEY</t>
   </si>
 </sst>
 </file>
@@ -2758,7 +2824,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="154">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3065,6 +3131,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3113,56 +3186,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -3172,30 +3195,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -3238,6 +3237,86 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -4517,8 +4596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9A3CA2-6484-4A78-8C46-2DFDF58AF4E8}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4531,7 +4610,7 @@
         <v>88</v>
       </c>
       <c r="B1" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -4626,7 +4705,7 @@
   <dimension ref="B4:AL8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:AK7"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4753,7 +4832,7 @@
       </c>
       <c r="X8" s="1" t="str">
         <f>'&lt;zlight&gt;'!O24&amp;" ("&amp;'&lt;zlight&gt;'!W24&amp;" шт.)"</f>
-        <v>Position (1 шт.)</v>
+        <v>NMO_BaseName (1 шт.)</v>
       </c>
       <c r="Y8" s="1" t="s">
         <v>77</v>
@@ -4808,10 +4887,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8C22C-893A-456C-B6B4-5CEC07C317DD}">
-  <dimension ref="C1:DC24"/>
+  <dimension ref="C1:DY24"/>
   <sheetViews>
-    <sheetView topLeftCell="AE1" workbookViewId="0">
-      <selection activeCell="AK11" sqref="AK11"/>
+    <sheetView tabSelected="1" topLeftCell="DI1" workbookViewId="0">
+      <selection activeCell="DS20" sqref="DS20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4847,7 +4926,7 @@
     <col min="83" max="83" width="28" customWidth="1"/>
     <col min="84" max="89" width="10.42578125" customWidth="1"/>
     <col min="90" max="90" width="25" customWidth="1"/>
-    <col min="91" max="106" width="10.42578125" customWidth="1"/>
+    <col min="91" max="108" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="4:31" x14ac:dyDescent="0.25">
@@ -4873,33 +4952,33 @@
       </c>
     </row>
     <row r="4" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="141" t="s">
         <v>285</v>
       </c>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="141"/>
+      <c r="H4" s="141"/>
       <c r="I4" s="84" t="s">
         <v>286</v>
       </c>
       <c r="O4" s="84"/>
-      <c r="P4" s="129" t="s">
+      <c r="P4" s="141" t="s">
         <v>287</v>
       </c>
-      <c r="Q4" s="129"/>
-      <c r="R4" s="129"/>
-      <c r="S4" s="129"/>
-      <c r="T4" s="129"/>
-      <c r="U4" s="129"/>
+      <c r="Q4" s="141"/>
+      <c r="R4" s="141"/>
+      <c r="S4" s="141"/>
+      <c r="T4" s="141"/>
+      <c r="U4" s="141"/>
     </row>
     <row r="5" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="135" t="s">
         <v>288</v>
       </c>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
       <c r="H5" s="78" t="str">
         <f>'&lt;zlight&gt;'!F18</f>
         <v>NMO_Name</v>
@@ -4910,25 +4989,25 @@
       <c r="O5" s="82" t="s">
         <v>290</v>
       </c>
-      <c r="P5" s="130" t="s">
+      <c r="P5" s="136" t="s">
         <v>291</v>
       </c>
-      <c r="Q5" s="130"/>
-      <c r="R5" s="130"/>
-      <c r="S5" s="130"/>
-      <c r="T5" s="130" t="e">
+      <c r="Q5" s="136"/>
+      <c r="R5" s="136"/>
+      <c r="S5" s="136"/>
+      <c r="T5" s="136" t="e">
         <f ca="1">SUM($AC$24:$AC$12000)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U5" s="130"/>
+      <c r="U5" s="136"/>
     </row>
     <row r="6" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="135" t="s">
         <v>292</v>
       </c>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
+      <c r="E6" s="135"/>
+      <c r="F6" s="135"/>
+      <c r="G6" s="135"/>
       <c r="H6" s="79" t="s">
         <v>293</v>
       </c>
@@ -4938,25 +5017,25 @@
       <c r="O6" s="82">
         <v>63</v>
       </c>
-      <c r="P6" s="130" t="s">
+      <c r="P6" s="136" t="s">
         <v>295</v>
       </c>
-      <c r="Q6" s="130"/>
-      <c r="R6" s="130"/>
-      <c r="S6" s="130"/>
-      <c r="T6" s="130" t="e">
+      <c r="Q6" s="136"/>
+      <c r="R6" s="136"/>
+      <c r="S6" s="136"/>
+      <c r="T6" s="136" t="e">
         <f ca="1">T5*T11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U6" s="130"/>
+      <c r="U6" s="136"/>
     </row>
     <row r="7" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="135" t="s">
         <v>296</v>
       </c>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
       <c r="H7" s="79">
         <v>45399</v>
       </c>
@@ -4966,25 +5045,25 @@
       <c r="O7" s="82">
         <v>32</v>
       </c>
-      <c r="P7" s="130" t="s">
+      <c r="P7" s="136" t="s">
         <v>298</v>
       </c>
-      <c r="Q7" s="130"/>
-      <c r="R7" s="130"/>
-      <c r="S7" s="130"/>
-      <c r="T7" s="130" t="e">
+      <c r="Q7" s="136"/>
+      <c r="R7" s="136"/>
+      <c r="S7" s="136"/>
+      <c r="T7" s="136" t="e">
         <f ca="1">SUM($AE$24:$AE$12000)*T11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U7" s="130"/>
+      <c r="U7" s="136"/>
     </row>
     <row r="8" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="135" t="s">
         <v>299</v>
       </c>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
       <c r="H8" s="79" t="s">
         <v>300</v>
       </c>
@@ -4994,24 +5073,24 @@
       <c r="O8" s="82">
         <v>6</v>
       </c>
-      <c r="P8" s="131" t="s">
+      <c r="P8" s="138" t="s">
         <v>321</v>
       </c>
-      <c r="Q8" s="132"/>
-      <c r="R8" s="132"/>
-      <c r="S8" s="133"/>
-      <c r="T8" s="123">
+      <c r="Q8" s="139"/>
+      <c r="R8" s="139"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="137">
         <v>0.92</v>
       </c>
-      <c r="U8" s="123"/>
+      <c r="U8" s="137"/>
     </row>
     <row r="9" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="135" t="s">
         <v>303</v>
       </c>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
+      <c r="G9" s="135"/>
       <c r="H9" s="79" t="s">
         <v>304</v>
       </c>
@@ -5021,42 +5100,42 @@
       <c r="O9" s="82" t="s">
         <v>306</v>
       </c>
-      <c r="P9" s="122" t="s">
+      <c r="P9" s="142" t="s">
         <v>302</v>
       </c>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="123"/>
-      <c r="U9" s="123"/>
+      <c r="Q9" s="142"/>
+      <c r="R9" s="142"/>
+      <c r="S9" s="142"/>
+      <c r="T9" s="137"/>
+      <c r="U9" s="137"/>
     </row>
     <row r="10" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="135" t="s">
         <v>307</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
       <c r="I10" s="82" t="s">
         <v>308</v>
       </c>
       <c r="O10" s="82">
         <v>4</v>
       </c>
-      <c r="P10" s="122"/>
-      <c r="Q10" s="122"/>
-      <c r="R10" s="122"/>
-      <c r="S10" s="122"/>
-      <c r="T10" s="123"/>
-      <c r="U10" s="123"/>
+      <c r="P10" s="142"/>
+      <c r="Q10" s="142"/>
+      <c r="R10" s="142"/>
+      <c r="S10" s="142"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
     </row>
     <row r="11" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="135" t="s">
         <v>323</v>
       </c>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
+      <c r="G11" s="135"/>
       <c r="H11" s="79">
         <v>380</v>
       </c>
@@ -5066,24 +5145,24 @@
       <c r="O11" s="82" t="s">
         <v>311</v>
       </c>
-      <c r="P11" s="124" t="s">
+      <c r="P11" s="144" t="s">
         <v>312</v>
       </c>
-      <c r="Q11" s="125"/>
-      <c r="R11" s="125"/>
-      <c r="S11" s="126"/>
-      <c r="T11" s="124">
+      <c r="Q11" s="145"/>
+      <c r="R11" s="145"/>
+      <c r="S11" s="146"/>
+      <c r="T11" s="144">
         <v>0.65</v>
       </c>
-      <c r="U11" s="126"/>
+      <c r="U11" s="146"/>
     </row>
     <row r="12" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D12" s="120" t="s">
+      <c r="D12" s="135" t="s">
         <v>309</v>
       </c>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
       <c r="H12" s="79" t="s">
         <v>322</v>
       </c>
@@ -5093,79 +5172,90 @@
       <c r="O12" s="82" t="s">
         <v>315</v>
       </c>
-      <c r="P12" s="121" t="s">
+      <c r="P12" s="143" t="s">
         <v>316</v>
       </c>
-      <c r="Q12" s="121"/>
-      <c r="R12" s="121"/>
-      <c r="S12" s="121"/>
-      <c r="T12" s="121">
+      <c r="Q12" s="143"/>
+      <c r="R12" s="143"/>
+      <c r="S12" s="143"/>
+      <c r="T12" s="143">
         <v>44.5</v>
       </c>
-      <c r="U12" s="121"/>
+      <c r="U12" s="143"/>
     </row>
     <row r="13" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="120" t="s">
+      <c r="D13" s="135" t="s">
         <v>313</v>
       </c>
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
+      <c r="G13" s="135"/>
       <c r="H13" s="79" t="s">
         <v>314</v>
       </c>
       <c r="I13" s="83"/>
       <c r="O13" s="83"/>
-      <c r="P13" s="121" t="s">
+      <c r="P13" s="143" t="s">
         <v>318</v>
       </c>
-      <c r="Q13" s="121"/>
-      <c r="R13" s="121"/>
-      <c r="S13" s="121"/>
-      <c r="T13" s="121">
+      <c r="Q13" s="143"/>
+      <c r="R13" s="143"/>
+      <c r="S13" s="143"/>
+      <c r="T13" s="143">
         <v>44.5</v>
       </c>
-      <c r="U13" s="121"/>
+      <c r="U13" s="143"/>
       <c r="AC13" s="52"/>
       <c r="AD13" s="52"/>
       <c r="AE13" s="52"/>
     </row>
     <row r="14" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D14" s="120" t="s">
+      <c r="D14" s="135" t="s">
         <v>317</v>
       </c>
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
+      <c r="G14" s="135"/>
       <c r="H14" s="80" t="str">
         <f>'&lt;zlight&gt;'!G18&amp;"."&amp;'&lt;zlight&gt;'!H18</f>
         <v>GC_HeadDevice.GC_HDGroup</v>
       </c>
       <c r="I14" s="83"/>
       <c r="O14" s="83"/>
-      <c r="P14" s="121" t="s">
+      <c r="P14" s="143" t="s">
         <v>320</v>
       </c>
-      <c r="Q14" s="121"/>
-      <c r="R14" s="121"/>
-      <c r="S14" s="121"/>
-      <c r="T14" s="121">
+      <c r="Q14" s="143"/>
+      <c r="R14" s="143"/>
+      <c r="S14" s="143"/>
+      <c r="T14" s="143">
         <v>44.5</v>
       </c>
-      <c r="U14" s="121"/>
+      <c r="U14" s="143"/>
     </row>
     <row r="15" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="135" t="s">
         <v>319</v>
       </c>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
+      <c r="G15" s="135"/>
       <c r="H15" s="79">
         <v>77</v>
       </c>
+      <c r="O15" s="102"/>
+      <c r="P15" s="150" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q15" s="150"/>
+      <c r="R15" s="150"/>
+      <c r="S15" s="150"/>
+      <c r="T15" s="150" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U15" s="150"/>
     </row>
-    <row r="18" spans="3:107" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:129" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>99</v>
       </c>
@@ -5187,7 +5277,7 @@
       <c r="BM18" s="1"/>
       <c r="BP18" s="1"/>
     </row>
-    <row r="20" spans="3:107" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:129" x14ac:dyDescent="0.25">
       <c r="CE20" s="77" t="s">
         <v>273</v>
       </c>
@@ -5204,7 +5294,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="3:107" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:129" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BM21" s="11"/>
       <c r="BN21" s="11"/>
       <c r="BO21" s="96"/>
@@ -5215,8 +5305,8 @@
       <c r="BT21" s="11"/>
       <c r="BU21" s="79"/>
       <c r="BV21" s="79"/>
-      <c r="BW21" s="118"/>
-      <c r="BX21" s="119"/>
+      <c r="BW21" s="148"/>
+      <c r="BX21" s="149"/>
       <c r="BY21" s="99"/>
       <c r="BZ21" s="99"/>
       <c r="CA21" s="99"/>
@@ -5240,111 +5330,111 @@
       <c r="CI21" s="1">
         <v>1</v>
       </c>
-      <c r="DB21" t="s">
+      <c r="DR21" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="3:107" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="148" t="s">
+    <row r="22" spans="3:129" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="129" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="152" t="s">
+      <c r="E22" s="133" t="s">
         <v>190</v>
       </c>
-      <c r="F22" s="143" t="s">
+      <c r="F22" s="124" t="s">
         <v>191</v>
       </c>
-      <c r="G22" s="152" t="s">
+      <c r="G22" s="133" t="s">
         <v>192</v>
       </c>
-      <c r="H22" s="143" t="s">
+      <c r="H22" s="124" t="s">
         <v>193</v>
       </c>
-      <c r="I22" s="143" t="s">
+      <c r="I22" s="124" t="s">
         <v>194</v>
       </c>
-      <c r="J22" s="145" t="s">
+      <c r="J22" s="126" t="s">
         <v>329</v>
       </c>
-      <c r="K22" s="145"/>
-      <c r="L22" s="145"/>
-      <c r="M22" s="146" t="s">
+      <c r="K22" s="126"/>
+      <c r="L22" s="126"/>
+      <c r="M22" s="127" t="s">
         <v>334</v>
       </c>
-      <c r="O22" s="150" t="s">
+      <c r="O22" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="P22" s="151"/>
-      <c r="Q22" s="151"/>
-      <c r="R22" s="151"/>
-      <c r="S22" s="151"/>
-      <c r="T22" s="151"/>
-      <c r="U22" s="151"/>
-      <c r="V22" s="151"/>
-      <c r="W22" s="151"/>
-      <c r="X22" s="151"/>
-      <c r="Y22" s="151"/>
-      <c r="Z22" s="151"/>
-      <c r="AA22" s="134" t="s">
+      <c r="P22" s="132"/>
+      <c r="Q22" s="132"/>
+      <c r="R22" s="132"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+      <c r="V22" s="132"/>
+      <c r="W22" s="132"/>
+      <c r="X22" s="132"/>
+      <c r="Y22" s="132"/>
+      <c r="Z22" s="132"/>
+      <c r="AA22" s="121" t="s">
         <v>49</v>
       </c>
-      <c r="AB22" s="135"/>
-      <c r="AC22" s="135"/>
-      <c r="AD22" s="135"/>
-      <c r="AE22" s="135"/>
-      <c r="AF22" s="135"/>
-      <c r="AG22" s="135"/>
-      <c r="AH22" s="135"/>
-      <c r="AI22" s="136"/>
-      <c r="AJ22" s="137" t="s">
+      <c r="AB22" s="122"/>
+      <c r="AC22" s="122"/>
+      <c r="AD22" s="122"/>
+      <c r="AE22" s="122"/>
+      <c r="AF22" s="122"/>
+      <c r="AG22" s="122"/>
+      <c r="AH22" s="122"/>
+      <c r="AI22" s="123"/>
+      <c r="AJ22" s="153" t="s">
         <v>133</v>
       </c>
-      <c r="AK22" s="138"/>
-      <c r="AL22" s="138"/>
-      <c r="AM22" s="138"/>
-      <c r="AN22" s="138"/>
-      <c r="AO22" s="138"/>
-      <c r="AP22" s="138"/>
-      <c r="AQ22" s="138"/>
-      <c r="AR22" s="138"/>
-      <c r="AS22" s="138"/>
-      <c r="AT22" s="138"/>
-      <c r="AU22" s="138"/>
-      <c r="AV22" s="138"/>
-      <c r="AW22" s="139"/>
-      <c r="AX22" s="134" t="s">
+      <c r="AK22" s="154"/>
+      <c r="AL22" s="154"/>
+      <c r="AM22" s="154"/>
+      <c r="AN22" s="154"/>
+      <c r="AO22" s="154"/>
+      <c r="AP22" s="154"/>
+      <c r="AQ22" s="154"/>
+      <c r="AR22" s="154"/>
+      <c r="AS22" s="154"/>
+      <c r="AT22" s="154"/>
+      <c r="AU22" s="154"/>
+      <c r="AV22" s="154"/>
+      <c r="AW22" s="155"/>
+      <c r="AX22" s="121" t="s">
         <v>222</v>
       </c>
-      <c r="AY22" s="135"/>
-      <c r="AZ22" s="135"/>
-      <c r="BA22" s="135"/>
-      <c r="BB22" s="135"/>
-      <c r="BC22" s="135"/>
-      <c r="BD22" s="135"/>
-      <c r="BE22" s="136"/>
-      <c r="BF22" s="140" t="s">
+      <c r="AY22" s="122"/>
+      <c r="AZ22" s="122"/>
+      <c r="BA22" s="122"/>
+      <c r="BB22" s="122"/>
+      <c r="BC22" s="122"/>
+      <c r="BD22" s="122"/>
+      <c r="BE22" s="123"/>
+      <c r="BF22" s="156" t="s">
         <v>230</v>
       </c>
-      <c r="BG22" s="141"/>
-      <c r="BH22" s="141"/>
-      <c r="BI22" s="141"/>
-      <c r="BJ22" s="141"/>
-      <c r="BK22" s="141"/>
-      <c r="BL22" s="142"/>
-      <c r="BM22" s="127" t="s">
+      <c r="BG22" s="157"/>
+      <c r="BH22" s="157"/>
+      <c r="BI22" s="157"/>
+      <c r="BJ22" s="157"/>
+      <c r="BK22" s="157"/>
+      <c r="BL22" s="158"/>
+      <c r="BM22" s="151" t="s">
         <v>126</v>
       </c>
-      <c r="BN22" s="128"/>
-      <c r="BO22" s="128"/>
-      <c r="BP22" s="128"/>
-      <c r="BQ22" s="128"/>
-      <c r="BR22" s="128"/>
-      <c r="BS22" s="128"/>
-      <c r="BT22" s="128"/>
-      <c r="BU22" s="128"/>
-      <c r="BV22" s="128"/>
-      <c r="BW22" s="128"/>
-      <c r="BX22" s="128"/>
+      <c r="BN22" s="152"/>
+      <c r="BO22" s="152"/>
+      <c r="BP22" s="152"/>
+      <c r="BQ22" s="152"/>
+      <c r="BR22" s="152"/>
+      <c r="BS22" s="152"/>
+      <c r="BT22" s="152"/>
+      <c r="BU22" s="152"/>
+      <c r="BV22" s="152"/>
+      <c r="BW22" s="152"/>
+      <c r="BX22" s="152"/>
       <c r="BY22" s="89"/>
       <c r="BZ22" s="91"/>
       <c r="CA22" s="95"/>
@@ -5368,17 +5458,66 @@
       <c r="CI22" s="1">
         <v>1</v>
       </c>
-      <c r="DB22" t="s">
+      <c r="CJ22" t="s">
+        <v>351</v>
+      </c>
+      <c r="CK22" t="str">
+        <f>H5</f>
+        <v>NMO_Name</v>
+      </c>
+      <c r="CL22" t="s">
+        <v>352</v>
+      </c>
+      <c r="CM22" t="str">
+        <f>H6</f>
+        <v>ЩРН-12</v>
+      </c>
+      <c r="CN22" t="s">
+        <v>353</v>
+      </c>
+      <c r="CO22" t="e">
+        <f ca="1">"Установленная полная мощность, Ру = "&amp;T5&amp;"кВт"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CP22" t="s">
+        <v>354</v>
+      </c>
+      <c r="CQ22" t="str">
+        <f>"Коэффициент спроса, Кс = "&amp;T11</f>
+        <v>Коэффициент спроса, Кс = 0,65</v>
+      </c>
+      <c r="CR22" t="s">
+        <v>355</v>
+      </c>
+      <c r="CS22" t="e">
+        <f ca="1">"Расчетная мощность, Рр = "&amp;T6</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="CT22" t="s">
+        <v>356</v>
+      </c>
+      <c r="CU22" t="str">
+        <f>"Коэффициент мощности, cosf = "&amp;T8</f>
+        <v>Коэффициент мощности, cosf = 0,92</v>
+      </c>
+      <c r="CV22" t="s">
+        <v>357</v>
+      </c>
+      <c r="CW22" t="e">
+        <f>"Расчетный ток, Iр = "&amp;T15&amp;"А"</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DR22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="3:107" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="149"/>
-      <c r="E23" s="153"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="144"/>
-      <c r="I23" s="144"/>
+    <row r="23" spans="3:129" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="130"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="125"/>
       <c r="J23" s="85" t="s">
         <v>330</v>
       </c>
@@ -5388,7 +5527,7 @@
       <c r="L23" s="85" t="s">
         <v>332</v>
       </c>
-      <c r="M23" s="147"/>
+      <c r="M23" s="128"/>
       <c r="O23" s="56" t="s">
         <v>125</v>
       </c>
@@ -5539,18 +5678,18 @@
       <c r="BL23" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="BM23" s="127"/>
-      <c r="BN23" s="128"/>
-      <c r="BO23" s="128"/>
-      <c r="BP23" s="128"/>
-      <c r="BQ23" s="128"/>
-      <c r="BR23" s="128"/>
-      <c r="BS23" s="128"/>
-      <c r="BT23" s="128"/>
-      <c r="BU23" s="128"/>
-      <c r="BV23" s="128"/>
-      <c r="BW23" s="128"/>
-      <c r="BX23" s="128"/>
+      <c r="BM23" s="151"/>
+      <c r="BN23" s="152"/>
+      <c r="BO23" s="152"/>
+      <c r="BP23" s="152"/>
+      <c r="BQ23" s="152"/>
+      <c r="BR23" s="152"/>
+      <c r="BS23" s="152"/>
+      <c r="BT23" s="152"/>
+      <c r="BU23" s="152"/>
+      <c r="BV23" s="152"/>
+      <c r="BW23" s="152"/>
+      <c r="BX23" s="152"/>
       <c r="BY23" s="89"/>
       <c r="BZ23" s="91"/>
       <c r="CA23" s="95"/>
@@ -5559,8 +5698,17 @@
       <c r="CF23" s="1">
         <v>35</v>
       </c>
+      <c r="DS23" s="147" t="s">
+        <v>366</v>
+      </c>
+      <c r="DT23" s="147"/>
+      <c r="DU23" s="147"/>
+      <c r="DV23" s="147"/>
+      <c r="DW23" s="147"/>
+      <c r="DX23" s="147"/>
+      <c r="DY23" s="147"/>
     </row>
-    <row r="24" spans="3:107" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:129" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>283</v>
       </c>
@@ -5606,7 +5754,7 @@
       </c>
       <c r="O24" s="65" t="str">
         <f>'&lt;zlight&gt;DEVEXPORT'!G11</f>
-        <v>Position</v>
+        <v>NMO_BaseName</v>
       </c>
       <c r="P24" s="86" t="e">
         <f ca="1">IF(IFERROR(BN24,1)=1,VLOOKUP('&lt;zlight&gt;DEVEXPORT'!M11,BD!$A$4:$C$5,2,FALSE),INDIRECT("'"&amp;O24&amp;"'!"&amp;"G1"))</f>
@@ -5738,7 +5886,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AY24" s="67" t="e">
-        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"I",BD!$K$4:$BP$4,0))),MATCH(AH24*IF(F24="",AE24,AX24),INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"I",BD!$K$4:$BP$4,0))),-1)))</f>
+        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(E24&amp;"I",BD!$K$4:$BS$4,0))),MATCH(AH24*IF(F24="",AE24,AX24),INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(E24&amp;"I",BD!$K$4:$BS$4,0))),-1)))</f>
         <v>#VALUE!</v>
       </c>
       <c r="AZ24" s="68" t="str">
@@ -5754,11 +5902,11 @@
         <v>30</v>
       </c>
       <c r="BC24" s="72" t="e">
-        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"О",BD!$K$4:$BP$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"I",BD!$K$4:$BP$4,0))),0))&amp;D24)</f>
+        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(E24&amp;"О",BD!$K$4:$BS$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(E24&amp;"I",BD!$K$4:$BS$4,0))),0))&amp;D24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="BD24" s="71" t="e">
-        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"М",BD!$K$4:$BP$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BO$5,1,MATCH(E24&amp;"I",BD!$K$4:$BP$4,0))),0)))</f>
+        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(E24&amp;"М",BD!$K$4:$BS$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(E24&amp;"I",BD!$K$4:$BS$4,0))),0)))</f>
         <v>#VALUE!</v>
       </c>
       <c r="BE24" t="e">
@@ -5766,7 +5914,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="BF24" s="67" t="e">
-        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"I",BD!$K$4:$BS$4,0))),MATCH(AH24*AE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"I",BD!$K$4:$BS$4,0))),-1)))</f>
+        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BU$5,1,MATCH(G24&amp;"I",BD!$K$4:$BV$4,0))),MATCH(AH24*AE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BU$5,1,MATCH(G24&amp;"I",BD!$K$4:$BV$4,0))),-1)))</f>
         <v>#VALUE!</v>
       </c>
       <c r="BG24" s="68" t="str">
@@ -5782,11 +5930,11 @@
         <v>30</v>
       </c>
       <c r="BJ24" s="72" t="e">
-        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"О",BD!$K$4:$BS$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"I",BD!$K$4:$BS$4,0))),0))&amp;D24)</f>
+        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BU$5,1,MATCH(G24&amp;"О",BD!$K$4:$BV$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BU$5,1,MATCH(G24&amp;"I",BD!$K$4:$BV$4,0))),0))&amp;D24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="BK24" s="71" t="e">
-        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"М",BD!$K$4:$BS$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(G24&amp;"I",BD!$K$4:$BS$4,0))),0)))</f>
+        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BU$5,1,MATCH(G24&amp;"М",BD!$K$4:$BV$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BU$5,1,MATCH(G24&amp;"I",BD!$K$4:$BV$4,0))),0)))</f>
         <v>#VALUE!</v>
       </c>
       <c r="BL24" t="e">
@@ -5919,7 +6067,7 @@
         <v>343</v>
       </c>
       <c r="CU24" s="1" t="str">
-        <f ca="1">IFERROR(_xlfn.IFS(BP24=1,"INTEGER_0",I24&lt;&gt;"","INTEGER_0",IF(BU24=1,1,0),"INTEGER_0",IF(BP24=0,IF(BU24=0,IF(AJ24="",1,0),0),0),"INTEGER_3",IF(BP24=0,IF(BU24=0,IF(AJ24=INDEX($AJ$24:AJ24,BO24-1),1,0),0),0),"INTEGER_3"),"INTEGER_0")</f>
+        <f ca="1">IFERROR(_xlfn.IFS(BP24=1,"INTEGER_0",I24&lt;&gt;"","INTEGER_0",H24&lt;&gt;"","INTEGER_0",IF(BU24=1,1,0),"INTEGER_0",IF(BP24=0,IF(BU24=0,IF(AJ24="",1,0),0),0),"INTEGER_3",IF(BP24=0,IF(BU24=0,IF(AJ24=INDEX($AJ$24:AJ24,BO24-1),1,0),0),0),"INTEGER_3"),"INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
       <c r="CV24" s="92" t="s">
@@ -5933,39 +6081,123 @@
         <v>345</v>
       </c>
       <c r="CY24" s="1" t="str">
-        <f ca="1">IFERROR(_xlfn.IFS(IF(BP24=1,1,0),"INTEGER_0",I24&lt;&gt;"","INTEGER_5",CU24="INTEGER_3","INTEGER_3",IF(BU24=1,IF(BP24=0,1,0),0),"INTEGER_5",IF(AJ24=INDEX($AJ$24:AJ24,BO24-1),1,0),"INTEGER_5"),"INTEGER_0")</f>
+        <f ca="1">IFERROR(_xlfn.IFS(IF(BP24=1,1,0),"INTEGER_0",I24&lt;&gt;"","INTEGER_5",H24&lt;&gt;"","INTEGER_5",CU24="INTEGER_3","INTEGER_3",IF(BU24=1,IF(BP24=0,1,0),0),"INTEGER_5",IF(AJ24=INDEX($AJ$24:AJ24,BO24-1),1,0),"INTEGER_5"),"INTEGER_0")</f>
         <v>INTEGER_0</v>
       </c>
       <c r="CZ24" s="1" t="s">
         <v>346</v>
       </c>
       <c r="DA24" s="1" t="str">
-        <f t="shared" ref="DA24" si="4">O24</f>
-        <v>Position</v>
-      </c>
-      <c r="DB24" t="s">
+        <f>IF(W24&gt;1,O24&amp;"("&amp;W24&amp;"шт.)",O24)</f>
+        <v>NMO_BaseName</v>
+      </c>
+      <c r="DB24" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="DC24" s="1" t="e">
+        <f ca="1">R24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DD24" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="DE24" s="1" t="e">
+        <f ca="1">T24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DF24" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="DG24" s="1" t="e">
+        <f ca="1">Z24&amp;"\P~"&amp;P24&amp;"V"</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DH24" s="103" t="s">
+        <v>359</v>
+      </c>
+      <c r="DI24" s="103" t="str">
+        <f>AJ24</f>
+        <v>GC_HeadDevice.GC_HDGroup</v>
+      </c>
+      <c r="DJ24" s="103" t="s">
+        <v>360</v>
+      </c>
+      <c r="DK24" s="103" t="s">
+        <v>361</v>
+      </c>
+      <c r="DL24" s="103" t="s">
+        <v>362</v>
+      </c>
+      <c r="DM24" s="103" t="s">
+        <v>361</v>
+      </c>
+      <c r="DN24" s="103" t="s">
+        <v>363</v>
+      </c>
+      <c r="DO24" s="103" t="e">
+        <f ca="1">AK24</f>
+        <v>#N/A</v>
+      </c>
+      <c r="DP24" s="103" t="str">
+        <f>"VSCHEMACable22"</f>
+        <v>VSCHEMACable22</v>
+      </c>
+      <c r="DQ24" s="103" t="str">
+        <f>IF(AL24&lt;&gt;"","L="&amp;AL24&amp;"м"," ")</f>
+        <v>L=0м</v>
+      </c>
+      <c r="DR24" t="s">
         <v>59</v>
       </c>
-      <c r="DC24" t="s">
-        <v>12</v>
+      <c r="DS24" t="s">
+        <v>60</v>
+      </c>
+      <c r="DT24" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="DU24" s="1">
+        <v>0</v>
+      </c>
+      <c r="DV24" s="1">
+        <v>0</v>
+      </c>
+      <c r="DW24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DX24" s="1">
+        <v>1</v>
+      </c>
+      <c r="DY24" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="O22:Z22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
+  <mergeCells count="49">
+    <mergeCell ref="DS23:DY23"/>
+    <mergeCell ref="BW21:BX21"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="P14:S14"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="P15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="BM22:BX23"/>
     <mergeCell ref="AA22:AI22"/>
     <mergeCell ref="AJ22:AW22"/>
     <mergeCell ref="BF22:BL22"/>
-    <mergeCell ref="AX22:BE22"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="BM22:BX23"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:U10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D10:G10"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="P4:U4"/>
     <mergeCell ref="D5:G5"/>
@@ -5980,303 +6212,295 @@
     <mergeCell ref="P7:S7"/>
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="T9:U10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="BW21:BX21"/>
-    <mergeCell ref="D15:G15"/>
-    <mergeCell ref="P14:S14"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="D14:G14"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="AX22:BE22"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="O22:Z22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
   </mergeCells>
   <conditionalFormatting sqref="P24">
-    <cfRule type="expression" dxfId="102" priority="284">
+    <cfRule type="expression" dxfId="102" priority="332">
       <formula>NOT(_xlfn.ISFORMULA(P24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24">
-    <cfRule type="expression" dxfId="101" priority="278">
+    <cfRule type="expression" dxfId="101" priority="326">
       <formula>NOT(_xlfn.ISFORMULA(Q24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24">
-    <cfRule type="expression" dxfId="100" priority="277">
+    <cfRule type="expression" dxfId="100" priority="325">
       <formula>NOT(_xlfn.ISFORMULA(R24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24">
-    <cfRule type="expression" dxfId="99" priority="276">
+    <cfRule type="expression" dxfId="99" priority="324">
       <formula>NOT(_xlfn.ISFORMULA(S24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24">
-    <cfRule type="expression" dxfId="98" priority="275">
+    <cfRule type="expression" dxfId="98" priority="323">
       <formula>NOT(_xlfn.ISFORMULA(Y24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP24">
-    <cfRule type="expression" dxfId="97" priority="273">
+    <cfRule type="expression" dxfId="97" priority="321">
       <formula>NOT(_xlfn.ISFORMULA(AP24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS24">
-    <cfRule type="expression" dxfId="96" priority="272">
+    <cfRule type="expression" dxfId="96" priority="320">
       <formula>NOT(_xlfn.ISFORMULA(AS24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV24">
-    <cfRule type="expression" dxfId="95" priority="270">
+    <cfRule type="expression" dxfId="95" priority="318">
       <formula>NOT(_xlfn.ISFORMULA(AV24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24">
-    <cfRule type="expression" dxfId="94" priority="269">
+    <cfRule type="expression" dxfId="94" priority="317">
       <formula>NOT(_xlfn.ISFORMULA(AQ24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="93" priority="267" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="315" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="316" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:L24">
-    <cfRule type="cellIs" dxfId="91" priority="265" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="313" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="266" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CZ24">
-    <cfRule type="cellIs" dxfId="89" priority="90" operator="equal">
-      <formula>"INTEGER_0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CZ24">
-    <cfRule type="cellIs" dxfId="88" priority="85" operator="equal">
-      <formula>"INTEGER_5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="86" operator="equal">
-      <formula>"INTEGER_4"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
-      <formula>"INTEGER_3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="88" operator="equal">
-      <formula>"INTEGER_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="89" operator="equal">
-      <formula>"INTEGER_1"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DA24">
-    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
-      <formula>"INTEGER_0"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DA24">
-    <cfRule type="cellIs" dxfId="82" priority="79" operator="equal">
-      <formula>"INTEGER_5"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="80" operator="equal">
-      <formula>"INTEGER_4"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
-      <formula>"INTEGER_3"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="82" operator="equal">
-      <formula>"INTEGER_2"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="83" operator="equal">
-      <formula>"INTEGER_1"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="CM24">
-    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="126" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM24">
-    <cfRule type="cellIs" dxfId="76" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="121" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="122" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="123" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="124" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="125" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN24">
-    <cfRule type="cellIs" dxfId="71" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="120" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN24">
-    <cfRule type="cellIs" dxfId="70" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="115" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="116" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="117" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="118" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="119" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO24">
-    <cfRule type="cellIs" dxfId="65" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="114" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO24">
-    <cfRule type="cellIs" dxfId="64" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="109" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="110" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="111" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="112" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="113" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP24">
-    <cfRule type="cellIs" dxfId="59" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="108" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP24">
-    <cfRule type="cellIs" dxfId="58" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="103" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="104" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="105" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="106" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="107" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ24">
-    <cfRule type="cellIs" dxfId="53" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="102" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ24">
-    <cfRule type="cellIs" dxfId="52" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="97" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="98" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="99" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="100" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="101" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR24">
-    <cfRule type="cellIs" dxfId="47" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="96" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR24">
-    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="91" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="92" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="93" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="94" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="95" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS24">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="90" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS24">
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="85" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="86" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="87" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="88" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="89" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT24">
-    <cfRule type="cellIs" dxfId="35" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="84" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT24">
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="79" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="80" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="81" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="82" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="83" operator="equal">
+      <formula>"INTEGER_1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CV24">
+    <cfRule type="cellIs" dxfId="41" priority="72" operator="equal">
+      <formula>"INTEGER_0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CV24">
+    <cfRule type="cellIs" dxfId="40" priority="67" operator="equal">
+      <formula>"INTEGER_5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="68" operator="equal">
+      <formula>"INTEGER_4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="69" operator="equal">
+      <formula>"INTEGER_3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="70" operator="equal">
+      <formula>"INTEGER_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="71" operator="equal">
+      <formula>"INTEGER_1"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CW24">
+    <cfRule type="cellIs" dxfId="35" priority="66" operator="equal">
+      <formula>"INTEGER_0"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CW24">
+    <cfRule type="cellIs" dxfId="34" priority="61" operator="equal">
+      <formula>"INTEGER_5"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="62" operator="equal">
+      <formula>"INTEGER_4"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="63" operator="equal">
+      <formula>"INTEGER_3"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="31" priority="64" operator="equal">
+      <formula>"INTEGER_2"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="65" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6302,12 +6526,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CV24">
+  <conditionalFormatting sqref="CX24">
     <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CV24">
+  <conditionalFormatting sqref="CX24">
     <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6324,12 +6548,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CW24">
+  <conditionalFormatting sqref="CY24">
     <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CW24">
+  <conditionalFormatting sqref="CY24">
     <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6346,12 +6570,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CX24">
+  <conditionalFormatting sqref="CZ24">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CX24">
+  <conditionalFormatting sqref="CZ24">
     <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6368,12 +6592,12 @@
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CY24">
+  <conditionalFormatting sqref="DA24:DQ24">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CY24">
+  <conditionalFormatting sqref="DA24:DQ24">
     <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
@@ -6400,8 +6624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{772FECD8-F93D-41DA-984E-EC1C5AEE2748}">
   <dimension ref="B5:W11"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U12" sqref="U12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6535,7 +6759,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>73</v>
+        <v>347</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>281</v>
@@ -6996,94 +7220,97 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A712ECE2-33D4-468C-AC42-3438B4F27DC9}">
-  <dimension ref="A2:BO67"/>
+  <dimension ref="A2:BR67"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AP12" sqref="AP12:AQ12"/>
+    <sheetView topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="V17" sqref="V17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="32" max="32" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="22.28515625" customWidth="1"/>
-    <col min="57" max="57" width="31.85546875" customWidth="1"/>
+    <col min="35" max="35" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="22.28515625" customWidth="1"/>
+    <col min="60" max="60" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:67" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="102" t="s">
+    <row r="2" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:70" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="103"/>
-      <c r="C3" s="104"/>
-      <c r="F3" s="105" t="s">
+      <c r="B3" s="106"/>
+      <c r="C3" s="107"/>
+      <c r="F3" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="107"/>
-      <c r="K3" s="110" t="s">
+      <c r="G3" s="109"/>
+      <c r="H3" s="110"/>
+      <c r="K3" s="113" t="s">
         <v>195</v>
       </c>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="111"/>
-      <c r="Q3" s="111"/>
-      <c r="R3" s="111"/>
-      <c r="S3" s="111"/>
-      <c r="T3" s="111"/>
-      <c r="U3" s="111"/>
-      <c r="V3" s="111"/>
-      <c r="W3" s="111"/>
-      <c r="X3" s="111"/>
-      <c r="Y3" s="111"/>
-      <c r="Z3" s="111"/>
-      <c r="AA3" s="111"/>
-      <c r="AB3" s="111"/>
-      <c r="AC3" s="111"/>
-      <c r="AD3" s="111"/>
-      <c r="AE3" s="111"/>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="111"/>
-      <c r="AH3" s="111"/>
-      <c r="AI3" s="111"/>
-      <c r="AJ3" s="111"/>
-      <c r="AK3" s="111"/>
-      <c r="AL3" s="111"/>
-      <c r="AM3" s="111"/>
-      <c r="AN3" s="111"/>
-      <c r="AO3" s="111"/>
-      <c r="AP3" s="111"/>
-      <c r="AQ3" s="111"/>
-      <c r="AR3" s="111"/>
-      <c r="AS3" s="111"/>
-      <c r="AT3" s="111"/>
-      <c r="AU3" s="111"/>
-      <c r="AV3" s="111"/>
-      <c r="AW3" s="111"/>
-      <c r="AX3" s="111"/>
-      <c r="AY3" s="111"/>
-      <c r="AZ3" s="111"/>
-      <c r="BA3" s="111"/>
-      <c r="BB3" s="111"/>
-      <c r="BC3" s="111"/>
-      <c r="BD3" s="111"/>
-      <c r="BE3" s="111"/>
-      <c r="BF3" s="111"/>
-      <c r="BG3" s="111"/>
-      <c r="BH3" s="111"/>
-      <c r="BI3" s="111"/>
-      <c r="BJ3" s="111"/>
-      <c r="BK3" s="111"/>
-      <c r="BL3" s="111"/>
-      <c r="BM3" s="111"/>
-      <c r="BN3" s="111"/>
-      <c r="BO3" s="111"/>
+      <c r="L3" s="114"/>
+      <c r="M3" s="114"/>
+      <c r="N3" s="114"/>
+      <c r="O3" s="114"/>
+      <c r="P3" s="114"/>
+      <c r="Q3" s="114"/>
+      <c r="R3" s="114"/>
+      <c r="S3" s="114"/>
+      <c r="T3" s="114"/>
+      <c r="U3" s="114"/>
+      <c r="V3" s="114"/>
+      <c r="W3" s="114"/>
+      <c r="X3" s="114"/>
+      <c r="Y3" s="114"/>
+      <c r="Z3" s="114"/>
+      <c r="AA3" s="114"/>
+      <c r="AB3" s="114"/>
+      <c r="AC3" s="114"/>
+      <c r="AD3" s="114"/>
+      <c r="AE3" s="114"/>
+      <c r="AF3" s="114"/>
+      <c r="AG3" s="114"/>
+      <c r="AH3" s="114"/>
+      <c r="AI3" s="114"/>
+      <c r="AJ3" s="114"/>
+      <c r="AK3" s="114"/>
+      <c r="AL3" s="114"/>
+      <c r="AM3" s="114"/>
+      <c r="AN3" s="114"/>
+      <c r="AO3" s="114"/>
+      <c r="AP3" s="114"/>
+      <c r="AQ3" s="114"/>
+      <c r="AR3" s="114"/>
+      <c r="AS3" s="114"/>
+      <c r="AT3" s="114"/>
+      <c r="AU3" s="114"/>
+      <c r="AV3" s="114"/>
+      <c r="AW3" s="114"/>
+      <c r="AX3" s="114"/>
+      <c r="AY3" s="114"/>
+      <c r="AZ3" s="114"/>
+      <c r="BA3" s="114"/>
+      <c r="BB3" s="114"/>
+      <c r="BC3" s="114"/>
+      <c r="BD3" s="114"/>
+      <c r="BE3" s="114"/>
+      <c r="BF3" s="114"/>
+      <c r="BG3" s="114"/>
+      <c r="BH3" s="114"/>
+      <c r="BI3" s="114"/>
+      <c r="BJ3" s="114"/>
+      <c r="BK3" s="114"/>
+      <c r="BL3" s="114"/>
+      <c r="BM3" s="114"/>
+      <c r="BN3" s="114"/>
+      <c r="BO3" s="114"/>
+      <c r="BP3" s="114"/>
+      <c r="BQ3" s="114"/>
+      <c r="BR3" s="114"/>
     </row>
-    <row r="4" spans="1:67" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:70" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>48</v>
       </c>
@@ -7125,155 +7352,164 @@
         <v>265</v>
       </c>
       <c r="R4" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="S4" s="53" t="s">
+        <v>368</v>
+      </c>
+      <c r="T4" s="53" t="s">
+        <v>369</v>
+      </c>
+      <c r="U4" s="53" t="s">
         <v>199</v>
       </c>
-      <c r="S4" s="53" t="s">
+      <c r="V4" s="53" t="s">
         <v>200</v>
       </c>
-      <c r="T4" s="53" t="s">
+      <c r="W4" s="53" t="s">
         <v>201</v>
       </c>
-      <c r="U4" s="53" t="s">
+      <c r="X4" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="V4" s="53" t="s">
+      <c r="Y4" s="53" t="s">
         <v>236</v>
       </c>
-      <c r="W4" s="53" t="s">
+      <c r="Z4" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="X4" s="53" t="s">
+      <c r="AA4" s="53" t="s">
         <v>266</v>
       </c>
-      <c r="Y4" s="53" t="s">
+      <c r="AB4" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="Z4" s="53" t="s">
+      <c r="AC4" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="AA4" s="53" t="s">
+      <c r="AD4" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="AB4" s="53" t="s">
+      <c r="AE4" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="AC4" s="53" t="s">
+      <c r="AF4" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="AD4" s="53" t="s">
+      <c r="AG4" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="AE4" s="53" t="s">
+      <c r="AH4" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="AF4" s="53" t="s">
+      <c r="AI4" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="AG4" s="53" t="s">
+      <c r="AJ4" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="AH4" s="53" t="s">
+      <c r="AK4" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="AI4" s="53" t="s">
+      <c r="AL4" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="AJ4" s="53" t="s">
+      <c r="AM4" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="AK4" s="53" t="s">
+      <c r="AN4" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="AL4" s="53" t="s">
+      <c r="AO4" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="AM4" s="53" t="s">
+      <c r="AP4" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="AN4" s="53" t="s">
+      <c r="AQ4" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="AO4" s="53" t="s">
+      <c r="AR4" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AP4" s="53" t="s">
+      <c r="AS4" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="AQ4" s="53" t="s">
+      <c r="AT4" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="AR4" s="53" t="s">
+      <c r="AU4" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="AS4" s="53" t="s">
+      <c r="AV4" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="AT4" s="53" t="s">
+      <c r="AW4" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="AU4" s="53" t="s">
+      <c r="AX4" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="AV4" s="53" t="s">
+      <c r="AY4" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="AW4" s="53" t="s">
+      <c r="AZ4" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="AX4" s="53" t="s">
+      <c r="BA4" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="AY4" s="53" t="s">
+      <c r="BB4" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="AZ4" s="53" t="s">
+      <c r="BC4" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="BA4" s="53" t="s">
+      <c r="BD4" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="BB4" s="53" t="s">
+      <c r="BE4" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="BC4" s="53" t="s">
+      <c r="BF4" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="BD4" s="53" t="s">
+      <c r="BG4" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="BE4" s="53" t="s">
+      <c r="BH4" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="BF4" s="53" t="s">
+      <c r="BI4" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="BG4" s="53" t="s">
+      <c r="BJ4" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="BH4" s="53" t="s">
+      <c r="BK4" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="BI4" s="53" t="s">
+      <c r="BL4" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="BJ4" s="53" t="s">
+      <c r="BM4" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="BK4" s="53" t="s">
+      <c r="BN4" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="BL4" s="53" t="s">
+      <c r="BO4" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="BM4" s="53" t="s">
+      <c r="BP4" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="BN4" s="53" t="s">
+      <c r="BQ4" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="BO4" s="53"/>
+      <c r="BR4" s="53"/>
     </row>
-    <row r="5" spans="1:67" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:70" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
@@ -7298,7 +7534,7 @@
         <v>$K$6:$K$100</v>
       </c>
       <c r="L5" s="74" t="str">
-        <f t="shared" ref="L5:BN5" si="0">ADDRESS(ROW()+1,COLUMN())&amp;":"&amp;ADDRESS(100,COLUMN())</f>
+        <f t="shared" ref="L5:BQ5" si="0">ADDRESS(ROW()+1,COLUMN())&amp;":"&amp;ADDRESS(100,COLUMN())</f>
         <v>$L$6:$L$100</v>
       </c>
       <c r="M5" s="74" t="str">
@@ -7517,9 +7753,21 @@
         <f t="shared" si="0"/>
         <v>$BN$6:$BN$100</v>
       </c>
-      <c r="BO5" s="74"/>
+      <c r="BO5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>$BO$6:$BO$100</v>
+      </c>
+      <c r="BP5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>$BP$6:$BP$100</v>
+      </c>
+      <c r="BQ5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>$BQ$6:$BQ$100</v>
+      </c>
+      <c r="BR5" s="74"/>
     </row>
-    <row r="6" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
       <c r="F6" s="36">
         <v>5000</v>
       </c>
@@ -7546,144 +7794,153 @@
       <c r="Q6" s="10">
         <v>2</v>
       </c>
-      <c r="R6" s="10">
+      <c r="R6" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S6" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T6" s="104">
+        <v>150</v>
+      </c>
+      <c r="U6" s="10">
         <v>125</v>
       </c>
-      <c r="S6" s="10">
-        <v>0</v>
-      </c>
-      <c r="T6" s="10">
-        <v>0</v>
-      </c>
-      <c r="U6" s="10" t="s">
+      <c r="V6" s="10">
+        <v>0</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0</v>
+      </c>
+      <c r="X6" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="Y6" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10">
+      <c r="Z6" s="10"/>
+      <c r="AA6" s="10">
         <v>1</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="AB6" s="10">
         <v>100</v>
       </c>
-      <c r="Z6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="10" t="s">
+      <c r="AC6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AC6" s="10" t="s">
+      <c r="AF6" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AD6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="10">
+      <c r="AG6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="10">
         <v>3</v>
       </c>
-      <c r="AF6" s="10">
+      <c r="AI6" s="10">
         <v>100</v>
       </c>
-      <c r="AG6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="10" t="s">
+      <c r="AJ6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AJ6" s="10" t="s">
+      <c r="AM6" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AK6" s="10">
+      <c r="AN6" s="10">
         <v>4</v>
       </c>
-      <c r="AL6" s="10"/>
-      <c r="AM6" s="81">
+      <c r="AO6" s="10"/>
+      <c r="AP6" s="81">
         <v>50</v>
       </c>
-      <c r="AN6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="10" t="s">
+      <c r="AQ6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="AQ6" s="10" t="s">
+      <c r="AT6" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="AR6" s="10"/>
-      <c r="AS6" s="10">
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10">
         <v>5</v>
       </c>
-      <c r="AT6" s="10">
+      <c r="AW6" s="10">
         <v>5000</v>
       </c>
-      <c r="AU6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="10" t="s">
+      <c r="AX6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX6" s="10" t="str">
-        <f t="shared" ref="AX6:AX36" si="1">"ТТИ-А "&amp;AT6&amp;"/5А 5ВА 0,5S"</f>
+      <c r="BA6" s="10" t="str">
+        <f t="shared" ref="BA6:BA36" si="1">"ТТИ-А "&amp;AW6&amp;"/5А 5ВА 0,5S"</f>
         <v>ТТИ-А 5000/5А 5ВА 0,5S</v>
       </c>
-      <c r="AZ6">
+      <c r="BC6">
         <v>6</v>
       </c>
-      <c r="BA6" s="10">
+      <c r="BD6" s="10">
         <v>100</v>
       </c>
-      <c r="BB6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="10" t="s">
+      <c r="BE6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="BE6" s="10" t="s">
+      <c r="BH6" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="BF6" s="10"/>
-      <c r="BG6" s="10">
+      <c r="BI6" s="10"/>
+      <c r="BJ6" s="10">
         <v>7</v>
       </c>
-      <c r="BH6" s="10">
+      <c r="BK6" s="10">
         <v>80</v>
       </c>
-      <c r="BI6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK6" s="10" t="s">
+      <c r="BL6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN6" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BL6" s="10" t="s">
+      <c r="BO6" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BM6" s="10"/>
-      <c r="BN6" s="10">
+      <c r="BP6" s="10"/>
+      <c r="BQ6" s="10">
         <v>8</v>
       </c>
-      <c r="BO6" s="10"/>
+      <c r="BR6" s="10"/>
     </row>
-    <row r="7" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
       <c r="F7" s="36">
         <v>4000</v>
       </c>
@@ -7710,145 +7967,154 @@
       <c r="Q7" s="10">
         <v>2</v>
       </c>
-      <c r="R7" s="10">
+      <c r="R7" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S7" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T7" s="104">
+        <v>150</v>
+      </c>
+      <c r="U7" s="10">
         <v>100</v>
       </c>
-      <c r="S7" s="10">
-        <v>0</v>
-      </c>
-      <c r="T7" s="10">
-        <v>0</v>
-      </c>
-      <c r="U7" s="10" t="s">
+      <c r="V7" s="10">
+        <v>0</v>
+      </c>
+      <c r="W7" s="10">
+        <v>0</v>
+      </c>
+      <c r="X7" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="V7" s="10" t="s">
+      <c r="Y7" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10">
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10">
         <v>1</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="AB7" s="10">
         <v>63</v>
       </c>
-      <c r="Z7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="10" t="s">
+      <c r="AC7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AC7" s="10" t="s">
+      <c r="AF7" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AD7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="10">
+      <c r="AG7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="10">
         <v>3</v>
       </c>
-      <c r="AF7" s="10">
+      <c r="AI7" s="10">
         <v>80</v>
       </c>
-      <c r="AG7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="10" t="s">
+      <c r="AJ7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AJ7" s="10" t="s">
+      <c r="AM7" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AK7" s="10">
+      <c r="AN7" s="10">
         <v>4</v>
       </c>
-      <c r="AL7" s="10"/>
-      <c r="AM7" s="81">
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="81">
         <v>40</v>
       </c>
-      <c r="AN7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="10" t="s">
+      <c r="AQ7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="AQ7" s="10" t="s">
+      <c r="AT7" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="AR7" s="10"/>
-      <c r="AS7" s="10">
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10">
         <v>5</v>
       </c>
-      <c r="AT7" s="10">
+      <c r="AW7" s="10">
         <v>4000</v>
       </c>
-      <c r="AU7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="10" t="s">
+      <c r="AX7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX7" s="10" t="str">
+      <c r="BA7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 4000/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY7" s="10"/>
-      <c r="AZ7">
+      <c r="BB7" s="10"/>
+      <c r="BC7">
         <v>6</v>
       </c>
-      <c r="BA7" s="10">
+      <c r="BD7" s="10">
         <v>60</v>
       </c>
-      <c r="BB7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD7" s="10" t="s">
+      <c r="BE7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BG7" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="BE7" s="10" t="s">
+      <c r="BH7" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="BF7" s="10"/>
-      <c r="BG7" s="10">
+      <c r="BI7" s="10"/>
+      <c r="BJ7" s="10">
         <v>7</v>
       </c>
-      <c r="BH7" s="10">
+      <c r="BK7" s="10">
         <v>63</v>
       </c>
-      <c r="BI7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK7" s="10" t="s">
+      <c r="BL7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN7" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BL7" s="10" t="s">
+      <c r="BO7" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BM7" s="10"/>
-      <c r="BN7" s="10">
+      <c r="BP7" s="10"/>
+      <c r="BQ7" s="10">
         <v>8</v>
       </c>
-      <c r="BO7" s="10"/>
+      <c r="BR7" s="10"/>
     </row>
-    <row r="8" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="36">
         <v>3200</v>
       </c>
@@ -7875,143 +8141,152 @@
       <c r="Q8" s="10">
         <v>2</v>
       </c>
-      <c r="R8" s="10">
+      <c r="R8" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S8" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T8" s="104">
+        <v>150</v>
+      </c>
+      <c r="U8" s="10">
         <v>63</v>
       </c>
-      <c r="S8" s="10">
-        <v>0</v>
-      </c>
-      <c r="T8" s="10">
-        <v>0</v>
-      </c>
-      <c r="U8" s="10" t="s">
+      <c r="V8" s="10">
+        <v>0</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0</v>
+      </c>
+      <c r="X8" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="V8" s="10" t="s">
+      <c r="Y8" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10">
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10">
         <v>1</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="AB8" s="10">
         <v>50</v>
       </c>
-      <c r="Z8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="10" t="s">
+      <c r="AC8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AC8" s="10" t="s">
+      <c r="AF8" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AD8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="10">
+      <c r="AG8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="10">
         <v>3</v>
       </c>
-      <c r="AF8" s="10">
+      <c r="AI8" s="10">
         <v>63</v>
       </c>
-      <c r="AG8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="10" t="s">
+      <c r="AJ8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AJ8" s="10" t="s">
+      <c r="AM8" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AK8" s="10">
+      <c r="AN8" s="10">
         <v>4</v>
       </c>
-      <c r="AL8" s="10"/>
-      <c r="AM8" s="10">
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10">
         <v>32</v>
       </c>
-      <c r="AN8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="10" t="s">
+      <c r="AQ8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="AQ8" s="10" t="s">
+      <c r="AT8" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="AR8" s="10"/>
-      <c r="AS8" s="10">
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10">
         <v>5</v>
       </c>
-      <c r="AT8" s="10">
+      <c r="AW8" s="10">
         <v>3000</v>
       </c>
-      <c r="AU8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="10" t="s">
+      <c r="AX8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX8" s="10" t="str">
+      <c r="BA8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 3000/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY8" s="10"/>
-      <c r="AZ8">
+      <c r="BB8" s="10"/>
+      <c r="BC8">
         <v>6</v>
       </c>
-      <c r="BA8" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB8" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC8" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD8" s="10"/>
-      <c r="BE8" s="10"/>
-      <c r="BF8" s="10"/>
+      <c r="BD8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="10">
+        <v>0</v>
+      </c>
       <c r="BG8" s="10"/>
-      <c r="BH8" s="10">
+      <c r="BH8" s="10"/>
+      <c r="BI8" s="10"/>
+      <c r="BJ8" s="10"/>
+      <c r="BK8" s="10">
         <v>50</v>
       </c>
-      <c r="BI8" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ8" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK8" s="10" t="s">
+      <c r="BL8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN8" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BL8" s="10" t="s">
+      <c r="BO8" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BM8" s="10"/>
-      <c r="BN8" s="10">
+      <c r="BP8" s="10"/>
+      <c r="BQ8" s="10">
         <v>8</v>
       </c>
-      <c r="BO8" s="10"/>
+      <c r="BR8" s="10"/>
     </row>
-    <row r="9" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="108" t="s">
+    <row r="9" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="109"/>
+      <c r="B9" s="112"/>
       <c r="F9" s="36">
         <v>2500</v>
       </c>
@@ -8038,139 +8313,148 @@
       <c r="Q9" s="10">
         <v>2</v>
       </c>
-      <c r="R9" s="10">
+      <c r="R9" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S9" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T9" s="104">
+        <v>150</v>
+      </c>
+      <c r="U9" s="10">
         <v>40</v>
       </c>
-      <c r="S9" s="10">
-        <v>0</v>
-      </c>
-      <c r="T9" s="10">
-        <v>0</v>
-      </c>
-      <c r="U9" s="10" t="s">
+      <c r="V9" s="10">
+        <v>0</v>
+      </c>
+      <c r="W9" s="10">
+        <v>0</v>
+      </c>
+      <c r="X9" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="V9" s="10" t="s">
+      <c r="Y9" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10">
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10">
         <v>1</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="AB9" s="10">
         <v>40</v>
       </c>
-      <c r="Z9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="10" t="s">
+      <c r="AC9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AC9" s="10" t="s">
+      <c r="AF9" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AD9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="10">
+      <c r="AG9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="10">
         <v>3</v>
       </c>
-      <c r="AF9" s="10">
+      <c r="AI9" s="10">
         <v>50</v>
       </c>
-      <c r="AG9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="10" t="s">
+      <c r="AJ9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AJ9" s="10" t="s">
+      <c r="AM9" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AK9" s="10">
+      <c r="AN9" s="10">
         <v>4</v>
       </c>
-      <c r="AL9" s="10"/>
-      <c r="AM9" s="10">
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10">
         <v>25</v>
       </c>
-      <c r="AN9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="10" t="s">
+      <c r="AQ9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="AQ9" s="10" t="s">
+      <c r="AT9" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="AR9" s="10"/>
-      <c r="AS9" s="10">
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10">
         <v>5</v>
       </c>
-      <c r="AT9" s="10">
+      <c r="AW9" s="10">
         <v>2000</v>
       </c>
-      <c r="AU9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="10" t="s">
+      <c r="AX9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX9" s="10" t="str">
+      <c r="BA9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 2000/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY9" s="10"/>
-      <c r="AZ9">
+      <c r="BB9" s="10"/>
+      <c r="BC9">
         <v>6</v>
       </c>
-      <c r="BA9" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC9" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD9" s="10"/>
-      <c r="BE9" s="10"/>
-      <c r="BF9" s="10"/>
+      <c r="BD9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="10">
+        <v>0</v>
+      </c>
       <c r="BG9" s="10"/>
-      <c r="BH9" s="10">
+      <c r="BH9" s="10"/>
+      <c r="BI9" s="10"/>
+      <c r="BJ9" s="10"/>
+      <c r="BK9" s="10">
         <v>40</v>
       </c>
-      <c r="BI9" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="10" t="s">
+      <c r="BL9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN9" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BL9" s="10" t="s">
+      <c r="BO9" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BM9" s="10"/>
-      <c r="BN9" s="10">
+      <c r="BP9" s="10"/>
+      <c r="BQ9" s="10">
         <v>8</v>
       </c>
-      <c r="BO9" s="10"/>
+      <c r="BR9" s="10"/>
     </row>
-    <row r="10" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>114</v>
       </c>
@@ -8203,139 +8487,148 @@
       <c r="Q10" s="10">
         <v>2</v>
       </c>
-      <c r="R10" s="10">
+      <c r="R10" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S10" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T10" s="104">
+        <v>150</v>
+      </c>
+      <c r="U10" s="10">
         <v>32</v>
       </c>
-      <c r="S10" s="10">
-        <v>0</v>
-      </c>
-      <c r="T10" s="10">
-        <v>0</v>
-      </c>
-      <c r="U10" s="10" t="s">
+      <c r="V10" s="10">
+        <v>0</v>
+      </c>
+      <c r="W10" s="10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="V10" s="10" t="s">
+      <c r="Y10" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10">
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10">
         <v>1</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="AB10" s="10">
         <v>32</v>
       </c>
-      <c r="Z10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="10" t="s">
+      <c r="AC10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AC10" s="10" t="s">
+      <c r="AF10" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AD10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="10">
+      <c r="AG10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="10">
         <v>3</v>
       </c>
-      <c r="AF10" s="10">
+      <c r="AI10" s="10">
         <v>40</v>
       </c>
-      <c r="AG10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="10" t="s">
+      <c r="AJ10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AJ10" s="10" t="s">
+      <c r="AM10" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AK10" s="10">
+      <c r="AN10" s="10">
         <v>4</v>
       </c>
-      <c r="AL10" s="10"/>
-      <c r="AM10" s="10">
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10">
         <v>20</v>
       </c>
-      <c r="AN10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="10" t="s">
+      <c r="AQ10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="AQ10" s="10" t="s">
+      <c r="AT10" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="AR10" s="10"/>
-      <c r="AS10" s="10">
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10">
         <v>5</v>
       </c>
-      <c r="AT10" s="10">
+      <c r="AW10" s="10">
         <v>1600</v>
       </c>
-      <c r="AU10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="10" t="s">
+      <c r="AX10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX10" s="10" t="str">
+      <c r="BA10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 1600/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY10" s="10"/>
-      <c r="AZ10">
+      <c r="BB10" s="10"/>
+      <c r="BC10">
         <v>6</v>
       </c>
-      <c r="BA10" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="10"/>
-      <c r="BE10" s="10"/>
-      <c r="BF10" s="10"/>
+      <c r="BD10" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="10">
+        <v>0</v>
+      </c>
       <c r="BG10" s="10"/>
-      <c r="BH10" s="10">
+      <c r="BH10" s="10"/>
+      <c r="BI10" s="10"/>
+      <c r="BJ10" s="10"/>
+      <c r="BK10" s="10">
         <v>32</v>
       </c>
-      <c r="BI10" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK10" s="10" t="s">
+      <c r="BL10" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BL10" s="10" t="s">
+      <c r="BO10" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BM10" s="10"/>
-      <c r="BN10" s="10">
+      <c r="BP10" s="10"/>
+      <c r="BQ10" s="10">
         <v>8</v>
       </c>
-      <c r="BO10" s="10"/>
+      <c r="BR10" s="10"/>
     </row>
-    <row r="11" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>115</v>
       </c>
@@ -8368,137 +8661,146 @@
       <c r="Q11" s="10">
         <v>2</v>
       </c>
-      <c r="R11" s="10">
+      <c r="R11" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S11" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T11" s="104">
+        <v>150</v>
+      </c>
+      <c r="U11" s="10">
         <v>25</v>
       </c>
-      <c r="S11" s="10">
-        <v>0</v>
-      </c>
-      <c r="T11" s="10">
-        <v>0</v>
-      </c>
-      <c r="U11" s="10" t="s">
+      <c r="V11" s="10">
+        <v>0</v>
+      </c>
+      <c r="W11" s="10">
+        <v>0</v>
+      </c>
+      <c r="X11" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="V11" s="10" t="s">
+      <c r="Y11" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10">
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10">
         <v>1</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="AB11" s="10">
         <v>25</v>
       </c>
-      <c r="Z11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="10" t="s">
+      <c r="AC11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AC11" s="10" t="s">
+      <c r="AF11" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AD11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="10">
+      <c r="AG11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="10">
         <v>3</v>
       </c>
-      <c r="AF11" s="10">
+      <c r="AI11" s="10">
         <v>32</v>
       </c>
-      <c r="AG11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI11" s="10" t="s">
+      <c r="AJ11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AJ11" s="10" t="s">
+      <c r="AM11" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AK11" s="10">
+      <c r="AN11" s="10">
         <v>4</v>
       </c>
-      <c r="AL11" s="10"/>
-      <c r="AM11" s="10">
+      <c r="AO11" s="10"/>
+      <c r="AP11" s="10">
         <v>16</v>
       </c>
-      <c r="AN11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="81" t="s">
+      <c r="AQ11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="81" t="s">
         <v>260</v>
       </c>
-      <c r="AQ11" s="81" t="s">
+      <c r="AT11" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="AR11" s="10"/>
-      <c r="AS11" s="10"/>
-      <c r="AT11" s="10">
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10"/>
+      <c r="AW11" s="10">
         <v>1500</v>
       </c>
-      <c r="AU11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW11" s="10" t="s">
+      <c r="AX11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX11" s="10" t="str">
+      <c r="BA11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 1500/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY11" s="10"/>
-      <c r="AZ11">
+      <c r="BB11" s="10"/>
+      <c r="BC11">
         <v>6</v>
       </c>
-      <c r="BA11" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB11" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC11" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD11" s="10"/>
-      <c r="BE11" s="10"/>
-      <c r="BF11" s="10"/>
+      <c r="BD11" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="10">
+        <v>0</v>
+      </c>
       <c r="BG11" s="10"/>
-      <c r="BH11" s="10">
+      <c r="BH11" s="10"/>
+      <c r="BI11" s="10"/>
+      <c r="BJ11" s="10"/>
+      <c r="BK11" s="10">
         <v>25</v>
       </c>
-      <c r="BI11" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ11" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK11" s="10" t="s">
+      <c r="BL11" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN11" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BL11" s="10" t="s">
+      <c r="BO11" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BM11" s="10"/>
-      <c r="BN11" s="10">
+      <c r="BP11" s="10"/>
+      <c r="BQ11" s="10">
         <v>8</v>
       </c>
-      <c r="BO11" s="10"/>
+      <c r="BR11" s="10"/>
     </row>
-    <row r="12" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>116</v>
       </c>
@@ -8531,137 +8833,146 @@
       <c r="Q12" s="10">
         <v>2</v>
       </c>
-      <c r="R12" s="10">
+      <c r="R12" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S12" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T12" s="104">
+        <v>150</v>
+      </c>
+      <c r="U12" s="10">
         <v>20</v>
       </c>
-      <c r="S12" s="10">
-        <v>0</v>
-      </c>
-      <c r="T12" s="10">
-        <v>0</v>
-      </c>
-      <c r="U12" s="10" t="s">
+      <c r="V12" s="10">
+        <v>0</v>
+      </c>
+      <c r="W12" s="10">
+        <v>0</v>
+      </c>
+      <c r="X12" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="V12" s="10" t="s">
+      <c r="Y12" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10">
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10">
         <v>1</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="AB12" s="10">
         <v>20</v>
       </c>
-      <c r="Z12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="10" t="s">
+      <c r="AC12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AC12" s="10" t="s">
+      <c r="AF12" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AD12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="10">
+      <c r="AG12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="10">
         <v>3</v>
       </c>
-      <c r="AF12" s="10">
+      <c r="AI12" s="10">
         <v>25</v>
       </c>
-      <c r="AG12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="10" t="s">
+      <c r="AJ12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AJ12" s="10" t="s">
+      <c r="AM12" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AK12" s="10">
+      <c r="AN12" s="10">
         <v>4</v>
       </c>
-      <c r="AL12" s="10"/>
-      <c r="AM12" s="10">
+      <c r="AO12" s="10"/>
+      <c r="AP12" s="10">
         <v>10</v>
       </c>
-      <c r="AN12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="81" t="s">
+      <c r="AQ12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="81" t="s">
         <v>260</v>
       </c>
-      <c r="AQ12" s="81" t="s">
+      <c r="AT12" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="AR12" s="10"/>
-      <c r="AS12" s="10"/>
-      <c r="AT12" s="10">
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10"/>
+      <c r="AW12" s="10">
         <v>1250</v>
       </c>
-      <c r="AU12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW12" s="10" t="s">
+      <c r="AX12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX12" s="10" t="str">
+      <c r="BA12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 1250/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY12" s="10"/>
-      <c r="AZ12">
+      <c r="BB12" s="10"/>
+      <c r="BC12">
         <v>6</v>
       </c>
-      <c r="BA12" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB12" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC12" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD12" s="10"/>
-      <c r="BE12" s="10"/>
-      <c r="BF12" s="10"/>
+      <c r="BD12" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="10">
+        <v>0</v>
+      </c>
       <c r="BG12" s="10"/>
-      <c r="BH12" s="10">
+      <c r="BH12" s="10"/>
+      <c r="BI12" s="10"/>
+      <c r="BJ12" s="10"/>
+      <c r="BK12" s="10">
         <v>16</v>
       </c>
-      <c r="BI12" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ12" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK12" s="10" t="s">
+      <c r="BL12" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN12" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BL12" s="10" t="s">
+      <c r="BO12" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BM12" s="10"/>
-      <c r="BN12" s="10">
+      <c r="BP12" s="10"/>
+      <c r="BQ12" s="10">
         <v>8</v>
       </c>
-      <c r="BO12" s="10"/>
+      <c r="BR12" s="10"/>
     </row>
-    <row r="13" spans="1:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>117</v>
       </c>
@@ -8694,127 +9005,136 @@
       <c r="Q13" s="10">
         <v>2</v>
       </c>
-      <c r="R13" s="10">
-        <v>0</v>
-      </c>
-      <c r="S13" s="10">
-        <v>0</v>
-      </c>
-      <c r="T13" s="10">
-        <v>0</v>
-      </c>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
+      <c r="R13" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S13" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T13" s="104">
+        <v>150</v>
+      </c>
+      <c r="U13" s="10">
+        <v>0</v>
+      </c>
+      <c r="V13" s="10">
+        <v>0</v>
+      </c>
+      <c r="W13" s="10">
+        <v>0</v>
+      </c>
       <c r="X13" s="10"/>
-      <c r="Y13" s="10">
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10">
         <v>16</v>
       </c>
-      <c r="Z13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="10" t="s">
+      <c r="AC13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AC13" s="10" t="s">
+      <c r="AF13" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AD13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="10">
+      <c r="AG13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="10">
         <v>3</v>
       </c>
-      <c r="AF13" s="10">
+      <c r="AI13" s="10">
         <v>16</v>
       </c>
-      <c r="AG13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="10" t="s">
+      <c r="AJ13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AJ13" s="10" t="s">
+      <c r="AM13" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AK13" s="10">
+      <c r="AN13" s="10">
         <v>4</v>
       </c>
-      <c r="AL13" s="10"/>
-      <c r="AM13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="10"/>
+      <c r="AO13" s="10"/>
+      <c r="AP13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="10">
+        <v>0</v>
+      </c>
       <c r="AS13" s="10"/>
-      <c r="AT13" s="10">
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10"/>
+      <c r="AV13" s="10"/>
+      <c r="AW13" s="10">
         <v>1200</v>
       </c>
-      <c r="AU13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="10" t="s">
+      <c r="AX13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX13" s="10" t="str">
+      <c r="BA13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 1200/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY13" s="10"/>
-      <c r="AZ13">
+      <c r="BB13" s="10"/>
+      <c r="BC13">
         <v>6</v>
       </c>
-      <c r="BA13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="10"/>
-      <c r="BE13" s="10"/>
-      <c r="BF13" s="10"/>
+      <c r="BD13" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="10">
+        <v>0</v>
+      </c>
       <c r="BG13" s="10"/>
-      <c r="BH13" s="10">
+      <c r="BH13" s="10"/>
+      <c r="BI13" s="10"/>
+      <c r="BJ13" s="10"/>
+      <c r="BK13" s="10">
         <v>12</v>
       </c>
-      <c r="BI13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="10" t="s">
+      <c r="BL13" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN13" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BL13" s="10" t="s">
+      <c r="BO13" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BM13" s="10"/>
-      <c r="BN13" s="10">
+      <c r="BP13" s="10"/>
+      <c r="BQ13" s="10">
         <v>8</v>
       </c>
-      <c r="BO13" s="10"/>
+      <c r="BR13" s="10"/>
     </row>
-    <row r="14" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
       <c r="F14" s="36">
         <v>800</v>
       </c>
@@ -8841,121 +9161,130 @@
       <c r="Q14" s="10">
         <v>2</v>
       </c>
-      <c r="R14" s="10">
-        <v>0</v>
-      </c>
-      <c r="S14" s="10">
-        <v>0</v>
-      </c>
-      <c r="T14" s="10">
-        <v>0</v>
-      </c>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
+      <c r="R14" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S14" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T14" s="104">
+        <v>150</v>
+      </c>
+      <c r="U14" s="10">
+        <v>0</v>
+      </c>
+      <c r="V14" s="10">
+        <v>0</v>
+      </c>
+      <c r="W14" s="10">
+        <v>0</v>
+      </c>
       <c r="X14" s="10"/>
-      <c r="Y14" s="75">
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="75">
         <v>10</v>
       </c>
-      <c r="Z14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="10" t="s">
+      <c r="AC14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AC14" s="10" t="s">
+      <c r="AF14" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AD14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="10">
+      <c r="AG14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="10">
         <v>3</v>
       </c>
-      <c r="AF14" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="10"/>
-      <c r="AJ14" s="10"/>
-      <c r="AK14" s="10"/>
+      <c r="AI14" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="10">
+        <v>0</v>
+      </c>
       <c r="AL14" s="10"/>
-      <c r="AM14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="10"/>
-      <c r="AQ14" s="10"/>
-      <c r="AR14" s="10"/>
+      <c r="AM14" s="10"/>
+      <c r="AN14" s="10"/>
+      <c r="AO14" s="10"/>
+      <c r="AP14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="10">
+        <v>0</v>
+      </c>
       <c r="AS14" s="10"/>
-      <c r="AT14" s="75">
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10"/>
+      <c r="AV14" s="10"/>
+      <c r="AW14" s="75">
         <v>1000</v>
       </c>
-      <c r="AU14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW14" s="10" t="s">
+      <c r="AX14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX14" s="10" t="str">
+      <c r="BA14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 1000/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY14" s="10"/>
-      <c r="AZ14">
+      <c r="BB14" s="10"/>
+      <c r="BC14">
         <v>6</v>
       </c>
-      <c r="BA14" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB14" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC14" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD14" s="10"/>
-      <c r="BE14" s="10"/>
-      <c r="BF14" s="10"/>
+      <c r="BD14" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="10">
+        <v>0</v>
+      </c>
       <c r="BG14" s="10"/>
-      <c r="BH14" s="75">
+      <c r="BH14" s="10"/>
+      <c r="BI14" s="10"/>
+      <c r="BJ14" s="10"/>
+      <c r="BK14" s="75">
         <v>10</v>
       </c>
-      <c r="BI14" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ14" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK14" s="10" t="s">
+      <c r="BL14" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN14" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BL14" s="10" t="s">
+      <c r="BO14" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BM14" s="10"/>
-      <c r="BN14" s="10">
+      <c r="BP14" s="10"/>
+      <c r="BQ14" s="10">
         <v>8</v>
       </c>
-      <c r="BO14" s="10"/>
+      <c r="BR14" s="10"/>
     </row>
-    <row r="15" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
       <c r="F15" s="36">
         <v>630</v>
       </c>
@@ -8982,121 +9311,130 @@
       <c r="Q15" s="10">
         <v>2</v>
       </c>
-      <c r="R15" s="10">
-        <v>0</v>
-      </c>
-      <c r="S15" s="10">
-        <v>0</v>
-      </c>
-      <c r="T15" s="10">
-        <v>0</v>
-      </c>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
+      <c r="R15" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S15" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T15" s="104">
+        <v>150</v>
+      </c>
+      <c r="U15" s="10">
+        <v>0</v>
+      </c>
+      <c r="V15" s="10">
+        <v>0</v>
+      </c>
+      <c r="W15" s="10">
+        <v>0</v>
+      </c>
       <c r="X15" s="10"/>
-      <c r="Y15" s="75">
+      <c r="Y15" s="10"/>
+      <c r="Z15" s="10"/>
+      <c r="AA15" s="10"/>
+      <c r="AB15" s="75">
         <v>6</v>
       </c>
-      <c r="Z15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="10" t="s">
+      <c r="AC15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AC15" s="10" t="s">
+      <c r="AF15" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AD15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="10">
+      <c r="AG15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="10">
         <v>3</v>
       </c>
-      <c r="AF15" s="75">
-        <v>0</v>
-      </c>
-      <c r="AG15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI15" s="10"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
+      <c r="AI15" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="10">
+        <v>0</v>
+      </c>
       <c r="AL15" s="10"/>
-      <c r="AM15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="10"/>
-      <c r="AQ15" s="10"/>
-      <c r="AR15" s="10"/>
+      <c r="AM15" s="10"/>
+      <c r="AN15" s="10"/>
+      <c r="AO15" s="10"/>
+      <c r="AP15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="10">
+        <v>0</v>
+      </c>
       <c r="AS15" s="10"/>
-      <c r="AT15" s="75">
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10"/>
+      <c r="AV15" s="10"/>
+      <c r="AW15" s="75">
         <v>800</v>
       </c>
-      <c r="AU15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW15" s="10" t="s">
+      <c r="AX15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX15" s="10" t="str">
+      <c r="BA15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 800/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY15" s="10"/>
-      <c r="AZ15">
+      <c r="BB15" s="10"/>
+      <c r="BC15">
         <v>6</v>
       </c>
-      <c r="BA15" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB15" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC15" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD15" s="10"/>
-      <c r="BE15" s="10"/>
-      <c r="BF15" s="10"/>
+      <c r="BD15" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="10">
+        <v>0</v>
+      </c>
       <c r="BG15" s="10"/>
-      <c r="BH15" s="75">
+      <c r="BH15" s="10"/>
+      <c r="BI15" s="10"/>
+      <c r="BJ15" s="10"/>
+      <c r="BK15" s="75">
         <v>8</v>
       </c>
-      <c r="BI15" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ15" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK15" s="10" t="s">
+      <c r="BL15" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN15" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BL15" s="10" t="s">
+      <c r="BO15" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BM15" s="10"/>
-      <c r="BN15" s="10">
+      <c r="BP15" s="10"/>
+      <c r="BQ15" s="10">
         <v>8</v>
       </c>
-      <c r="BO15" s="10"/>
+      <c r="BR15" s="10"/>
     </row>
-    <row r="16" spans="1:67" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
       <c r="F16" s="36">
         <v>400</v>
       </c>
@@ -9123,29 +9461,29 @@
       <c r="Q16" s="10">
         <v>2</v>
       </c>
-      <c r="R16" s="10">
-        <v>0</v>
-      </c>
-      <c r="S16" s="10">
-        <v>0</v>
-      </c>
-      <c r="T16" s="10">
-        <v>0</v>
-      </c>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
+      <c r="R16" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S16" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T16" s="104">
+        <v>150</v>
+      </c>
+      <c r="U16" s="10">
+        <v>0</v>
+      </c>
+      <c r="V16" s="10">
+        <v>0</v>
+      </c>
+      <c r="W16" s="10">
+        <v>0</v>
+      </c>
       <c r="X16" s="10"/>
-      <c r="Y16" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="10">
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="75">
         <v>0</v>
       </c>
       <c r="AC16" s="10">
@@ -9154,88 +9492,97 @@
       <c r="AD16" s="10">
         <v>0</v>
       </c>
-      <c r="AE16" s="10"/>
-      <c r="AF16" s="75">
+      <c r="AE16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="10">
         <v>0</v>
       </c>
       <c r="AG16" s="10">
         <v>0</v>
       </c>
-      <c r="AH16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="10"/>
-      <c r="AJ16" s="10"/>
-      <c r="AK16" s="10"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="10">
+        <v>0</v>
+      </c>
       <c r="AL16" s="10"/>
-      <c r="AM16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="10"/>
-      <c r="AQ16" s="10"/>
-      <c r="AR16" s="10"/>
+      <c r="AM16" s="10"/>
+      <c r="AN16" s="10"/>
+      <c r="AO16" s="10"/>
+      <c r="AP16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="10">
+        <v>0</v>
+      </c>
       <c r="AS16" s="10"/>
-      <c r="AT16" s="75">
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10"/>
+      <c r="AV16" s="10"/>
+      <c r="AW16" s="75">
         <v>750</v>
       </c>
-      <c r="AU16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="10" t="s">
+      <c r="AX16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX16" s="10" t="str">
+      <c r="BA16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 750/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY16" s="10"/>
-      <c r="AZ16">
+      <c r="BB16" s="10"/>
+      <c r="BC16">
         <v>6</v>
       </c>
-      <c r="BA16" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC16" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD16" s="10"/>
-      <c r="BE16" s="10"/>
-      <c r="BF16" s="10"/>
+      <c r="BD16" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="10">
+        <v>0</v>
+      </c>
       <c r="BG16" s="10"/>
-      <c r="BH16" s="75">
+      <c r="BH16" s="10"/>
+      <c r="BI16" s="10"/>
+      <c r="BJ16" s="10"/>
+      <c r="BK16" s="75">
         <v>6</v>
       </c>
-      <c r="BI16" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ16" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK16" s="10" t="s">
+      <c r="BL16" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN16" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BL16" s="10" t="s">
+      <c r="BO16" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BM16" s="10"/>
-      <c r="BN16" s="10">
+      <c r="BP16" s="10"/>
+      <c r="BQ16" s="10">
         <v>8</v>
       </c>
-      <c r="BO16" s="10"/>
+      <c r="BR16" s="10"/>
     </row>
-    <row r="17" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F17" s="36">
         <v>250</v>
       </c>
@@ -9262,29 +9609,29 @@
       <c r="Q17" s="10">
         <v>2</v>
       </c>
-      <c r="R17" s="10">
-        <v>0</v>
-      </c>
-      <c r="S17" s="10">
-        <v>0</v>
-      </c>
-      <c r="T17" s="10">
-        <v>0</v>
-      </c>
-      <c r="U17" s="10"/>
-      <c r="V17" s="10"/>
-      <c r="W17" s="10"/>
+      <c r="R17" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S17" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T17" s="104">
+        <v>150</v>
+      </c>
+      <c r="U17" s="10">
+        <v>0</v>
+      </c>
+      <c r="V17" s="10">
+        <v>0</v>
+      </c>
+      <c r="W17" s="10">
+        <v>0</v>
+      </c>
       <c r="X17" s="10"/>
-      <c r="Y17" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="10">
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="75">
         <v>0</v>
       </c>
       <c r="AC17" s="10">
@@ -9293,88 +9640,97 @@
       <c r="AD17" s="10">
         <v>0</v>
       </c>
-      <c r="AE17" s="10"/>
-      <c r="AF17" s="75">
+      <c r="AE17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="10">
         <v>0</v>
       </c>
       <c r="AG17" s="10">
         <v>0</v>
       </c>
-      <c r="AH17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="10"/>
-      <c r="AJ17" s="10"/>
-      <c r="AK17" s="10"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="10">
+        <v>0</v>
+      </c>
       <c r="AL17" s="10"/>
-      <c r="AM17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="10"/>
-      <c r="AQ17" s="10"/>
-      <c r="AR17" s="10"/>
+      <c r="AM17" s="10"/>
+      <c r="AN17" s="10"/>
+      <c r="AO17" s="10"/>
+      <c r="AP17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="10">
+        <v>0</v>
+      </c>
       <c r="AS17" s="10"/>
-      <c r="AT17" s="75">
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10"/>
+      <c r="AV17" s="10"/>
+      <c r="AW17" s="75">
         <v>600</v>
       </c>
-      <c r="AU17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW17" s="10" t="s">
+      <c r="AX17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX17" s="10" t="str">
+      <c r="BA17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 600/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY17" s="10"/>
-      <c r="AZ17">
+      <c r="BB17" s="10"/>
+      <c r="BC17">
         <v>6</v>
       </c>
-      <c r="BA17" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB17" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC17" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD17" s="10"/>
-      <c r="BE17" s="10"/>
-      <c r="BF17" s="10"/>
+      <c r="BD17" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="10">
+        <v>0</v>
+      </c>
       <c r="BG17" s="10"/>
-      <c r="BH17" s="75">
+      <c r="BH17" s="10"/>
+      <c r="BI17" s="10"/>
+      <c r="BJ17" s="10"/>
+      <c r="BK17" s="75">
         <v>4</v>
       </c>
-      <c r="BI17" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ17" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK17" s="10" t="s">
+      <c r="BL17" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN17" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BL17" s="10" t="s">
+      <c r="BO17" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BM17" s="10"/>
-      <c r="BN17" s="10">
+      <c r="BP17" s="10"/>
+      <c r="BQ17" s="10">
         <v>8</v>
       </c>
-      <c r="BO17" s="10"/>
+      <c r="BR17" s="10"/>
     </row>
-    <row r="18" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F18" s="36">
         <v>200</v>
       </c>
@@ -9401,29 +9757,29 @@
       <c r="Q18" s="10">
         <v>2</v>
       </c>
-      <c r="R18" s="10">
-        <v>0</v>
-      </c>
-      <c r="S18" s="10">
-        <v>0</v>
-      </c>
-      <c r="T18" s="10">
-        <v>0</v>
-      </c>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="10"/>
+      <c r="R18" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S18" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T18" s="104">
+        <v>150</v>
+      </c>
+      <c r="U18" s="10">
+        <v>0</v>
+      </c>
+      <c r="V18" s="10">
+        <v>0</v>
+      </c>
+      <c r="W18" s="10">
+        <v>0</v>
+      </c>
       <c r="X18" s="10"/>
-      <c r="Y18" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="10">
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="75">
         <v>0</v>
       </c>
       <c r="AC18" s="10">
@@ -9432,88 +9788,97 @@
       <c r="AD18" s="10">
         <v>0</v>
       </c>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="75">
+      <c r="AE18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="10">
         <v>0</v>
       </c>
       <c r="AG18" s="10">
         <v>0</v>
       </c>
-      <c r="AH18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="10"/>
-      <c r="AJ18" s="10"/>
-      <c r="AK18" s="10"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="10">
+        <v>0</v>
+      </c>
       <c r="AL18" s="10"/>
-      <c r="AM18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="10"/>
-      <c r="AQ18" s="10"/>
-      <c r="AR18" s="10"/>
+      <c r="AM18" s="10"/>
+      <c r="AN18" s="10"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="10">
+        <v>0</v>
+      </c>
       <c r="AS18" s="10"/>
-      <c r="AT18" s="75">
+      <c r="AT18" s="10"/>
+      <c r="AU18" s="10"/>
+      <c r="AV18" s="10"/>
+      <c r="AW18" s="75">
         <v>500</v>
       </c>
-      <c r="AU18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW18" s="10" t="s">
+      <c r="AX18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX18" s="10" t="str">
+      <c r="BA18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 500/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY18" s="10"/>
-      <c r="AZ18">
+      <c r="BB18" s="10"/>
+      <c r="BC18">
         <v>6</v>
       </c>
-      <c r="BA18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD18" s="10"/>
-      <c r="BE18" s="10"/>
-      <c r="BF18" s="10"/>
+      <c r="BD18" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="10">
+        <v>0</v>
+      </c>
       <c r="BG18" s="10"/>
-      <c r="BH18" s="75">
+      <c r="BH18" s="10"/>
+      <c r="BI18" s="10"/>
+      <c r="BJ18" s="10"/>
+      <c r="BK18" s="75">
         <v>2.5</v>
       </c>
-      <c r="BI18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK18" s="10" t="s">
+      <c r="BL18" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN18" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BL18" s="10" t="s">
+      <c r="BO18" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BM18" s="10"/>
-      <c r="BN18" s="10">
+      <c r="BP18" s="10"/>
+      <c r="BQ18" s="10">
         <v>8</v>
       </c>
-      <c r="BO18" s="10"/>
+      <c r="BR18" s="10"/>
     </row>
-    <row r="19" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F19" s="36">
         <v>160</v>
       </c>
@@ -9540,29 +9905,29 @@
       <c r="Q19" s="10">
         <v>2</v>
       </c>
-      <c r="R19" s="10">
-        <v>0</v>
-      </c>
-      <c r="S19" s="10">
-        <v>0</v>
-      </c>
-      <c r="T19" s="10">
-        <v>0</v>
-      </c>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
+      <c r="R19" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S19" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T19" s="104">
+        <v>150</v>
+      </c>
+      <c r="U19" s="10">
+        <v>0</v>
+      </c>
+      <c r="V19" s="10">
+        <v>0</v>
+      </c>
+      <c r="W19" s="10">
+        <v>0</v>
+      </c>
       <c r="X19" s="10"/>
-      <c r="Y19" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB19" s="10">
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="75">
         <v>0</v>
       </c>
       <c r="AC19" s="10">
@@ -9571,88 +9936,97 @@
       <c r="AD19" s="10">
         <v>0</v>
       </c>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="75">
+      <c r="AE19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="10">
         <v>0</v>
       </c>
       <c r="AG19" s="10">
         <v>0</v>
       </c>
-      <c r="AH19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="10"/>
-      <c r="AJ19" s="10"/>
-      <c r="AK19" s="10"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="10">
+        <v>0</v>
+      </c>
       <c r="AL19" s="10"/>
-      <c r="AM19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="10"/>
-      <c r="AQ19" s="10"/>
-      <c r="AR19" s="10"/>
+      <c r="AM19" s="10"/>
+      <c r="AN19" s="10"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="10">
+        <v>0</v>
+      </c>
       <c r="AS19" s="10"/>
-      <c r="AT19" s="75">
+      <c r="AT19" s="10"/>
+      <c r="AU19" s="10"/>
+      <c r="AV19" s="10"/>
+      <c r="AW19" s="75">
         <v>400</v>
       </c>
-      <c r="AU19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW19" s="10" t="s">
+      <c r="AX19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX19" s="10" t="str">
+      <c r="BA19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 400/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY19" s="10"/>
-      <c r="AZ19">
+      <c r="BB19" s="10"/>
+      <c r="BC19">
         <v>6</v>
       </c>
-      <c r="BA19" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB19" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC19" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD19" s="10"/>
-      <c r="BE19" s="10"/>
-      <c r="BF19" s="10"/>
+      <c r="BD19" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="10">
+        <v>0</v>
+      </c>
       <c r="BG19" s="10"/>
-      <c r="BH19" s="75">
+      <c r="BH19" s="10"/>
+      <c r="BI19" s="10"/>
+      <c r="BJ19" s="10"/>
+      <c r="BK19" s="75">
         <v>1.6</v>
       </c>
-      <c r="BI19" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ19" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK19" s="10" t="s">
+      <c r="BL19" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN19" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BL19" s="10" t="s">
+      <c r="BO19" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BM19" s="10"/>
-      <c r="BN19" s="10">
+      <c r="BP19" s="10"/>
+      <c r="BQ19" s="10">
         <v>8</v>
       </c>
-      <c r="BO19" s="10"/>
+      <c r="BR19" s="10"/>
     </row>
-    <row r="20" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F20" s="36">
         <v>125</v>
       </c>
@@ -9679,29 +10053,29 @@
       <c r="Q20" s="10">
         <v>2</v>
       </c>
-      <c r="R20" s="10">
-        <v>0</v>
-      </c>
-      <c r="S20" s="10">
-        <v>0</v>
-      </c>
-      <c r="T20" s="10">
-        <v>0</v>
-      </c>
-      <c r="U20" s="10"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="10"/>
+      <c r="R20" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S20" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T20" s="104">
+        <v>150</v>
+      </c>
+      <c r="U20" s="10">
+        <v>0</v>
+      </c>
+      <c r="V20" s="10">
+        <v>0</v>
+      </c>
+      <c r="W20" s="10">
+        <v>0</v>
+      </c>
       <c r="X20" s="10"/>
-      <c r="Y20" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="10">
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="75">
         <v>0</v>
       </c>
       <c r="AC20" s="10">
@@ -9710,88 +10084,97 @@
       <c r="AD20" s="10">
         <v>0</v>
       </c>
-      <c r="AE20" s="10"/>
-      <c r="AF20" s="75">
+      <c r="AE20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="10">
         <v>0</v>
       </c>
       <c r="AG20" s="10">
         <v>0</v>
       </c>
-      <c r="AH20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="10"/>
-      <c r="AJ20" s="10"/>
-      <c r="AK20" s="10"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="10">
+        <v>0</v>
+      </c>
       <c r="AL20" s="10"/>
-      <c r="AM20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="10"/>
-      <c r="AQ20" s="10"/>
-      <c r="AR20" s="10"/>
+      <c r="AM20" s="10"/>
+      <c r="AN20" s="10"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="10">
+        <v>0</v>
+      </c>
       <c r="AS20" s="10"/>
-      <c r="AT20" s="75">
+      <c r="AT20" s="10"/>
+      <c r="AU20" s="10"/>
+      <c r="AV20" s="10"/>
+      <c r="AW20" s="75">
         <v>300</v>
       </c>
-      <c r="AU20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW20" s="10" t="s">
+      <c r="AX20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX20" s="10" t="str">
+      <c r="BA20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 300/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY20" s="10"/>
-      <c r="AZ20">
+      <c r="BB20" s="10"/>
+      <c r="BC20">
         <v>6</v>
       </c>
-      <c r="BA20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD20" s="10"/>
-      <c r="BE20" s="10"/>
-      <c r="BF20" s="10"/>
+      <c r="BD20" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="10">
+        <v>0</v>
+      </c>
       <c r="BG20" s="10"/>
-      <c r="BH20" s="75">
+      <c r="BH20" s="10"/>
+      <c r="BI20" s="10"/>
+      <c r="BJ20" s="10"/>
+      <c r="BK20" s="75">
         <v>1</v>
       </c>
-      <c r="BI20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK20" s="10" t="s">
+      <c r="BL20" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN20" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BL20" s="10" t="s">
+      <c r="BO20" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BM20" s="10"/>
-      <c r="BN20" s="10">
+      <c r="BP20" s="10"/>
+      <c r="BQ20" s="10">
         <v>8</v>
       </c>
-      <c r="BO20" s="10"/>
+      <c r="BR20" s="10"/>
     </row>
-    <row r="21" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F21" s="36">
         <v>100</v>
       </c>
@@ -9818,29 +10201,29 @@
       <c r="Q21" s="10">
         <v>2</v>
       </c>
-      <c r="R21" s="10">
-        <v>0</v>
-      </c>
-      <c r="S21" s="10">
-        <v>0</v>
-      </c>
-      <c r="T21" s="10">
-        <v>0</v>
-      </c>
-      <c r="U21" s="10"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="10"/>
+      <c r="R21" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S21" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T21" s="104">
+        <v>150</v>
+      </c>
+      <c r="U21" s="10">
+        <v>0</v>
+      </c>
+      <c r="V21" s="10">
+        <v>0</v>
+      </c>
+      <c r="W21" s="10">
+        <v>0</v>
+      </c>
       <c r="X21" s="10"/>
-      <c r="Y21" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="10">
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="75">
         <v>0</v>
       </c>
       <c r="AC21" s="10">
@@ -9849,88 +10232,97 @@
       <c r="AD21" s="10">
         <v>0</v>
       </c>
-      <c r="AE21" s="10"/>
-      <c r="AF21" s="75">
+      <c r="AE21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="10">
         <v>0</v>
       </c>
       <c r="AG21" s="10">
         <v>0</v>
       </c>
-      <c r="AH21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI21" s="10"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
+      <c r="AH21" s="10"/>
+      <c r="AI21" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="10">
+        <v>0</v>
+      </c>
       <c r="AL21" s="10"/>
-      <c r="AM21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="10"/>
-      <c r="AQ21" s="10"/>
-      <c r="AR21" s="10"/>
+      <c r="AM21" s="10"/>
+      <c r="AN21" s="10"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="10">
+        <v>0</v>
+      </c>
       <c r="AS21" s="10"/>
-      <c r="AT21" s="75">
+      <c r="AT21" s="10"/>
+      <c r="AU21" s="10"/>
+      <c r="AV21" s="10"/>
+      <c r="AW21" s="75">
         <v>250</v>
       </c>
-      <c r="AU21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW21" s="10" t="s">
+      <c r="AX21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX21" s="10" t="str">
+      <c r="BA21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 250/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY21" s="10"/>
-      <c r="AZ21">
+      <c r="BB21" s="10"/>
+      <c r="BC21">
         <v>6</v>
       </c>
-      <c r="BA21" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB21" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC21" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD21" s="10"/>
-      <c r="BE21" s="10"/>
-      <c r="BF21" s="10"/>
+      <c r="BD21" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="10">
+        <v>0</v>
+      </c>
       <c r="BG21" s="10"/>
-      <c r="BH21" s="75">
+      <c r="BH21" s="10"/>
+      <c r="BI21" s="10"/>
+      <c r="BJ21" s="10"/>
+      <c r="BK21" s="75">
         <v>0.6</v>
       </c>
-      <c r="BI21" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ21" s="10">
-        <v>0</v>
-      </c>
-      <c r="BK21" s="10" t="s">
+      <c r="BL21" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN21" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BL21" s="10" t="s">
+      <c r="BO21" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BM21" s="10"/>
-      <c r="BN21" s="10">
+      <c r="BP21" s="10"/>
+      <c r="BQ21" s="10">
         <v>8</v>
       </c>
-      <c r="BO21" s="10"/>
+      <c r="BR21" s="10"/>
     </row>
-    <row r="22" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F22" s="36">
         <v>80</v>
       </c>
@@ -9957,29 +10349,29 @@
       <c r="Q22" s="10">
         <v>2</v>
       </c>
-      <c r="R22" s="10">
-        <v>0</v>
-      </c>
-      <c r="S22" s="10">
-        <v>0</v>
-      </c>
-      <c r="T22" s="10">
-        <v>0</v>
-      </c>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
+      <c r="R22" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S22" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T22" s="104">
+        <v>150</v>
+      </c>
+      <c r="U22" s="10">
+        <v>0</v>
+      </c>
+      <c r="V22" s="10">
+        <v>0</v>
+      </c>
+      <c r="W22" s="10">
+        <v>0</v>
+      </c>
       <c r="X22" s="10"/>
-      <c r="Y22" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="10">
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="75">
         <v>0</v>
       </c>
       <c r="AC22" s="10">
@@ -9988,84 +10380,93 @@
       <c r="AD22" s="10">
         <v>0</v>
       </c>
-      <c r="AE22" s="10"/>
-      <c r="AF22" s="75">
+      <c r="AE22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="10">
         <v>0</v>
       </c>
       <c r="AG22" s="10">
         <v>0</v>
       </c>
-      <c r="AH22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
+      <c r="AH22" s="10"/>
+      <c r="AI22" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="10">
+        <v>0</v>
+      </c>
       <c r="AL22" s="10"/>
-      <c r="AM22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
+      <c r="AM22" s="10"/>
+      <c r="AN22" s="10"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="10">
+        <v>0</v>
+      </c>
       <c r="AS22" s="10"/>
-      <c r="AT22" s="75">
+      <c r="AT22" s="10"/>
+      <c r="AU22" s="10"/>
+      <c r="AV22" s="10"/>
+      <c r="AW22" s="75">
         <v>200</v>
       </c>
-      <c r="AU22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW22" s="10" t="s">
+      <c r="AX22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX22" s="10" t="str">
+      <c r="BA22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 200/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY22" s="10"/>
-      <c r="AZ22">
+      <c r="BB22" s="10"/>
+      <c r="BC22">
         <v>6</v>
       </c>
-      <c r="BA22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD22" s="10"/>
-      <c r="BE22" s="10"/>
-      <c r="BF22" s="10"/>
+      <c r="BD22" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="10">
+        <v>0</v>
+      </c>
       <c r="BG22" s="10"/>
-      <c r="BH22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ22" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH22" s="10"/>
+      <c r="BI22" s="10"/>
+      <c r="BJ22" s="10"/>
       <c r="BK22" s="10">
         <v>0</v>
       </c>
-      <c r="BL22" s="10"/>
-      <c r="BM22" s="10"/>
-      <c r="BN22" s="10"/>
+      <c r="BL22" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM22" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN22" s="10">
+        <v>0</v>
+      </c>
       <c r="BO22" s="10"/>
+      <c r="BP22" s="10"/>
+      <c r="BQ22" s="10"/>
+      <c r="BR22" s="10"/>
     </row>
-    <row r="23" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F23" s="36">
         <v>63</v>
       </c>
@@ -10092,29 +10493,29 @@
       <c r="Q23" s="10">
         <v>2</v>
       </c>
-      <c r="R23" s="10">
-        <v>0</v>
-      </c>
-      <c r="S23" s="10">
-        <v>0</v>
-      </c>
-      <c r="T23" s="10">
-        <v>0</v>
-      </c>
-      <c r="U23" s="10"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="10"/>
+      <c r="R23" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S23" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T23" s="104">
+        <v>150</v>
+      </c>
+      <c r="U23" s="10">
+        <v>0</v>
+      </c>
+      <c r="V23" s="10">
+        <v>0</v>
+      </c>
+      <c r="W23" s="10">
+        <v>0</v>
+      </c>
       <c r="X23" s="10"/>
-      <c r="Y23" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="10">
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="75">
         <v>0</v>
       </c>
       <c r="AC23" s="10">
@@ -10123,84 +10524,93 @@
       <c r="AD23" s="10">
         <v>0</v>
       </c>
-      <c r="AE23" s="10"/>
-      <c r="AF23" s="75">
+      <c r="AE23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="10">
         <v>0</v>
       </c>
       <c r="AG23" s="10">
         <v>0</v>
       </c>
-      <c r="AH23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="10"/>
-      <c r="AJ23" s="10"/>
-      <c r="AK23" s="10"/>
+      <c r="AH23" s="10"/>
+      <c r="AI23" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="10">
+        <v>0</v>
+      </c>
       <c r="AL23" s="10"/>
-      <c r="AM23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP23" s="10"/>
-      <c r="AQ23" s="10"/>
-      <c r="AR23" s="10"/>
+      <c r="AM23" s="10"/>
+      <c r="AN23" s="10"/>
+      <c r="AO23" s="10"/>
+      <c r="AP23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR23" s="10">
+        <v>0</v>
+      </c>
       <c r="AS23" s="10"/>
-      <c r="AT23" s="75">
+      <c r="AT23" s="10"/>
+      <c r="AU23" s="10"/>
+      <c r="AV23" s="10"/>
+      <c r="AW23" s="75">
         <v>150</v>
       </c>
-      <c r="AU23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW23" s="10" t="s">
+      <c r="AX23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX23" s="10" t="str">
+      <c r="BA23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 150/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY23" s="10"/>
-      <c r="AZ23">
+      <c r="BB23" s="10"/>
+      <c r="BC23">
         <v>6</v>
       </c>
-      <c r="BA23" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB23" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC23" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD23" s="10"/>
-      <c r="BE23" s="10"/>
-      <c r="BF23" s="10"/>
+      <c r="BD23" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="10">
+        <v>0</v>
+      </c>
       <c r="BG23" s="10"/>
-      <c r="BH23" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI23" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ23" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH23" s="10"/>
+      <c r="BI23" s="10"/>
+      <c r="BJ23" s="10"/>
       <c r="BK23" s="10">
         <v>0</v>
       </c>
-      <c r="BL23" s="10"/>
-      <c r="BM23" s="10"/>
-      <c r="BN23" s="10"/>
+      <c r="BL23" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM23" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN23" s="10">
+        <v>0</v>
+      </c>
       <c r="BO23" s="10"/>
+      <c r="BP23" s="10"/>
+      <c r="BQ23" s="10"/>
+      <c r="BR23" s="10"/>
     </row>
-    <row r="24" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F24" s="36">
         <v>50</v>
       </c>
@@ -10229,29 +10639,29 @@
       <c r="Q24" s="10">
         <v>2</v>
       </c>
-      <c r="R24" s="10">
-        <v>0</v>
-      </c>
-      <c r="S24" s="10">
-        <v>0</v>
-      </c>
-      <c r="T24" s="10">
-        <v>0</v>
-      </c>
-      <c r="U24" s="10"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="10"/>
+      <c r="R24" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S24" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T24" s="104">
+        <v>150</v>
+      </c>
+      <c r="U24" s="10">
+        <v>0</v>
+      </c>
+      <c r="V24" s="10">
+        <v>0</v>
+      </c>
+      <c r="W24" s="10">
+        <v>0</v>
+      </c>
       <c r="X24" s="10"/>
-      <c r="Y24" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="10">
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="75">
         <v>0</v>
       </c>
       <c r="AC24" s="10">
@@ -10260,84 +10670,93 @@
       <c r="AD24" s="10">
         <v>0</v>
       </c>
-      <c r="AE24" s="10"/>
-      <c r="AF24" s="75">
+      <c r="AE24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="10">
         <v>0</v>
       </c>
       <c r="AG24" s="10">
         <v>0</v>
       </c>
-      <c r="AH24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="10"/>
-      <c r="AJ24" s="10"/>
-      <c r="AK24" s="10"/>
+      <c r="AH24" s="10"/>
+      <c r="AI24" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="10">
+        <v>0</v>
+      </c>
       <c r="AL24" s="10"/>
-      <c r="AM24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP24" s="10"/>
-      <c r="AQ24" s="10"/>
-      <c r="AR24" s="10"/>
+      <c r="AM24" s="10"/>
+      <c r="AN24" s="10"/>
+      <c r="AO24" s="10"/>
+      <c r="AP24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="10">
+        <v>0</v>
+      </c>
       <c r="AS24" s="10"/>
-      <c r="AT24" s="75">
+      <c r="AT24" s="10"/>
+      <c r="AU24" s="10"/>
+      <c r="AV24" s="10"/>
+      <c r="AW24" s="75">
         <v>125</v>
       </c>
-      <c r="AU24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW24" s="10" t="s">
+      <c r="AX24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX24" s="10" t="str">
+      <c r="BA24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 125/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY24" s="10"/>
-      <c r="AZ24">
+      <c r="BB24" s="10"/>
+      <c r="BC24">
         <v>6</v>
       </c>
-      <c r="BA24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD24" s="10"/>
-      <c r="BE24" s="10"/>
-      <c r="BF24" s="10"/>
+      <c r="BD24" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF24" s="10">
+        <v>0</v>
+      </c>
       <c r="BG24" s="10"/>
-      <c r="BH24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ24" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH24" s="10"/>
+      <c r="BI24" s="10"/>
+      <c r="BJ24" s="10"/>
       <c r="BK24" s="10">
         <v>0</v>
       </c>
-      <c r="BL24" s="10"/>
-      <c r="BM24" s="10"/>
-      <c r="BN24" s="10"/>
+      <c r="BL24" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM24" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN24" s="10">
+        <v>0</v>
+      </c>
       <c r="BO24" s="10"/>
+      <c r="BP24" s="10"/>
+      <c r="BQ24" s="10"/>
+      <c r="BR24" s="10"/>
     </row>
-    <row r="25" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F25" s="36">
         <v>40</v>
       </c>
@@ -10366,29 +10785,29 @@
       <c r="Q25" s="10">
         <v>2</v>
       </c>
-      <c r="R25" s="10">
-        <v>0</v>
-      </c>
-      <c r="S25" s="10">
-        <v>0</v>
-      </c>
-      <c r="T25" s="10">
-        <v>0</v>
-      </c>
-      <c r="U25" s="10"/>
-      <c r="V25" s="10"/>
-      <c r="W25" s="10"/>
+      <c r="R25" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S25" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T25" s="104">
+        <v>150</v>
+      </c>
+      <c r="U25" s="10">
+        <v>0</v>
+      </c>
+      <c r="V25" s="10">
+        <v>0</v>
+      </c>
+      <c r="W25" s="10">
+        <v>0</v>
+      </c>
       <c r="X25" s="10"/>
-      <c r="Y25" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="10">
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="75">
         <v>0</v>
       </c>
       <c r="AC25" s="10">
@@ -10397,84 +10816,93 @@
       <c r="AD25" s="10">
         <v>0</v>
       </c>
-      <c r="AE25" s="10"/>
-      <c r="AF25" s="75">
+      <c r="AE25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="10">
         <v>0</v>
       </c>
       <c r="AG25" s="10">
         <v>0</v>
       </c>
-      <c r="AH25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI25" s="10"/>
-      <c r="AJ25" s="10"/>
-      <c r="AK25" s="10"/>
+      <c r="AH25" s="10"/>
+      <c r="AI25" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="10">
+        <v>0</v>
+      </c>
       <c r="AL25" s="10"/>
-      <c r="AM25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP25" s="10"/>
-      <c r="AQ25" s="10"/>
-      <c r="AR25" s="10"/>
+      <c r="AM25" s="10"/>
+      <c r="AN25" s="10"/>
+      <c r="AO25" s="10"/>
+      <c r="AP25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR25" s="10">
+        <v>0</v>
+      </c>
       <c r="AS25" s="10"/>
-      <c r="AT25" s="75">
+      <c r="AT25" s="10"/>
+      <c r="AU25" s="10"/>
+      <c r="AV25" s="10"/>
+      <c r="AW25" s="75">
         <v>120</v>
       </c>
-      <c r="AU25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW25" s="10" t="s">
+      <c r="AX25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX25" s="10" t="str">
+      <c r="BA25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 120/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY25" s="10"/>
-      <c r="AZ25">
+      <c r="BB25" s="10"/>
+      <c r="BC25">
         <v>6</v>
       </c>
-      <c r="BA25" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB25" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC25" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD25" s="10"/>
-      <c r="BE25" s="10"/>
-      <c r="BF25" s="10"/>
+      <c r="BD25" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="10">
+        <v>0</v>
+      </c>
       <c r="BG25" s="10"/>
-      <c r="BH25" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI25" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ25" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH25" s="10"/>
+      <c r="BI25" s="10"/>
+      <c r="BJ25" s="10"/>
       <c r="BK25" s="10">
         <v>0</v>
       </c>
-      <c r="BL25" s="10"/>
-      <c r="BM25" s="10"/>
-      <c r="BN25" s="10"/>
+      <c r="BL25" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN25" s="10">
+        <v>0</v>
+      </c>
       <c r="BO25" s="10"/>
+      <c r="BP25" s="10"/>
+      <c r="BQ25" s="10"/>
+      <c r="BR25" s="10"/>
     </row>
-    <row r="26" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F26" s="36">
         <v>32</v>
       </c>
@@ -10503,29 +10931,29 @@
       <c r="Q26" s="10">
         <v>2</v>
       </c>
-      <c r="R26" s="10">
-        <v>0</v>
-      </c>
-      <c r="S26" s="10">
-        <v>0</v>
-      </c>
-      <c r="T26" s="10">
-        <v>0</v>
-      </c>
-      <c r="U26" s="10"/>
-      <c r="V26" s="10"/>
-      <c r="W26" s="10"/>
+      <c r="R26" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S26" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T26" s="104">
+        <v>150</v>
+      </c>
+      <c r="U26" s="10">
+        <v>0</v>
+      </c>
+      <c r="V26" s="10">
+        <v>0</v>
+      </c>
+      <c r="W26" s="10">
+        <v>0</v>
+      </c>
       <c r="X26" s="10"/>
-      <c r="Y26" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="10">
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="75">
         <v>0</v>
       </c>
       <c r="AC26" s="10">
@@ -10534,84 +10962,93 @@
       <c r="AD26" s="10">
         <v>0</v>
       </c>
-      <c r="AE26" s="10"/>
-      <c r="AF26" s="75">
+      <c r="AE26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="10">
         <v>0</v>
       </c>
       <c r="AG26" s="10">
         <v>0</v>
       </c>
-      <c r="AH26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="10"/>
-      <c r="AJ26" s="10"/>
-      <c r="AK26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="10">
+        <v>0</v>
+      </c>
       <c r="AL26" s="10"/>
-      <c r="AM26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP26" s="10"/>
-      <c r="AQ26" s="10"/>
-      <c r="AR26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR26" s="10">
+        <v>0</v>
+      </c>
       <c r="AS26" s="10"/>
-      <c r="AT26" s="75">
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="75">
         <v>100</v>
       </c>
-      <c r="AU26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW26" s="10" t="s">
+      <c r="AX26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX26" s="10" t="str">
+      <c r="BA26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 100/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY26" s="10"/>
-      <c r="AZ26">
+      <c r="BB26" s="10"/>
+      <c r="BC26">
         <v>6</v>
       </c>
-      <c r="BA26" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB26" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC26" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD26" s="10"/>
-      <c r="BE26" s="10"/>
-      <c r="BF26" s="10"/>
+      <c r="BD26" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="10">
+        <v>0</v>
+      </c>
       <c r="BG26" s="10"/>
-      <c r="BH26" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI26" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ26" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH26" s="10"/>
+      <c r="BI26" s="10"/>
+      <c r="BJ26" s="10"/>
       <c r="BK26" s="10">
         <v>0</v>
       </c>
-      <c r="BL26" s="10"/>
-      <c r="BM26" s="10"/>
-      <c r="BN26" s="10"/>
+      <c r="BL26" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN26" s="10">
+        <v>0</v>
+      </c>
       <c r="BO26" s="10"/>
+      <c r="BP26" s="10"/>
+      <c r="BQ26" s="10"/>
+      <c r="BR26" s="10"/>
     </row>
-    <row r="27" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F27" s="36">
         <v>25</v>
       </c>
@@ -10640,29 +11077,29 @@
       <c r="Q27" s="10">
         <v>2</v>
       </c>
-      <c r="R27" s="10">
-        <v>0</v>
-      </c>
-      <c r="S27" s="10">
-        <v>0</v>
-      </c>
-      <c r="T27" s="10">
-        <v>0</v>
-      </c>
-      <c r="U27" s="10"/>
-      <c r="V27" s="10"/>
-      <c r="W27" s="10"/>
+      <c r="R27" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S27" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T27" s="104">
+        <v>150</v>
+      </c>
+      <c r="U27" s="10">
+        <v>0</v>
+      </c>
+      <c r="V27" s="10">
+        <v>0</v>
+      </c>
+      <c r="W27" s="10">
+        <v>0</v>
+      </c>
       <c r="X27" s="10"/>
-      <c r="Y27" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="10">
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="75">
         <v>0</v>
       </c>
       <c r="AC27" s="10">
@@ -10671,84 +11108,93 @@
       <c r="AD27" s="10">
         <v>0</v>
       </c>
-      <c r="AE27" s="10"/>
-      <c r="AF27" s="75">
+      <c r="AE27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="10">
         <v>0</v>
       </c>
       <c r="AG27" s="10">
         <v>0</v>
       </c>
-      <c r="AH27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="10"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
+      <c r="AH27" s="10"/>
+      <c r="AI27" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="10">
+        <v>0</v>
+      </c>
       <c r="AL27" s="10"/>
-      <c r="AM27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="10"/>
-      <c r="AQ27" s="10"/>
-      <c r="AR27" s="10"/>
+      <c r="AM27" s="10"/>
+      <c r="AN27" s="10"/>
+      <c r="AO27" s="10"/>
+      <c r="AP27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="10">
+        <v>0</v>
+      </c>
       <c r="AS27" s="10"/>
-      <c r="AT27" s="75">
+      <c r="AT27" s="10"/>
+      <c r="AU27" s="10"/>
+      <c r="AV27" s="10"/>
+      <c r="AW27" s="75">
         <v>80</v>
       </c>
-      <c r="AU27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW27" s="10" t="s">
+      <c r="AX27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX27" s="10" t="str">
+      <c r="BA27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 80/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY27" s="10"/>
-      <c r="AZ27">
+      <c r="BB27" s="10"/>
+      <c r="BC27">
         <v>6</v>
       </c>
-      <c r="BA27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD27" s="10"/>
-      <c r="BE27" s="10"/>
-      <c r="BF27" s="10"/>
+      <c r="BD27" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="10">
+        <v>0</v>
+      </c>
       <c r="BG27" s="10"/>
-      <c r="BH27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ27" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH27" s="10"/>
+      <c r="BI27" s="10"/>
+      <c r="BJ27" s="10"/>
       <c r="BK27" s="10">
         <v>0</v>
       </c>
-      <c r="BL27" s="10"/>
-      <c r="BM27" s="10"/>
-      <c r="BN27" s="10"/>
+      <c r="BL27" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM27" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN27" s="10">
+        <v>0</v>
+      </c>
       <c r="BO27" s="10"/>
+      <c r="BP27" s="10"/>
+      <c r="BQ27" s="10"/>
+      <c r="BR27" s="10"/>
     </row>
-    <row r="28" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F28" s="36">
         <v>20</v>
       </c>
@@ -10777,29 +11223,29 @@
       <c r="Q28" s="10">
         <v>2</v>
       </c>
-      <c r="R28" s="10">
-        <v>0</v>
-      </c>
-      <c r="S28" s="10">
-        <v>0</v>
-      </c>
-      <c r="T28" s="10">
-        <v>0</v>
-      </c>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
+      <c r="R28" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S28" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T28" s="104">
+        <v>150</v>
+      </c>
+      <c r="U28" s="10">
+        <v>0</v>
+      </c>
+      <c r="V28" s="10">
+        <v>0</v>
+      </c>
+      <c r="W28" s="10">
+        <v>0</v>
+      </c>
       <c r="X28" s="10"/>
-      <c r="Y28" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="10">
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="75">
         <v>0</v>
       </c>
       <c r="AC28" s="10">
@@ -10808,84 +11254,93 @@
       <c r="AD28" s="10">
         <v>0</v>
       </c>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="75">
+      <c r="AE28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="10">
         <v>0</v>
       </c>
       <c r="AG28" s="10">
         <v>0</v>
       </c>
-      <c r="AH28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="10">
+        <v>0</v>
+      </c>
       <c r="AL28" s="10"/>
-      <c r="AM28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="10"/>
-      <c r="AQ28" s="10"/>
-      <c r="AR28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="10">
+        <v>0</v>
+      </c>
       <c r="AS28" s="10"/>
-      <c r="AT28" s="75">
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="75">
         <v>75</v>
       </c>
-      <c r="AU28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW28" s="10" t="s">
+      <c r="AX28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX28" s="10" t="str">
+      <c r="BA28" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 75/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY28" s="10"/>
-      <c r="AZ28">
+      <c r="BB28" s="10"/>
+      <c r="BC28">
         <v>6</v>
       </c>
-      <c r="BA28" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB28" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC28" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD28" s="10"/>
-      <c r="BE28" s="10"/>
-      <c r="BF28" s="10"/>
+      <c r="BD28" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="10">
+        <v>0</v>
+      </c>
       <c r="BG28" s="10"/>
-      <c r="BH28" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI28" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ28" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH28" s="10"/>
+      <c r="BI28" s="10"/>
+      <c r="BJ28" s="10"/>
       <c r="BK28" s="10">
         <v>0</v>
       </c>
-      <c r="BL28" s="10"/>
-      <c r="BM28" s="10"/>
-      <c r="BN28" s="10"/>
+      <c r="BL28" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN28" s="10">
+        <v>0</v>
+      </c>
       <c r="BO28" s="10"/>
+      <c r="BP28" s="10"/>
+      <c r="BQ28" s="10"/>
+      <c r="BR28" s="10"/>
     </row>
-    <row r="29" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F29" s="36">
         <v>16</v>
       </c>
@@ -10914,29 +11369,29 @@
       <c r="Q29" s="10">
         <v>2</v>
       </c>
-      <c r="R29" s="10">
-        <v>0</v>
-      </c>
-      <c r="S29" s="10">
-        <v>0</v>
-      </c>
-      <c r="T29" s="10">
-        <v>0</v>
-      </c>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
+      <c r="R29" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S29" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T29" s="104">
+        <v>150</v>
+      </c>
+      <c r="U29" s="10">
+        <v>0</v>
+      </c>
+      <c r="V29" s="10">
+        <v>0</v>
+      </c>
+      <c r="W29" s="10">
+        <v>0</v>
+      </c>
       <c r="X29" s="10"/>
-      <c r="Y29" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="10">
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="75">
         <v>0</v>
       </c>
       <c r="AC29" s="10">
@@ -10945,84 +11400,93 @@
       <c r="AD29" s="10">
         <v>0</v>
       </c>
-      <c r="AE29" s="10"/>
-      <c r="AF29" s="75">
+      <c r="AE29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="10">
         <v>0</v>
       </c>
       <c r="AG29" s="10">
         <v>0</v>
       </c>
-      <c r="AH29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI29" s="10"/>
-      <c r="AJ29" s="10"/>
-      <c r="AK29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="10">
+        <v>0</v>
+      </c>
       <c r="AL29" s="10"/>
-      <c r="AM29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP29" s="10"/>
-      <c r="AQ29" s="10"/>
-      <c r="AR29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="10">
+        <v>0</v>
+      </c>
       <c r="AS29" s="10"/>
-      <c r="AT29" s="75">
+      <c r="AT29" s="10"/>
+      <c r="AU29" s="10"/>
+      <c r="AV29" s="10"/>
+      <c r="AW29" s="75">
         <v>60</v>
       </c>
-      <c r="AU29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW29" s="10" t="s">
+      <c r="AX29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX29" s="10" t="str">
+      <c r="BA29" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 60/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY29" s="10"/>
-      <c r="AZ29">
+      <c r="BB29" s="10"/>
+      <c r="BC29">
         <v>6</v>
       </c>
-      <c r="BA29" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB29" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC29" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD29" s="10"/>
-      <c r="BE29" s="10"/>
-      <c r="BF29" s="10"/>
+      <c r="BD29" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="10">
+        <v>0</v>
+      </c>
       <c r="BG29" s="10"/>
-      <c r="BH29" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI29" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ29" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH29" s="10"/>
+      <c r="BI29" s="10"/>
+      <c r="BJ29" s="10"/>
       <c r="BK29" s="10">
         <v>0</v>
       </c>
-      <c r="BL29" s="10"/>
-      <c r="BM29" s="10"/>
-      <c r="BN29" s="10"/>
+      <c r="BL29" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM29" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN29" s="10">
+        <v>0</v>
+      </c>
       <c r="BO29" s="10"/>
+      <c r="BP29" s="10"/>
+      <c r="BQ29" s="10"/>
+      <c r="BR29" s="10"/>
     </row>
-    <row r="30" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F30" s="36">
         <v>10</v>
       </c>
@@ -11051,29 +11515,29 @@
       <c r="Q30" s="10">
         <v>2</v>
       </c>
-      <c r="R30" s="10">
-        <v>0</v>
-      </c>
-      <c r="S30" s="10">
-        <v>0</v>
-      </c>
-      <c r="T30" s="10">
-        <v>0</v>
-      </c>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
+      <c r="R30" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S30" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T30" s="104">
+        <v>150</v>
+      </c>
+      <c r="U30" s="10">
+        <v>0</v>
+      </c>
+      <c r="V30" s="10">
+        <v>0</v>
+      </c>
+      <c r="W30" s="10">
+        <v>0</v>
+      </c>
       <c r="X30" s="10"/>
-      <c r="Y30" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="10">
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="75">
         <v>0</v>
       </c>
       <c r="AC30" s="10">
@@ -11082,84 +11546,93 @@
       <c r="AD30" s="10">
         <v>0</v>
       </c>
-      <c r="AE30" s="10"/>
-      <c r="AF30" s="75">
+      <c r="AE30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="10">
         <v>0</v>
       </c>
       <c r="AG30" s="10">
         <v>0</v>
       </c>
-      <c r="AH30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="10"/>
-      <c r="AJ30" s="10"/>
-      <c r="AK30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="10">
+        <v>0</v>
+      </c>
       <c r="AL30" s="10"/>
-      <c r="AM30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="10"/>
-      <c r="AQ30" s="10"/>
-      <c r="AR30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="10">
+        <v>0</v>
+      </c>
       <c r="AS30" s="10"/>
-      <c r="AT30" s="75">
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="75">
         <v>50</v>
       </c>
-      <c r="AU30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW30" s="10" t="s">
+      <c r="AX30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX30" s="10" t="str">
+      <c r="BA30" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 50/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY30" s="10"/>
-      <c r="AZ30">
+      <c r="BB30" s="10"/>
+      <c r="BC30">
         <v>6</v>
       </c>
-      <c r="BA30" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB30" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC30" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD30" s="10"/>
-      <c r="BE30" s="10"/>
-      <c r="BF30" s="10"/>
+      <c r="BD30" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="10">
+        <v>0</v>
+      </c>
       <c r="BG30" s="10"/>
-      <c r="BH30" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI30" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ30" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH30" s="10"/>
+      <c r="BI30" s="10"/>
+      <c r="BJ30" s="10"/>
       <c r="BK30" s="10">
         <v>0</v>
       </c>
-      <c r="BL30" s="10"/>
-      <c r="BM30" s="10"/>
-      <c r="BN30" s="10"/>
+      <c r="BL30" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM30" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN30" s="10">
+        <v>0</v>
+      </c>
       <c r="BO30" s="10"/>
+      <c r="BP30" s="10"/>
+      <c r="BQ30" s="10"/>
+      <c r="BR30" s="10"/>
     </row>
-    <row r="31" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F31" s="36">
         <v>6</v>
       </c>
@@ -11188,29 +11661,29 @@
       <c r="Q31" s="10">
         <v>2</v>
       </c>
-      <c r="R31" s="10">
-        <v>0</v>
-      </c>
-      <c r="S31" s="10">
-        <v>0</v>
-      </c>
-      <c r="T31" s="10">
-        <v>0</v>
-      </c>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
+      <c r="R31" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S31" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T31" s="104">
+        <v>150</v>
+      </c>
+      <c r="U31" s="10">
+        <v>0</v>
+      </c>
+      <c r="V31" s="10">
+        <v>0</v>
+      </c>
+      <c r="W31" s="10">
+        <v>0</v>
+      </c>
       <c r="X31" s="10"/>
-      <c r="Y31" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="10">
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="75">
         <v>0</v>
       </c>
       <c r="AC31" s="10">
@@ -11219,84 +11692,93 @@
       <c r="AD31" s="10">
         <v>0</v>
       </c>
-      <c r="AE31" s="10"/>
-      <c r="AF31" s="75">
+      <c r="AE31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="10">
         <v>0</v>
       </c>
       <c r="AG31" s="10">
         <v>0</v>
       </c>
-      <c r="AH31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI31" s="10"/>
-      <c r="AJ31" s="10"/>
-      <c r="AK31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="10">
+        <v>0</v>
+      </c>
       <c r="AL31" s="10"/>
-      <c r="AM31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP31" s="10"/>
-      <c r="AQ31" s="10"/>
-      <c r="AR31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="10">
+        <v>0</v>
+      </c>
       <c r="AS31" s="10"/>
-      <c r="AT31" s="75">
+      <c r="AT31" s="10"/>
+      <c r="AU31" s="10"/>
+      <c r="AV31" s="10"/>
+      <c r="AW31" s="75">
         <v>40</v>
       </c>
-      <c r="AU31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW31" s="10" t="s">
+      <c r="AX31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX31" s="10" t="str">
+      <c r="BA31" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 40/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY31" s="10"/>
-      <c r="AZ31">
+      <c r="BB31" s="10"/>
+      <c r="BC31">
         <v>6</v>
       </c>
-      <c r="BA31" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB31" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC31" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD31" s="10"/>
-      <c r="BE31" s="10"/>
-      <c r="BF31" s="10"/>
+      <c r="BD31" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE31" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="10">
+        <v>0</v>
+      </c>
       <c r="BG31" s="10"/>
-      <c r="BH31" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI31" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ31" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH31" s="10"/>
+      <c r="BI31" s="10"/>
+      <c r="BJ31" s="10"/>
       <c r="BK31" s="10">
         <v>0</v>
       </c>
-      <c r="BL31" s="10"/>
-      <c r="BM31" s="10"/>
-      <c r="BN31" s="10"/>
+      <c r="BL31" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM31" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN31" s="10">
+        <v>0</v>
+      </c>
       <c r="BO31" s="10"/>
+      <c r="BP31" s="10"/>
+      <c r="BQ31" s="10"/>
+      <c r="BR31" s="10"/>
     </row>
-    <row r="32" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F32" s="36">
         <v>4</v>
       </c>
@@ -11325,29 +11807,29 @@
       <c r="Q32" s="10">
         <v>2</v>
       </c>
-      <c r="R32" s="10">
-        <v>0</v>
-      </c>
-      <c r="S32" s="10">
-        <v>0</v>
-      </c>
-      <c r="T32" s="10">
-        <v>0</v>
-      </c>
-      <c r="U32" s="10"/>
-      <c r="V32" s="10"/>
-      <c r="W32" s="10"/>
+      <c r="R32" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S32" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T32" s="104">
+        <v>150</v>
+      </c>
+      <c r="U32" s="10">
+        <v>0</v>
+      </c>
+      <c r="V32" s="10">
+        <v>0</v>
+      </c>
+      <c r="W32" s="10">
+        <v>0</v>
+      </c>
       <c r="X32" s="10"/>
-      <c r="Y32" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="10">
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="75">
         <v>0</v>
       </c>
       <c r="AC32" s="10">
@@ -11356,84 +11838,93 @@
       <c r="AD32" s="10">
         <v>0</v>
       </c>
-      <c r="AE32" s="10"/>
-      <c r="AF32" s="75">
+      <c r="AE32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="10">
         <v>0</v>
       </c>
       <c r="AG32" s="10">
         <v>0</v>
       </c>
-      <c r="AH32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="10"/>
-      <c r="AJ32" s="10"/>
-      <c r="AK32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="10">
+        <v>0</v>
+      </c>
       <c r="AL32" s="10"/>
-      <c r="AM32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="10"/>
-      <c r="AQ32" s="10"/>
-      <c r="AR32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="10">
+        <v>0</v>
+      </c>
       <c r="AS32" s="10"/>
-      <c r="AT32" s="75">
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="10"/>
+      <c r="AV32" s="10"/>
+      <c r="AW32" s="75">
         <v>30</v>
       </c>
-      <c r="AU32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="10" t="s">
+      <c r="AX32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX32" s="10" t="str">
+      <c r="BA32" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 30/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY32" s="10"/>
-      <c r="AZ32">
+      <c r="BB32" s="10"/>
+      <c r="BC32">
         <v>6</v>
       </c>
-      <c r="BA32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD32" s="10"/>
-      <c r="BE32" s="10"/>
-      <c r="BF32" s="10"/>
+      <c r="BD32" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE32" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="10">
+        <v>0</v>
+      </c>
       <c r="BG32" s="10"/>
-      <c r="BH32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ32" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH32" s="10"/>
+      <c r="BI32" s="10"/>
+      <c r="BJ32" s="10"/>
       <c r="BK32" s="10">
         <v>0</v>
       </c>
-      <c r="BL32" s="10"/>
-      <c r="BM32" s="10"/>
-      <c r="BN32" s="10"/>
+      <c r="BL32" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM32" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN32" s="10">
+        <v>0</v>
+      </c>
       <c r="BO32" s="10"/>
+      <c r="BP32" s="10"/>
+      <c r="BQ32" s="10"/>
+      <c r="BR32" s="10"/>
     </row>
-    <row r="33" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F33" s="36">
         <v>2</v>
       </c>
@@ -11462,29 +11953,29 @@
       <c r="Q33" s="10">
         <v>2</v>
       </c>
-      <c r="R33" s="10">
-        <v>0</v>
-      </c>
-      <c r="S33" s="10">
-        <v>0</v>
-      </c>
-      <c r="T33" s="10">
-        <v>0</v>
-      </c>
-      <c r="U33" s="10"/>
-      <c r="V33" s="10"/>
-      <c r="W33" s="10"/>
+      <c r="R33" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S33" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T33" s="104">
+        <v>150</v>
+      </c>
+      <c r="U33" s="10">
+        <v>0</v>
+      </c>
+      <c r="V33" s="10">
+        <v>0</v>
+      </c>
+      <c r="W33" s="10">
+        <v>0</v>
+      </c>
       <c r="X33" s="10"/>
-      <c r="Y33" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB33" s="10">
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="75">
         <v>0</v>
       </c>
       <c r="AC33" s="10">
@@ -11493,84 +11984,93 @@
       <c r="AD33" s="10">
         <v>0</v>
       </c>
-      <c r="AE33" s="10"/>
-      <c r="AF33" s="75">
+      <c r="AE33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="10">
         <v>0</v>
       </c>
       <c r="AG33" s="10">
         <v>0</v>
       </c>
-      <c r="AH33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI33" s="10"/>
-      <c r="AJ33" s="10"/>
-      <c r="AK33" s="10"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="10">
+        <v>0</v>
+      </c>
       <c r="AL33" s="10"/>
-      <c r="AM33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP33" s="10"/>
-      <c r="AQ33" s="10"/>
-      <c r="AR33" s="10"/>
+      <c r="AM33" s="10"/>
+      <c r="AN33" s="10"/>
+      <c r="AO33" s="10"/>
+      <c r="AP33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="10">
+        <v>0</v>
+      </c>
       <c r="AS33" s="10"/>
-      <c r="AT33" s="75">
+      <c r="AT33" s="10"/>
+      <c r="AU33" s="10"/>
+      <c r="AV33" s="10"/>
+      <c r="AW33" s="75">
         <v>25</v>
       </c>
-      <c r="AU33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW33" s="10" t="s">
+      <c r="AX33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX33" s="10" t="str">
+      <c r="BA33" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 25/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY33" s="10"/>
-      <c r="AZ33">
+      <c r="BB33" s="10"/>
+      <c r="BC33">
         <v>6</v>
       </c>
-      <c r="BA33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD33" s="10"/>
-      <c r="BE33" s="10"/>
-      <c r="BF33" s="10"/>
+      <c r="BD33" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE33" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="10">
+        <v>0</v>
+      </c>
       <c r="BG33" s="10"/>
-      <c r="BH33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ33" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH33" s="10"/>
+      <c r="BI33" s="10"/>
+      <c r="BJ33" s="10"/>
       <c r="BK33" s="10">
         <v>0</v>
       </c>
-      <c r="BL33" s="10"/>
-      <c r="BM33" s="10"/>
-      <c r="BN33" s="10"/>
+      <c r="BL33" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM33" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN33" s="10">
+        <v>0</v>
+      </c>
       <c r="BO33" s="10"/>
+      <c r="BP33" s="10"/>
+      <c r="BQ33" s="10"/>
+      <c r="BR33" s="10"/>
     </row>
-    <row r="34" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F34" s="36">
         <v>1.6</v>
       </c>
@@ -11599,29 +12099,29 @@
       <c r="Q34" s="10">
         <v>2</v>
       </c>
-      <c r="R34" s="10">
-        <v>0</v>
-      </c>
-      <c r="S34" s="10">
-        <v>0</v>
-      </c>
-      <c r="T34" s="10">
-        <v>0</v>
-      </c>
-      <c r="U34" s="10"/>
-      <c r="V34" s="10"/>
-      <c r="W34" s="10"/>
+      <c r="R34" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S34" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T34" s="104">
+        <v>150</v>
+      </c>
+      <c r="U34" s="10">
+        <v>0</v>
+      </c>
+      <c r="V34" s="10">
+        <v>0</v>
+      </c>
+      <c r="W34" s="10">
+        <v>0</v>
+      </c>
       <c r="X34" s="10"/>
-      <c r="Y34" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB34" s="10">
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="75">
         <v>0</v>
       </c>
       <c r="AC34" s="10">
@@ -11630,84 +12130,93 @@
       <c r="AD34" s="10">
         <v>0</v>
       </c>
-      <c r="AE34" s="10"/>
-      <c r="AF34" s="75">
+      <c r="AE34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="10">
         <v>0</v>
       </c>
       <c r="AG34" s="10">
         <v>0</v>
       </c>
-      <c r="AH34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI34" s="10"/>
-      <c r="AJ34" s="10"/>
-      <c r="AK34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="10">
+        <v>0</v>
+      </c>
       <c r="AL34" s="10"/>
-      <c r="AM34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="10"/>
-      <c r="AQ34" s="10"/>
-      <c r="AR34" s="10"/>
+      <c r="AM34" s="10"/>
+      <c r="AN34" s="10"/>
+      <c r="AO34" s="10"/>
+      <c r="AP34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="10">
+        <v>0</v>
+      </c>
       <c r="AS34" s="10"/>
-      <c r="AT34" s="75">
+      <c r="AT34" s="10"/>
+      <c r="AU34" s="10"/>
+      <c r="AV34" s="10"/>
+      <c r="AW34" s="75">
         <v>20</v>
       </c>
-      <c r="AU34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW34" s="10" t="s">
+      <c r="AX34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX34" s="10" t="str">
+      <c r="BA34" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 20/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY34" s="10"/>
-      <c r="AZ34">
+      <c r="BB34" s="10"/>
+      <c r="BC34">
         <v>6</v>
       </c>
-      <c r="BA34" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB34" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC34" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD34" s="10"/>
-      <c r="BE34" s="10"/>
-      <c r="BF34" s="10"/>
+      <c r="BD34" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE34" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="10">
+        <v>0</v>
+      </c>
       <c r="BG34" s="10"/>
-      <c r="BH34" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI34" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ34" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH34" s="10"/>
+      <c r="BI34" s="10"/>
+      <c r="BJ34" s="10"/>
       <c r="BK34" s="10">
         <v>0</v>
       </c>
-      <c r="BL34" s="10"/>
-      <c r="BM34" s="10"/>
-      <c r="BN34" s="10"/>
+      <c r="BL34" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM34" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN34" s="10">
+        <v>0</v>
+      </c>
       <c r="BO34" s="10"/>
+      <c r="BP34" s="10"/>
+      <c r="BQ34" s="10"/>
+      <c r="BR34" s="10"/>
     </row>
-    <row r="35" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F35" s="41">
         <v>1</v>
       </c>
@@ -11736,29 +12245,29 @@
       <c r="Q35" s="10">
         <v>2</v>
       </c>
-      <c r="R35" s="10">
-        <v>0</v>
-      </c>
-      <c r="S35" s="10">
-        <v>0</v>
-      </c>
-      <c r="T35" s="10">
-        <v>0</v>
-      </c>
-      <c r="U35" s="10"/>
-      <c r="V35" s="10"/>
-      <c r="W35" s="10"/>
+      <c r="R35" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S35" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T35" s="104">
+        <v>150</v>
+      </c>
+      <c r="U35" s="10">
+        <v>0</v>
+      </c>
+      <c r="V35" s="10">
+        <v>0</v>
+      </c>
+      <c r="W35" s="10">
+        <v>0</v>
+      </c>
       <c r="X35" s="10"/>
-      <c r="Y35" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z35" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB35" s="10">
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="75">
         <v>0</v>
       </c>
       <c r="AC35" s="10">
@@ -11767,84 +12276,93 @@
       <c r="AD35" s="10">
         <v>0</v>
       </c>
-      <c r="AE35" s="10"/>
-      <c r="AF35" s="75">
+      <c r="AE35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="10">
         <v>0</v>
       </c>
       <c r="AG35" s="10">
         <v>0</v>
       </c>
-      <c r="AH35" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI35" s="10"/>
-      <c r="AJ35" s="10"/>
-      <c r="AK35" s="10"/>
+      <c r="AH35" s="10"/>
+      <c r="AI35" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="10">
+        <v>0</v>
+      </c>
       <c r="AL35" s="10"/>
-      <c r="AM35" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN35" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO35" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP35" s="10"/>
-      <c r="AQ35" s="10"/>
-      <c r="AR35" s="10"/>
+      <c r="AM35" s="10"/>
+      <c r="AN35" s="10"/>
+      <c r="AO35" s="10"/>
+      <c r="AP35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="10">
+        <v>0</v>
+      </c>
       <c r="AS35" s="10"/>
-      <c r="AT35" s="75">
+      <c r="AT35" s="10"/>
+      <c r="AU35" s="10"/>
+      <c r="AV35" s="10"/>
+      <c r="AW35" s="75">
         <v>15</v>
       </c>
-      <c r="AU35" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV35" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW35" s="10" t="s">
+      <c r="AX35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX35" s="10" t="str">
+      <c r="BA35" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 15/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY35" s="10"/>
-      <c r="AZ35">
+      <c r="BB35" s="10"/>
+      <c r="BC35">
         <v>6</v>
       </c>
-      <c r="BA35" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB35" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC35" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD35" s="10"/>
-      <c r="BE35" s="10"/>
-      <c r="BF35" s="10"/>
+      <c r="BD35" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE35" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF35" s="10">
+        <v>0</v>
+      </c>
       <c r="BG35" s="10"/>
-      <c r="BH35" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI35" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ35" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH35" s="10"/>
+      <c r="BI35" s="10"/>
+      <c r="BJ35" s="10"/>
       <c r="BK35" s="10">
         <v>0</v>
       </c>
-      <c r="BL35" s="10"/>
-      <c r="BM35" s="10"/>
-      <c r="BN35" s="10"/>
+      <c r="BL35" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM35" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN35" s="10">
+        <v>0</v>
+      </c>
       <c r="BO35" s="10"/>
+      <c r="BP35" s="10"/>
+      <c r="BQ35" s="10"/>
+      <c r="BR35" s="10"/>
     </row>
-    <row r="36" spans="6:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F36" s="42">
         <v>0.4</v>
       </c>
@@ -11873,29 +12391,29 @@
       <c r="Q36" s="10">
         <v>2</v>
       </c>
-      <c r="R36" s="10">
-        <v>0</v>
-      </c>
-      <c r="S36" s="10">
-        <v>0</v>
-      </c>
-      <c r="T36" s="10">
-        <v>0</v>
-      </c>
-      <c r="U36" s="10"/>
-      <c r="V36" s="10"/>
-      <c r="W36" s="10"/>
+      <c r="R36" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S36" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T36" s="104">
+        <v>150</v>
+      </c>
+      <c r="U36" s="10">
+        <v>0</v>
+      </c>
+      <c r="V36" s="10">
+        <v>0</v>
+      </c>
+      <c r="W36" s="10">
+        <v>0</v>
+      </c>
       <c r="X36" s="10"/>
-      <c r="Y36" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB36" s="10">
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="75">
         <v>0</v>
       </c>
       <c r="AC36" s="10">
@@ -11904,84 +12422,93 @@
       <c r="AD36" s="10">
         <v>0</v>
       </c>
-      <c r="AE36" s="10"/>
-      <c r="AF36" s="75">
+      <c r="AE36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="10">
         <v>0</v>
       </c>
       <c r="AG36" s="10">
         <v>0</v>
       </c>
-      <c r="AH36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI36" s="10"/>
-      <c r="AJ36" s="10"/>
-      <c r="AK36" s="10"/>
+      <c r="AH36" s="10"/>
+      <c r="AI36" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="10">
+        <v>0</v>
+      </c>
       <c r="AL36" s="10"/>
-      <c r="AM36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP36" s="10"/>
-      <c r="AQ36" s="10"/>
-      <c r="AR36" s="10"/>
+      <c r="AM36" s="10"/>
+      <c r="AN36" s="10"/>
+      <c r="AO36" s="10"/>
+      <c r="AP36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="10">
+        <v>0</v>
+      </c>
       <c r="AS36" s="10"/>
-      <c r="AT36" s="75">
+      <c r="AT36" s="10"/>
+      <c r="AU36" s="10"/>
+      <c r="AV36" s="10"/>
+      <c r="AW36" s="75">
         <v>10</v>
       </c>
-      <c r="AU36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW36" s="10" t="s">
+      <c r="AX36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX36" s="10" t="str">
+      <c r="BA36" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 10/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY36" s="10"/>
-      <c r="AZ36">
+      <c r="BB36" s="10"/>
+      <c r="BC36">
         <v>6</v>
       </c>
-      <c r="BA36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD36" s="10"/>
-      <c r="BE36" s="10"/>
-      <c r="BF36" s="10"/>
+      <c r="BD36" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE36" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF36" s="10">
+        <v>0</v>
+      </c>
       <c r="BG36" s="10"/>
-      <c r="BH36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ36" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH36" s="10"/>
+      <c r="BI36" s="10"/>
+      <c r="BJ36" s="10"/>
       <c r="BK36" s="10">
         <v>0</v>
       </c>
-      <c r="BL36" s="10"/>
-      <c r="BM36" s="10"/>
-      <c r="BN36" s="10"/>
+      <c r="BL36" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM36" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN36" s="10">
+        <v>0</v>
+      </c>
       <c r="BO36" s="10"/>
+      <c r="BP36" s="10"/>
+      <c r="BQ36" s="10"/>
+      <c r="BR36" s="10"/>
     </row>
-    <row r="37" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:70" x14ac:dyDescent="0.25">
       <c r="K37" s="10">
         <v>0.4</v>
       </c>
@@ -12001,29 +12528,29 @@
       <c r="Q37" s="10">
         <v>2</v>
       </c>
-      <c r="R37" s="10">
-        <v>0</v>
-      </c>
-      <c r="S37" s="10">
-        <v>0</v>
-      </c>
-      <c r="T37" s="10">
-        <v>0</v>
-      </c>
-      <c r="U37" s="10"/>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
+      <c r="R37" s="104" t="s">
+        <v>365</v>
+      </c>
+      <c r="S37" s="104">
+        <v>12.5</v>
+      </c>
+      <c r="T37" s="104">
+        <v>150</v>
+      </c>
+      <c r="U37" s="10">
+        <v>0</v>
+      </c>
+      <c r="V37" s="10">
+        <v>0</v>
+      </c>
+      <c r="W37" s="10">
+        <v>0</v>
+      </c>
       <c r="X37" s="10"/>
-      <c r="Y37" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="10">
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="75">
         <v>0</v>
       </c>
       <c r="AC37" s="10">
@@ -12032,84 +12559,93 @@
       <c r="AD37" s="10">
         <v>0</v>
       </c>
-      <c r="AE37" s="10"/>
-      <c r="AF37" s="75">
+      <c r="AE37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="10">
         <v>0</v>
       </c>
       <c r="AG37" s="10">
         <v>0</v>
       </c>
-      <c r="AH37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="10"/>
-      <c r="AJ37" s="10"/>
-      <c r="AK37" s="10"/>
+      <c r="AH37" s="10"/>
+      <c r="AI37" s="75">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="10">
+        <v>0</v>
+      </c>
       <c r="AL37" s="10"/>
-      <c r="AM37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AO37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP37" s="10"/>
-      <c r="AQ37" s="10"/>
-      <c r="AR37" s="10"/>
+      <c r="AM37" s="10"/>
+      <c r="AN37" s="10"/>
+      <c r="AO37" s="10"/>
+      <c r="AP37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="10">
+        <v>0</v>
+      </c>
       <c r="AS37" s="10"/>
-      <c r="AT37" s="75">
+      <c r="AT37" s="10"/>
+      <c r="AU37" s="10"/>
+      <c r="AV37" s="10"/>
+      <c r="AW37" s="75">
         <v>5</v>
       </c>
-      <c r="AU37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW37" s="10" t="s">
+      <c r="AX37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="AX37" s="10" t="str">
-        <f>"ТТИ-А "&amp;AT37&amp;"/5А 5ВА 0,5S"</f>
+      <c r="BA37" s="10" t="str">
+        <f>"ТТИ-А "&amp;AW37&amp;"/5А 5ВА 0,5S"</f>
         <v>ТТИ-А 5/5А 5ВА 0,5S</v>
       </c>
-      <c r="AY37" s="10"/>
-      <c r="AZ37">
+      <c r="BB37" s="10"/>
+      <c r="BC37">
         <v>6</v>
       </c>
-      <c r="BA37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD37" s="10"/>
-      <c r="BE37" s="10"/>
-      <c r="BF37" s="10"/>
+      <c r="BD37" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE37" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF37" s="10">
+        <v>0</v>
+      </c>
       <c r="BG37" s="10"/>
-      <c r="BH37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ37" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH37" s="10"/>
+      <c r="BI37" s="10"/>
+      <c r="BJ37" s="10"/>
       <c r="BK37" s="10">
         <v>0</v>
       </c>
-      <c r="BL37" s="10"/>
-      <c r="BM37" s="10"/>
-      <c r="BN37" s="10"/>
+      <c r="BL37" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM37" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN37" s="10">
+        <v>0</v>
+      </c>
       <c r="BO37" s="10"/>
+      <c r="BP37" s="10"/>
+      <c r="BQ37" s="10"/>
+      <c r="BR37" s="10"/>
     </row>
-    <row r="38" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:70" x14ac:dyDescent="0.25">
       <c r="K38" s="10">
         <v>0</v>
       </c>
@@ -12131,29 +12667,23 @@
       <c r="Q38" s="10">
         <v>0</v>
       </c>
-      <c r="R38" s="75">
-        <v>0</v>
-      </c>
-      <c r="S38" s="10">
-        <v>0</v>
-      </c>
-      <c r="T38" s="10">
-        <v>0</v>
-      </c>
-      <c r="U38" s="10"/>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="104"/>
+      <c r="U38" s="75">
+        <v>0</v>
+      </c>
+      <c r="V38" s="10">
+        <v>0</v>
+      </c>
+      <c r="W38" s="10">
+        <v>0</v>
+      </c>
       <c r="X38" s="10"/>
-      <c r="Y38" s="75">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="10">
+      <c r="Y38" s="10"/>
+      <c r="Z38" s="10"/>
+      <c r="AA38" s="10"/>
+      <c r="AB38" s="75">
         <v>0</v>
       </c>
       <c r="AC38" s="10">
@@ -12162,85 +12692,94 @@
       <c r="AD38" s="10">
         <v>0</v>
       </c>
-      <c r="AE38" s="10"/>
+      <c r="AE38" s="10">
+        <v>0</v>
+      </c>
       <c r="AF38" s="10">
         <v>0</v>
       </c>
       <c r="AG38" s="10">
         <v>0</v>
       </c>
-      <c r="AH38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AI38" s="10"/>
-      <c r="AJ38" s="10"/>
-      <c r="AK38" s="10"/>
+      <c r="AH38" s="10"/>
+      <c r="AI38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="10">
+        <v>0</v>
+      </c>
       <c r="AL38" s="10"/>
-      <c r="AM38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AN38" s="75">
-        <v>0</v>
-      </c>
-      <c r="AO38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="10"/>
-      <c r="AQ38" s="10"/>
-      <c r="AR38" s="10"/>
+      <c r="AM38" s="10"/>
+      <c r="AN38" s="10"/>
+      <c r="AO38" s="10"/>
+      <c r="AP38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="75">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="10">
+        <v>0</v>
+      </c>
       <c r="AS38" s="10"/>
-      <c r="AT38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AU38" s="75">
-        <v>0</v>
-      </c>
-      <c r="AV38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AW38" s="10"/>
-      <c r="AX38" s="10"/>
-      <c r="AY38" s="10"/>
+      <c r="AT38" s="10"/>
+      <c r="AU38" s="10"/>
+      <c r="AV38" s="10"/>
+      <c r="AW38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="75">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="10">
+        <v>0</v>
+      </c>
       <c r="AZ38" s="10"/>
-      <c r="BA38" s="10">
-        <v>0</v>
-      </c>
-      <c r="BB38" s="75">
-        <v>0</v>
-      </c>
-      <c r="BC38" s="10">
-        <v>0</v>
-      </c>
-      <c r="BD38" s="10"/>
-      <c r="BE38" s="10"/>
-      <c r="BF38" s="10"/>
+      <c r="BA38" s="10"/>
+      <c r="BB38" s="10"/>
+      <c r="BC38" s="10"/>
+      <c r="BD38" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE38" s="75">
+        <v>0</v>
+      </c>
+      <c r="BF38" s="10">
+        <v>0</v>
+      </c>
       <c r="BG38" s="10"/>
-      <c r="BH38" s="10">
-        <v>0</v>
-      </c>
-      <c r="BI38" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ38" s="10">
-        <v>0</v>
-      </c>
+      <c r="BH38" s="10"/>
+      <c r="BI38" s="10"/>
+      <c r="BJ38" s="10"/>
       <c r="BK38" s="10">
         <v>0</v>
       </c>
-      <c r="BL38" s="10"/>
-      <c r="BM38" s="10"/>
-      <c r="BN38" s="10"/>
+      <c r="BL38" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM38" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN38" s="10">
+        <v>0</v>
+      </c>
       <c r="BO38" s="10"/>
+      <c r="BP38" s="10"/>
+      <c r="BQ38" s="10"/>
+      <c r="BR38" s="10"/>
     </row>
-    <row r="41" spans="6:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="6:67" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="105" t="s">
+    <row r="41" spans="6:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="6:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="108" t="s">
         <v>188</v>
       </c>
-      <c r="G42" s="106"/>
-      <c r="H42" s="107"/>
+      <c r="G42" s="109"/>
+      <c r="H42" s="110"/>
     </row>
-    <row r="43" spans="6:67" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:70" ht="31.5" x14ac:dyDescent="0.25">
       <c r="F43" s="45" t="s">
         <v>109</v>
       </c>
@@ -12251,35 +12790,35 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F44" s="36">
         <v>125</v>
       </c>
       <c r="G44" s="37"/>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F45" s="36">
         <v>100</v>
       </c>
       <c r="G45" s="37"/>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F46" s="36">
         <v>63</v>
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F47" s="36">
         <v>40</v>
       </c>
       <c r="G47" s="37"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="6:67" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:70" x14ac:dyDescent="0.25">
       <c r="F48" s="36">
         <v>32</v>
       </c>
@@ -12305,19 +12844,19 @@
         <v>156</v>
       </c>
       <c r="H61">
-        <f>INDEX(BD!$Z$7:$Z$11974,MATCH(BH24,BD!$Z$7:$Z$11974,-1))</f>
+        <f>INDEX(BD!$AC$7:$AC$11974,MATCH(BK24,BD!$AC$7:$AC$11974,-1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H63" t="e">
-        <f>MATCH(G61,K4:BO4,0)</f>
+        <f>MATCH(G61,K4:BR4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G65" t="e">
-        <f>HLOOKUP(G61,K4:BO13,2,FALSE)</f>
+        <f>HLOOKUP(G61,K4:BR13,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12333,120 +12872,120 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F42:H42"/>
-    <mergeCell ref="K3:BO3"/>
+    <mergeCell ref="K3:BR3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="K6:M37 R13:W37 R6:T12 V6:AA6 V7:W12 X7:AA37 BA6:BI37 BL6:BO37 AN6:AX6 AF13:AY37 AF6:AL12 AM8:AM12 AN7:AY12">
+  <conditionalFormatting sqref="K6:M37 U13:Z37 U6:W12 Y6:AD6 Y7:Z12 AA7:AD37 BD6:BL37 BO6:BR37 AQ6:BA6 AI13:BB37 AI6:AO12 AP8:AP12 AQ7:BB12">
     <cfRule type="cellIs" dxfId="125" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:M38 R38:AA38 AF38:AG38">
+  <conditionalFormatting sqref="K38:M38 U38:AD38 AI38:AJ38">
     <cfRule type="cellIs" dxfId="124" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH38:AN38">
+  <conditionalFormatting sqref="AK38:AQ38">
     <cfRule type="cellIs" dxfId="123" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AO38:BI38 BL38:BO38">
+  <conditionalFormatting sqref="AR38:BL38 BO38:BR38">
     <cfRule type="cellIs" dxfId="122" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:Q37">
+  <conditionalFormatting sqref="N6:T37">
     <cfRule type="cellIs" dxfId="121" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N38:Q38">
+  <conditionalFormatting sqref="N38:T38">
     <cfRule type="cellIs" dxfId="120" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB6:AC15">
+  <conditionalFormatting sqref="AE6:AF15">
     <cfRule type="cellIs" dxfId="119" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD38:AE38">
+  <conditionalFormatting sqref="AG38:AH38">
     <cfRule type="cellIs" dxfId="118" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB16:AB37">
+  <conditionalFormatting sqref="AE16:AE37">
     <cfRule type="cellIs" dxfId="117" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB38">
+  <conditionalFormatting sqref="AE38">
     <cfRule type="cellIs" dxfId="116" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC16:AC37">
+  <conditionalFormatting sqref="AF16:AF37">
     <cfRule type="cellIs" dxfId="115" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AC38">
+  <conditionalFormatting sqref="AF38">
     <cfRule type="cellIs" dxfId="114" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD6:AE6 AD7 AE7:AE15">
+  <conditionalFormatting sqref="AG6:AH6 AG7 AH7:AH15">
     <cfRule type="cellIs" dxfId="113" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD8:AD11">
+  <conditionalFormatting sqref="AG8:AG11">
     <cfRule type="cellIs" dxfId="112" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD12:AD14">
+  <conditionalFormatting sqref="AG12:AG14">
     <cfRule type="cellIs" dxfId="111" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD16:AE36 AD15">
+  <conditionalFormatting sqref="AG16:AH36 AG15">
     <cfRule type="cellIs" dxfId="110" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD37:AE37">
+  <conditionalFormatting sqref="AG37:AH37">
     <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ6:BJ37">
+  <conditionalFormatting sqref="BM6:BM37">
     <cfRule type="cellIs" dxfId="108" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ38">
+  <conditionalFormatting sqref="BM38">
     <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK6:BK37">
+  <conditionalFormatting sqref="BN6:BN37">
     <cfRule type="cellIs" dxfId="106" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BK38">
+  <conditionalFormatting sqref="BN38">
     <cfRule type="cellIs" dxfId="105" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U6:U12">
+  <conditionalFormatting sqref="X6:X12">
     <cfRule type="cellIs" dxfId="104" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM6:AM7">
+  <conditionalFormatting sqref="AP6:AP7">
     <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -12468,41 +13007,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="113" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="111"/>
-      <c r="D2" s="111"/>
-      <c r="E2" s="111"/>
-      <c r="F2" s="111"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="111"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
-      <c r="M2" s="111"/>
-      <c r="N2" s="111"/>
-      <c r="O2" s="111"/>
-      <c r="P2" s="111"/>
-      <c r="Q2" s="111"/>
-      <c r="R2" s="111"/>
-      <c r="S2" s="111"/>
-      <c r="T2" s="111"/>
-      <c r="U2" s="111"/>
-      <c r="V2" s="111"/>
-      <c r="W2" s="111"/>
-      <c r="X2" s="111"/>
-      <c r="Y2" s="111"/>
-      <c r="Z2" s="111"/>
-      <c r="AA2" s="111"/>
-      <c r="AB2" s="111"/>
-      <c r="AC2" s="111"/>
-      <c r="AD2" s="111"/>
-      <c r="AE2" s="111"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="111"/>
-      <c r="AH2" s="112"/>
+      <c r="C2" s="114"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="114"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="114"/>
+      <c r="I2" s="114"/>
+      <c r="J2" s="114"/>
+      <c r="K2" s="114"/>
+      <c r="L2" s="114"/>
+      <c r="M2" s="114"/>
+      <c r="N2" s="114"/>
+      <c r="O2" s="114"/>
+      <c r="P2" s="114"/>
+      <c r="Q2" s="114"/>
+      <c r="R2" s="114"/>
+      <c r="S2" s="114"/>
+      <c r="T2" s="114"/>
+      <c r="U2" s="114"/>
+      <c r="V2" s="114"/>
+      <c r="W2" s="114"/>
+      <c r="X2" s="114"/>
+      <c r="Y2" s="114"/>
+      <c r="Z2" s="114"/>
+      <c r="AA2" s="114"/>
+      <c r="AB2" s="114"/>
+      <c r="AC2" s="114"/>
+      <c r="AD2" s="114"/>
+      <c r="AE2" s="114"/>
+      <c r="AF2" s="114"/>
+      <c r="AG2" s="114"/>
+      <c r="AH2" s="115"/>
     </row>
     <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="54" t="s">
@@ -13443,49 +13982,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
-      <c r="F1" s="113"/>
-      <c r="G1" s="113"/>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="113"/>
-      <c r="Q1" s="113"/>
-      <c r="R1" s="113"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="116"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="116"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
       <c r="B2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="114" t="s">
+      <c r="C2" s="117" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="115"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="117"/>
+      <c r="G2" s="117"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="117"/>
+      <c r="P2" s="117"/>
+      <c r="Q2" s="117"/>
+      <c r="R2" s="118"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
@@ -13981,20 +14520,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D1" s="116" t="s">
+      <c r="D1" s="119" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
+      <c r="E1" s="119"/>
+      <c r="F1" s="119"/>
+      <c r="G1" s="119"/>
+      <c r="H1" s="119"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -14068,216 +14607,216 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="8" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E8" s="117" t="s">
+      <c r="E8" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="117"/>
-      <c r="G8" s="117"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="117"/>
-      <c r="J8" s="117"/>
-      <c r="K8" s="117"/>
-      <c r="L8" s="117"/>
-      <c r="M8" s="117"/>
-      <c r="N8" s="117"/>
-      <c r="O8" s="117"/>
-      <c r="P8" s="117"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
+      <c r="N8" s="120"/>
+      <c r="O8" s="120"/>
+      <c r="P8" s="120"/>
     </row>
     <row r="9" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="117"/>
-      <c r="F9" s="117"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="117"/>
-      <c r="I9" s="117"/>
-      <c r="J9" s="117"/>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="117"/>
-      <c r="N9" s="117"/>
-      <c r="O9" s="117"/>
-      <c r="P9" s="117"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="120"/>
+      <c r="P9" s="120"/>
     </row>
     <row r="10" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="117"/>
-      <c r="K10" s="117"/>
-      <c r="L10" s="117"/>
-      <c r="M10" s="117"/>
-      <c r="N10" s="117"/>
-      <c r="O10" s="117"/>
-      <c r="P10" s="117"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="120"/>
+      <c r="G10" s="120"/>
+      <c r="H10" s="120"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="120"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="117"/>
-      <c r="N11" s="117"/>
-      <c r="O11" s="117"/>
-      <c r="P11" s="117"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="120"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="120"/>
+      <c r="O11" s="120"/>
+      <c r="P11" s="120"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="117"/>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117"/>
-      <c r="K12" s="117"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="117"/>
-      <c r="N12" s="117"/>
-      <c r="O12" s="117"/>
-      <c r="P12" s="117"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="120"/>
+      <c r="H12" s="120"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="120"/>
+      <c r="K12" s="120"/>
+      <c r="L12" s="120"/>
+      <c r="M12" s="120"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="120"/>
+      <c r="P12" s="120"/>
     </row>
     <row r="13" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E13" s="117"/>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="117"/>
+      <c r="E13" s="120"/>
+      <c r="F13" s="120"/>
+      <c r="G13" s="120"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="120"/>
+      <c r="K13" s="120"/>
+      <c r="L13" s="120"/>
+      <c r="M13" s="120"/>
+      <c r="N13" s="120"/>
+      <c r="O13" s="120"/>
+      <c r="P13" s="120"/>
     </row>
     <row r="14" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E14" s="117"/>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="117"/>
-      <c r="M14" s="117"/>
-      <c r="N14" s="117"/>
-      <c r="O14" s="117"/>
-      <c r="P14" s="117"/>
+      <c r="E14" s="120"/>
+      <c r="F14" s="120"/>
+      <c r="G14" s="120"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="120"/>
+      <c r="K14" s="120"/>
+      <c r="L14" s="120"/>
+      <c r="M14" s="120"/>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120"/>
+      <c r="P14" s="120"/>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117"/>
-      <c r="K15" s="117"/>
-      <c r="L15" s="117"/>
-      <c r="M15" s="117"/>
-      <c r="N15" s="117"/>
-      <c r="O15" s="117"/>
-      <c r="P15" s="117"/>
+      <c r="E15" s="120"/>
+      <c r="F15" s="120"/>
+      <c r="G15" s="120"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="120"/>
+      <c r="K15" s="120"/>
+      <c r="L15" s="120"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="120"/>
+      <c r="O15" s="120"/>
+      <c r="P15" s="120"/>
     </row>
     <row r="16" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117"/>
-      <c r="K16" s="117"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="117"/>
-      <c r="N16" s="117"/>
-      <c r="O16" s="117"/>
-      <c r="P16" s="117"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="120"/>
+      <c r="G16" s="120"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="120"/>
+      <c r="K16" s="120"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="120"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="120"/>
+      <c r="P16" s="120"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="117"/>
-      <c r="L17" s="117"/>
-      <c r="M17" s="117"/>
-      <c r="N17" s="117"/>
-      <c r="O17" s="117"/>
-      <c r="P17" s="117"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="120"/>
+      <c r="K17" s="120"/>
+      <c r="L17" s="120"/>
+      <c r="M17" s="120"/>
+      <c r="N17" s="120"/>
+      <c r="O17" s="120"/>
+      <c r="P17" s="120"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="117"/>
-      <c r="K18" s="117"/>
-      <c r="L18" s="117"/>
-      <c r="M18" s="117"/>
-      <c r="N18" s="117"/>
-      <c r="O18" s="117"/>
-      <c r="P18" s="117"/>
+      <c r="E18" s="120"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="120"/>
+      <c r="H18" s="120"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120"/>
+      <c r="K18" s="120"/>
+      <c r="L18" s="120"/>
+      <c r="M18" s="120"/>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120"/>
+      <c r="P18" s="120"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="117"/>
-      <c r="K19" s="117"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="117"/>
-      <c r="N19" s="117"/>
-      <c r="O19" s="117"/>
-      <c r="P19" s="117"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="120"/>
+      <c r="G19" s="120"/>
+      <c r="H19" s="120"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="120"/>
+      <c r="K19" s="120"/>
+      <c r="L19" s="120"/>
+      <c r="M19" s="120"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="120"/>
+      <c r="P19" s="120"/>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E20" s="117"/>
-      <c r="F20" s="117"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="117"/>
-      <c r="I20" s="117"/>
-      <c r="J20" s="117"/>
-      <c r="K20" s="117"/>
-      <c r="L20" s="117"/>
-      <c r="M20" s="117"/>
-      <c r="N20" s="117"/>
-      <c r="O20" s="117"/>
-      <c r="P20" s="117"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="120"/>
+      <c r="H20" s="120"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="120"/>
+      <c r="K20" s="120"/>
+      <c r="L20" s="120"/>
+      <c r="M20" s="120"/>
+      <c r="N20" s="120"/>
+      <c r="O20" s="120"/>
+      <c r="P20" s="120"/>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="117"/>
-      <c r="F21" s="117"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="117"/>
-      <c r="I21" s="117"/>
-      <c r="J21" s="117"/>
-      <c r="K21" s="117"/>
-      <c r="L21" s="117"/>
-      <c r="M21" s="117"/>
-      <c r="N21" s="117"/>
-      <c r="O21" s="117"/>
-      <c r="P21" s="117"/>
+      <c r="E21" s="120"/>
+      <c r="F21" s="120"/>
+      <c r="G21" s="120"/>
+      <c r="H21" s="120"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="120"/>
+      <c r="K21" s="120"/>
+      <c r="L21" s="120"/>
+      <c r="M21" s="120"/>
+      <c r="N21" s="120"/>
+      <c r="O21" s="120"/>
+      <c r="P21" s="120"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="117"/>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117"/>
-      <c r="I22" s="117"/>
-      <c r="J22" s="117"/>
-      <c r="K22" s="117"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="117"/>
-      <c r="N22" s="117"/>
-      <c r="O22" s="117"/>
-      <c r="P22" s="117"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="120"/>
+      <c r="G22" s="120"/>
+      <c r="H22" s="120"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120"/>
+      <c r="L22" s="120"/>
+      <c r="M22" s="120"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="120"/>
+      <c r="P22" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO2.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE28AC63-1F49-4D87-AC43-000A0B89922A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49107703-AFE7-4B3B-BD36-37D69F8828F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24225" yWindow="1140" windowWidth="17355" windowHeight="14670" firstSheet="8" activeTab="11" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="14880" yWindow="5460" windowWidth="28005" windowHeight="14670" firstSheet="2" activeTab="3" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;workbook&gt;SET" sheetId="7" r:id="rId1"/>
@@ -789,7 +789,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="776" uniqueCount="380">
   <si>
     <t>&lt;zlight&gt;DEVEXPORT</t>
   </si>
@@ -1908,6 +1908,36 @@
   </si>
   <si>
     <t>АВMOVEY</t>
+  </si>
+  <si>
+    <t>АВТОМАТ 2-й</t>
+  </si>
+  <si>
+    <t>VSCHEMAUGOtext</t>
+  </si>
+  <si>
+    <t>АВДТUGO</t>
+  </si>
+  <si>
+    <t>АВДТMOVEX</t>
+  </si>
+  <si>
+    <t>АВДТMOVEY</t>
+  </si>
+  <si>
+    <t>DEVICE_VSCHEMES_QFD</t>
+  </si>
+  <si>
+    <t>ВНUGO</t>
+  </si>
+  <si>
+    <t>ВНMOVEX</t>
+  </si>
+  <si>
+    <t>ВНMOVEY</t>
+  </si>
+  <si>
+    <t>DEVICE_VSCHEMES_QS</t>
   </si>
 </sst>
 </file>
@@ -2824,7 +2854,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3138,6 +3168,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3186,37 +3219,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3240,53 +3286,37 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="37" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="47" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="51" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="49" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="52" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3320,13 +3350,26 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 4" xfId="2" xr:uid="{48E5EE6E-1ABC-45BC-BBF9-DFA8FA4F7CCC}"/>
     <cellStyle name="Обычный_расчет нагрузки" xfId="1" xr:uid="{2A78680A-EF87-4AAC-8D9D-BEC6B0A95A74}"/>
   </cellStyles>
-  <dxfs count="126">
+  <dxfs count="128">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4284,6 +4327,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4887,10 +4940,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8C22C-893A-456C-B6B4-5CEC07C317DD}">
-  <dimension ref="C1:DY24"/>
+  <dimension ref="C1:EJ24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="DI1" workbookViewId="0">
-      <selection activeCell="DS20" sqref="DS20"/>
+    <sheetView topLeftCell="DI1" workbookViewId="0">
+      <selection activeCell="EI25" sqref="EI25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4952,33 +5005,33 @@
       </c>
     </row>
     <row r="4" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D4" s="141" t="s">
+      <c r="D4" s="132" t="s">
         <v>285</v>
       </c>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="141"/>
-      <c r="H4" s="141"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="132"/>
+      <c r="G4" s="132"/>
+      <c r="H4" s="132"/>
       <c r="I4" s="84" t="s">
         <v>286</v>
       </c>
       <c r="O4" s="84"/>
-      <c r="P4" s="141" t="s">
+      <c r="P4" s="132" t="s">
         <v>287</v>
       </c>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="141"/>
-      <c r="S4" s="141"/>
-      <c r="T4" s="141"/>
-      <c r="U4" s="141"/>
+      <c r="Q4" s="132"/>
+      <c r="R4" s="132"/>
+      <c r="S4" s="132"/>
+      <c r="T4" s="132"/>
+      <c r="U4" s="132"/>
     </row>
     <row r="5" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="124" t="s">
         <v>288</v>
       </c>
-      <c r="E5" s="135"/>
-      <c r="F5" s="135"/>
-      <c r="G5" s="135"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
+      <c r="G5" s="124"/>
       <c r="H5" s="78" t="str">
         <f>'&lt;zlight&gt;'!F18</f>
         <v>NMO_Name</v>
@@ -4989,25 +5042,25 @@
       <c r="O5" s="82" t="s">
         <v>290</v>
       </c>
-      <c r="P5" s="136" t="s">
+      <c r="P5" s="133" t="s">
         <v>291</v>
       </c>
-      <c r="Q5" s="136"/>
-      <c r="R5" s="136"/>
-      <c r="S5" s="136"/>
-      <c r="T5" s="136" t="e">
+      <c r="Q5" s="133"/>
+      <c r="R5" s="133"/>
+      <c r="S5" s="133"/>
+      <c r="T5" s="133" t="e">
         <f ca="1">SUM($AC$24:$AC$12000)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U5" s="136"/>
+      <c r="U5" s="133"/>
     </row>
     <row r="6" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D6" s="135" t="s">
+      <c r="D6" s="124" t="s">
         <v>292</v>
       </c>
-      <c r="E6" s="135"/>
-      <c r="F6" s="135"/>
-      <c r="G6" s="135"/>
+      <c r="E6" s="124"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
       <c r="H6" s="79" t="s">
         <v>293</v>
       </c>
@@ -5017,25 +5070,25 @@
       <c r="O6" s="82">
         <v>63</v>
       </c>
-      <c r="P6" s="136" t="s">
+      <c r="P6" s="133" t="s">
         <v>295</v>
       </c>
-      <c r="Q6" s="136"/>
-      <c r="R6" s="136"/>
-      <c r="S6" s="136"/>
-      <c r="T6" s="136" t="e">
+      <c r="Q6" s="133"/>
+      <c r="R6" s="133"/>
+      <c r="S6" s="133"/>
+      <c r="T6" s="133" t="e">
         <f ca="1">T5*T11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U6" s="136"/>
+      <c r="U6" s="133"/>
     </row>
     <row r="7" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D7" s="135" t="s">
+      <c r="D7" s="124" t="s">
         <v>296</v>
       </c>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
+      <c r="E7" s="124"/>
+      <c r="F7" s="124"/>
+      <c r="G7" s="124"/>
       <c r="H7" s="79">
         <v>45399</v>
       </c>
@@ -5045,25 +5098,25 @@
       <c r="O7" s="82">
         <v>32</v>
       </c>
-      <c r="P7" s="136" t="s">
+      <c r="P7" s="133" t="s">
         <v>298</v>
       </c>
-      <c r="Q7" s="136"/>
-      <c r="R7" s="136"/>
-      <c r="S7" s="136"/>
-      <c r="T7" s="136" t="e">
+      <c r="Q7" s="133"/>
+      <c r="R7" s="133"/>
+      <c r="S7" s="133"/>
+      <c r="T7" s="133" t="e">
         <f ca="1">SUM($AE$24:$AE$12000)*T11</f>
         <v>#VALUE!</v>
       </c>
-      <c r="U7" s="136"/>
+      <c r="U7" s="133"/>
     </row>
     <row r="8" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="124" t="s">
         <v>299</v>
       </c>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
+      <c r="E8" s="124"/>
+      <c r="F8" s="124"/>
+      <c r="G8" s="124"/>
       <c r="H8" s="79" t="s">
         <v>300</v>
       </c>
@@ -5073,24 +5126,24 @@
       <c r="O8" s="82">
         <v>6</v>
       </c>
-      <c r="P8" s="138" t="s">
+      <c r="P8" s="134" t="s">
         <v>321</v>
       </c>
-      <c r="Q8" s="139"/>
-      <c r="R8" s="139"/>
-      <c r="S8" s="140"/>
-      <c r="T8" s="137">
+      <c r="Q8" s="135"/>
+      <c r="R8" s="135"/>
+      <c r="S8" s="136"/>
+      <c r="T8" s="128">
         <v>0.92</v>
       </c>
-      <c r="U8" s="137"/>
+      <c r="U8" s="128"/>
     </row>
     <row r="9" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D9" s="135" t="s">
+      <c r="D9" s="124" t="s">
         <v>303</v>
       </c>
-      <c r="E9" s="135"/>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
+      <c r="E9" s="124"/>
+      <c r="F9" s="124"/>
+      <c r="G9" s="124"/>
       <c r="H9" s="79" t="s">
         <v>304</v>
       </c>
@@ -5100,42 +5153,42 @@
       <c r="O9" s="82" t="s">
         <v>306</v>
       </c>
-      <c r="P9" s="142" t="s">
+      <c r="P9" s="127" t="s">
         <v>302</v>
       </c>
-      <c r="Q9" s="142"/>
-      <c r="R9" s="142"/>
-      <c r="S9" s="142"/>
-      <c r="T9" s="137"/>
-      <c r="U9" s="137"/>
+      <c r="Q9" s="127"/>
+      <c r="R9" s="127"/>
+      <c r="S9" s="127"/>
+      <c r="T9" s="128"/>
+      <c r="U9" s="128"/>
     </row>
     <row r="10" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D10" s="135" t="s">
+      <c r="D10" s="124" t="s">
         <v>307</v>
       </c>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
-      <c r="G10" s="135"/>
+      <c r="E10" s="124"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="124"/>
       <c r="I10" s="82" t="s">
         <v>308</v>
       </c>
       <c r="O10" s="82">
         <v>4</v>
       </c>
-      <c r="P10" s="142"/>
-      <c r="Q10" s="142"/>
-      <c r="R10" s="142"/>
-      <c r="S10" s="142"/>
-      <c r="T10" s="137"/>
-      <c r="U10" s="137"/>
+      <c r="P10" s="127"/>
+      <c r="Q10" s="127"/>
+      <c r="R10" s="127"/>
+      <c r="S10" s="127"/>
+      <c r="T10" s="128"/>
+      <c r="U10" s="128"/>
     </row>
     <row r="11" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D11" s="135" t="s">
+      <c r="D11" s="124" t="s">
         <v>323</v>
       </c>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
-      <c r="G11" s="135"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
       <c r="H11" s="79">
         <v>380</v>
       </c>
@@ -5145,24 +5198,24 @@
       <c r="O11" s="82" t="s">
         <v>311</v>
       </c>
-      <c r="P11" s="144" t="s">
+      <c r="P11" s="129" t="s">
         <v>312</v>
       </c>
-      <c r="Q11" s="145"/>
-      <c r="R11" s="145"/>
-      <c r="S11" s="146"/>
-      <c r="T11" s="144">
+      <c r="Q11" s="130"/>
+      <c r="R11" s="130"/>
+      <c r="S11" s="131"/>
+      <c r="T11" s="129">
         <v>0.65</v>
       </c>
-      <c r="U11" s="146"/>
+      <c r="U11" s="131"/>
     </row>
     <row r="12" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D12" s="135" t="s">
+      <c r="D12" s="124" t="s">
         <v>309</v>
       </c>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="135"/>
+      <c r="E12" s="124"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="124"/>
       <c r="H12" s="79" t="s">
         <v>322</v>
       </c>
@@ -5172,90 +5225,90 @@
       <c r="O12" s="82" t="s">
         <v>315</v>
       </c>
-      <c r="P12" s="143" t="s">
+      <c r="P12" s="125" t="s">
         <v>316</v>
       </c>
-      <c r="Q12" s="143"/>
-      <c r="R12" s="143"/>
-      <c r="S12" s="143"/>
-      <c r="T12" s="143">
+      <c r="Q12" s="125"/>
+      <c r="R12" s="125"/>
+      <c r="S12" s="125"/>
+      <c r="T12" s="125">
         <v>44.5</v>
       </c>
-      <c r="U12" s="143"/>
+      <c r="U12" s="125"/>
     </row>
     <row r="13" spans="4:31" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="135" t="s">
+      <c r="D13" s="124" t="s">
         <v>313</v>
       </c>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
+      <c r="E13" s="124"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="124"/>
       <c r="H13" s="79" t="s">
         <v>314</v>
       </c>
       <c r="I13" s="83"/>
       <c r="O13" s="83"/>
-      <c r="P13" s="143" t="s">
+      <c r="P13" s="125" t="s">
         <v>318</v>
       </c>
-      <c r="Q13" s="143"/>
-      <c r="R13" s="143"/>
-      <c r="S13" s="143"/>
-      <c r="T13" s="143">
+      <c r="Q13" s="125"/>
+      <c r="R13" s="125"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="125">
         <v>44.5</v>
       </c>
-      <c r="U13" s="143"/>
+      <c r="U13" s="125"/>
       <c r="AC13" s="52"/>
       <c r="AD13" s="52"/>
       <c r="AE13" s="52"/>
     </row>
     <row r="14" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D14" s="135" t="s">
+      <c r="D14" s="124" t="s">
         <v>317</v>
       </c>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="135"/>
+      <c r="E14" s="124"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="124"/>
       <c r="H14" s="80" t="str">
         <f>'&lt;zlight&gt;'!G18&amp;"."&amp;'&lt;zlight&gt;'!H18</f>
         <v>GC_HeadDevice.GC_HDGroup</v>
       </c>
       <c r="I14" s="83"/>
       <c r="O14" s="83"/>
-      <c r="P14" s="143" t="s">
+      <c r="P14" s="125" t="s">
         <v>320</v>
       </c>
-      <c r="Q14" s="143"/>
-      <c r="R14" s="143"/>
-      <c r="S14" s="143"/>
-      <c r="T14" s="143">
+      <c r="Q14" s="125"/>
+      <c r="R14" s="125"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="125">
         <v>44.5</v>
       </c>
-      <c r="U14" s="143"/>
+      <c r="U14" s="125"/>
     </row>
     <row r="15" spans="4:31" x14ac:dyDescent="0.25">
-      <c r="D15" s="135" t="s">
+      <c r="D15" s="124" t="s">
         <v>319</v>
       </c>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="135"/>
+      <c r="E15" s="124"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="124"/>
       <c r="H15" s="79">
         <v>77</v>
       </c>
       <c r="O15" s="102"/>
-      <c r="P15" s="150" t="s">
+      <c r="P15" s="126" t="s">
         <v>358</v>
       </c>
-      <c r="Q15" s="150"/>
-      <c r="R15" s="150"/>
-      <c r="S15" s="150"/>
-      <c r="T15" s="150" t="e">
+      <c r="Q15" s="126"/>
+      <c r="R15" s="126"/>
+      <c r="S15" s="126"/>
+      <c r="T15" s="126" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="U15" s="150"/>
+      <c r="U15" s="126"/>
     </row>
-    <row r="18" spans="3:129" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:140" x14ac:dyDescent="0.25">
       <c r="D18" s="1" t="s">
         <v>99</v>
       </c>
@@ -5277,7 +5330,7 @@
       <c r="BM18" s="1"/>
       <c r="BP18" s="1"/>
     </row>
-    <row r="20" spans="3:129" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:140" x14ac:dyDescent="0.25">
       <c r="CE20" s="77" t="s">
         <v>273</v>
       </c>
@@ -5294,7 +5347,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="3:129" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:140" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BM21" s="11"/>
       <c r="BN21" s="11"/>
       <c r="BO21" s="96"/>
@@ -5305,8 +5358,8 @@
       <c r="BT21" s="11"/>
       <c r="BU21" s="79"/>
       <c r="BV21" s="79"/>
-      <c r="BW21" s="148"/>
-      <c r="BX21" s="149"/>
+      <c r="BW21" s="122"/>
+      <c r="BX21" s="123"/>
       <c r="BY21" s="99"/>
       <c r="BZ21" s="99"/>
       <c r="CA21" s="99"/>
@@ -5334,58 +5387,58 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="3:129" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="129" t="s">
+    <row r="22" spans="3:140" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="137" t="s">
         <v>112</v>
       </c>
-      <c r="E22" s="133" t="s">
+      <c r="E22" s="141" t="s">
         <v>190</v>
       </c>
-      <c r="F22" s="124" t="s">
+      <c r="F22" s="143" t="s">
         <v>191</v>
       </c>
-      <c r="G22" s="133" t="s">
+      <c r="G22" s="141" t="s">
         <v>192</v>
       </c>
-      <c r="H22" s="124" t="s">
+      <c r="H22" s="143" t="s">
         <v>193</v>
       </c>
-      <c r="I22" s="124" t="s">
+      <c r="I22" s="143" t="s">
         <v>194</v>
       </c>
-      <c r="J22" s="126" t="s">
+      <c r="J22" s="148" t="s">
         <v>329</v>
       </c>
-      <c r="K22" s="126"/>
-      <c r="L22" s="126"/>
-      <c r="M22" s="127" t="s">
+      <c r="K22" s="148"/>
+      <c r="L22" s="148"/>
+      <c r="M22" s="149" t="s">
         <v>334</v>
       </c>
-      <c r="O22" s="131" t="s">
+      <c r="O22" s="139" t="s">
         <v>127</v>
       </c>
-      <c r="P22" s="132"/>
-      <c r="Q22" s="132"/>
-      <c r="R22" s="132"/>
-      <c r="S22" s="132"/>
-      <c r="T22" s="132"/>
-      <c r="U22" s="132"/>
-      <c r="V22" s="132"/>
-      <c r="W22" s="132"/>
-      <c r="X22" s="132"/>
-      <c r="Y22" s="132"/>
-      <c r="Z22" s="132"/>
-      <c r="AA22" s="121" t="s">
+      <c r="P22" s="140"/>
+      <c r="Q22" s="140"/>
+      <c r="R22" s="140"/>
+      <c r="S22" s="140"/>
+      <c r="T22" s="140"/>
+      <c r="U22" s="140"/>
+      <c r="V22" s="140"/>
+      <c r="W22" s="140"/>
+      <c r="X22" s="140"/>
+      <c r="Y22" s="140"/>
+      <c r="Z22" s="140"/>
+      <c r="AA22" s="145" t="s">
         <v>49</v>
       </c>
-      <c r="AB22" s="122"/>
-      <c r="AC22" s="122"/>
-      <c r="AD22" s="122"/>
-      <c r="AE22" s="122"/>
-      <c r="AF22" s="122"/>
-      <c r="AG22" s="122"/>
-      <c r="AH22" s="122"/>
-      <c r="AI22" s="123"/>
+      <c r="AB22" s="146"/>
+      <c r="AC22" s="146"/>
+      <c r="AD22" s="146"/>
+      <c r="AE22" s="146"/>
+      <c r="AF22" s="146"/>
+      <c r="AG22" s="146"/>
+      <c r="AH22" s="146"/>
+      <c r="AI22" s="147"/>
       <c r="AJ22" s="153" t="s">
         <v>133</v>
       </c>
@@ -5402,16 +5455,16 @@
       <c r="AU22" s="154"/>
       <c r="AV22" s="154"/>
       <c r="AW22" s="155"/>
-      <c r="AX22" s="121" t="s">
+      <c r="AX22" s="145" t="s">
         <v>222</v>
       </c>
-      <c r="AY22" s="122"/>
-      <c r="AZ22" s="122"/>
-      <c r="BA22" s="122"/>
-      <c r="BB22" s="122"/>
-      <c r="BC22" s="122"/>
-      <c r="BD22" s="122"/>
-      <c r="BE22" s="123"/>
+      <c r="AY22" s="146"/>
+      <c r="AZ22" s="146"/>
+      <c r="BA22" s="146"/>
+      <c r="BB22" s="146"/>
+      <c r="BC22" s="146"/>
+      <c r="BD22" s="146"/>
+      <c r="BE22" s="147"/>
       <c r="BF22" s="156" t="s">
         <v>230</v>
       </c>
@@ -5511,13 +5564,13 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="3:129" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="130"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="125"/>
+    <row r="23" spans="3:140" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="138"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="144"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="144"/>
+      <c r="I23" s="144"/>
       <c r="J23" s="85" t="s">
         <v>330</v>
       </c>
@@ -5527,7 +5580,7 @@
       <c r="L23" s="85" t="s">
         <v>332</v>
       </c>
-      <c r="M23" s="128"/>
+      <c r="M23" s="150"/>
       <c r="O23" s="56" t="s">
         <v>125</v>
       </c>
@@ -5698,17 +5751,30 @@
       <c r="CF23" s="1">
         <v>35</v>
       </c>
-      <c r="DS23" s="147" t="s">
+      <c r="DS23" s="159" t="s">
         <v>366</v>
       </c>
-      <c r="DT23" s="147"/>
-      <c r="DU23" s="147"/>
-      <c r="DV23" s="147"/>
-      <c r="DW23" s="147"/>
-      <c r="DX23" s="147"/>
-      <c r="DY23" s="147"/>
+      <c r="DT23" s="159"/>
+      <c r="DU23" s="159"/>
+      <c r="DV23" s="159"/>
+      <c r="DW23" s="159"/>
+      <c r="DX23" s="159"/>
+      <c r="DY23" s="159"/>
+      <c r="DZ23" s="159"/>
+      <c r="EA23" s="159"/>
+      <c r="EB23" s="159" t="s">
+        <v>370</v>
+      </c>
+      <c r="EC23" s="159"/>
+      <c r="ED23" s="159"/>
+      <c r="EE23" s="159"/>
+      <c r="EF23" s="159"/>
+      <c r="EG23" s="159"/>
+      <c r="EH23" s="159"/>
+      <c r="EI23" s="159"/>
+      <c r="EJ23" s="159"/>
     </row>
-    <row r="24" spans="3:129" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:140" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>283</v>
       </c>
@@ -5886,7 +5952,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="AY24" s="67" t="e">
-        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(E24&amp;"I",BD!$K$4:$BS$4,0))),MATCH(AH24*IF(F24="",AE24,AX24),INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(E24&amp;"I",BD!$K$4:$BS$4,0))),-1)))</f>
+        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),MATCH(AH24*IF(F24="",AE24,AX24),INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),-1)))</f>
         <v>#VALUE!</v>
       </c>
       <c r="AZ24" s="68" t="str">
@@ -5902,11 +5968,11 @@
         <v>30</v>
       </c>
       <c r="BC24" s="72" t="e">
-        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(E24&amp;"О",BD!$K$4:$BS$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(E24&amp;"I",BD!$K$4:$BS$4,0))),0))&amp;D24)</f>
+        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"О",BD!$K$4:$BY$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0))&amp;D24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="BD24" s="71" t="e">
-        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(E24&amp;"М",BD!$K$4:$BS$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BR$5,1,MATCH(E24&amp;"I",BD!$K$4:$BS$4,0))),0)))</f>
+        <f ca="1">IF(E24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"М",BD!$K$4:$BY$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
         <v>#VALUE!</v>
       </c>
       <c r="BE24" t="e">
@@ -5914,7 +5980,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="BF24" s="67" t="e">
-        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BU$5,1,MATCH(G24&amp;"I",BD!$K$4:$BV$4,0))),MATCH(AH24*AE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BU$5,1,MATCH(G24&amp;"I",BD!$K$4:$BV$4,0))),-1)))</f>
+        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),MATCH(AH24*AE24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),-1)))</f>
         <v>#VALUE!</v>
       </c>
       <c r="BG24" s="68" t="str">
@@ -5930,11 +5996,11 @@
         <v>30</v>
       </c>
       <c r="BJ24" s="72" t="e">
-        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BU$5,1,MATCH(G24&amp;"О",BD!$K$4:$BV$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BU$5,1,MATCH(G24&amp;"I",BD!$K$4:$BV$4,0))),0))&amp;D24)</f>
+        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"О",BD!$K$4:$CB$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0))&amp;D24)</f>
         <v>#VALUE!</v>
       </c>
       <c r="BK24" s="71" t="e">
-        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BU$5,1,MATCH(G24&amp;"М",BD!$K$4:$BV$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BU$5,1,MATCH(G24&amp;"I",BD!$K$4:$BV$4,0))),0)))</f>
+        <f ca="1">IF(G24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"М",BD!$K$4:$CB$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
         <v>#VALUE!</v>
       </c>
       <c r="BL24" t="e">
@@ -6149,17 +6215,21 @@
       <c r="DR24" t="s">
         <v>59</v>
       </c>
-      <c r="DS24" t="s">
-        <v>60</v>
-      </c>
-      <c r="DT24" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="DU24" s="1">
-        <v>0</v>
-      </c>
-      <c r="DV24" s="1">
-        <v>0</v>
+      <c r="DS24" t="e">
+        <f ca="1">IF(H24&lt;&gt;"","&lt;zinsertblock&gt;","")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DT24" s="1" t="e">
+        <f ca="1">IF(DS24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"UGO",BD!$K$4:$BY$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DU24" s="1" t="e">
+        <f ca="1">IF(DS24="","",CF24+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"MOVEX",BD!$K$4:$BY$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="DV24" s="1" t="e">
+        <f ca="1">IF(DS24="","",CG24+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"MOVEY",BD!$K$4:$BY$4,0))),MATCH(AY24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$BX$5,1,MATCH(E24&amp;"I",BD!$K$4:$BY$4,0))),0)))</f>
+        <v>#VALUE!</v>
       </c>
       <c r="DW24" s="1">
         <v>1</v>
@@ -6167,13 +6237,92 @@
       <c r="DX24" s="1">
         <v>1</v>
       </c>
-      <c r="DY24" t="s">
-        <v>59</v>
+      <c r="DY24" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="DZ24" s="1" t="e">
+        <f ca="1">BC24&amp;"\P"&amp;BD24&amp;"\P"&amp;BE24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EA24" t="e">
+        <f ca="1">IF(DS24="","","&lt;/zinsertblock&gt;")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EB24" t="e">
+        <f ca="1">IF(I24&lt;&gt;"","&lt;zinsertblock&gt;","")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EC24" s="1" t="e">
+        <f ca="1">IF(EB24="","",INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"UGO",BD!$K$4:$CB$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="ED24" s="1" t="e">
+        <f ca="1">IF(EB24="","",CF24+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"MOVEX",BD!$K$4:$CB$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EE24" s="1" t="e">
+        <f ca="1">IF(EB24="","",CG24-20+INDEX(INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"MOVEY",BD!$K$4:$CB$4,0))),MATCH(BF24,INDIRECT("BD!"&amp;INDEX(BD!$K$5:$CA$5,1,MATCH(G24&amp;"I",BD!$K$4:$CB$4,0))),0)))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EF24" s="1">
+        <v>1</v>
+      </c>
+      <c r="EG24" s="1">
+        <v>1</v>
+      </c>
+      <c r="EH24" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="EI24" s="1" t="e">
+        <f ca="1">BJ24&amp;"\P"&amp;BK24&amp;"\P"&amp;BL24</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="EJ24" t="e">
+        <f ca="1">IF(EB24="","","&lt;/zinsertblock&gt;")</f>
+        <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="DS23:DY23"/>
+  <mergeCells count="50">
+    <mergeCell ref="DS23:EA23"/>
+    <mergeCell ref="EB23:EJ23"/>
+    <mergeCell ref="AX22:BE22"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="BM22:BX23"/>
+    <mergeCell ref="AA22:AI22"/>
+    <mergeCell ref="AJ22:AW22"/>
+    <mergeCell ref="BF22:BL22"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="O22:Z22"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="P4:U4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="P9:S10"/>
+    <mergeCell ref="T9:U10"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="D10:G10"/>
     <mergeCell ref="BW21:BX21"/>
     <mergeCell ref="D15:G15"/>
     <mergeCell ref="P14:S14"/>
@@ -6185,432 +6334,395 @@
     <mergeCell ref="D13:G13"/>
     <mergeCell ref="P15:S15"/>
     <mergeCell ref="T15:U15"/>
-    <mergeCell ref="BM22:BX23"/>
-    <mergeCell ref="AA22:AI22"/>
-    <mergeCell ref="AJ22:AW22"/>
-    <mergeCell ref="BF22:BL22"/>
-    <mergeCell ref="P9:S10"/>
-    <mergeCell ref="T9:U10"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="D12:G12"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="P4:U4"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="AX22:BE22"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="O22:Z22"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
   </mergeCells>
   <conditionalFormatting sqref="P24">
-    <cfRule type="expression" dxfId="102" priority="332">
+    <cfRule type="expression" dxfId="103" priority="332">
       <formula>NOT(_xlfn.ISFORMULA(P24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24">
-    <cfRule type="expression" dxfId="101" priority="326">
+    <cfRule type="expression" dxfId="102" priority="326">
       <formula>NOT(_xlfn.ISFORMULA(Q24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24">
-    <cfRule type="expression" dxfId="100" priority="325">
+    <cfRule type="expression" dxfId="101" priority="325">
       <formula>NOT(_xlfn.ISFORMULA(R24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24">
-    <cfRule type="expression" dxfId="99" priority="324">
+    <cfRule type="expression" dxfId="100" priority="324">
       <formula>NOT(_xlfn.ISFORMULA(S24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24">
-    <cfRule type="expression" dxfId="98" priority="323">
+    <cfRule type="expression" dxfId="99" priority="323">
       <formula>NOT(_xlfn.ISFORMULA(Y24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP24">
-    <cfRule type="expression" dxfId="97" priority="321">
+    <cfRule type="expression" dxfId="98" priority="321">
       <formula>NOT(_xlfn.ISFORMULA(AP24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS24">
-    <cfRule type="expression" dxfId="96" priority="320">
+    <cfRule type="expression" dxfId="97" priority="320">
       <formula>NOT(_xlfn.ISFORMULA(AS24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV24">
-    <cfRule type="expression" dxfId="95" priority="318">
+    <cfRule type="expression" dxfId="96" priority="318">
       <formula>NOT(_xlfn.ISFORMULA(AV24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24">
-    <cfRule type="expression" dxfId="94" priority="317">
+    <cfRule type="expression" dxfId="95" priority="317">
       <formula>NOT(_xlfn.ISFORMULA(AQ24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="93" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="315" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="316" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:L24">
-    <cfRule type="cellIs" dxfId="91" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="313" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM24">
-    <cfRule type="cellIs" dxfId="89" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="126" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM24">
-    <cfRule type="cellIs" dxfId="88" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="121" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="122" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="123" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="124" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="125" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN24">
-    <cfRule type="cellIs" dxfId="83" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="120" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN24">
-    <cfRule type="cellIs" dxfId="82" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="115" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="116" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="117" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="118" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="119" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO24">
-    <cfRule type="cellIs" dxfId="77" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="114" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO24">
-    <cfRule type="cellIs" dxfId="76" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="109" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="110" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="111" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="112" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="113" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP24">
-    <cfRule type="cellIs" dxfId="71" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="108" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP24">
-    <cfRule type="cellIs" dxfId="70" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="103" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="104" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="105" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="106" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="107" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ24">
-    <cfRule type="cellIs" dxfId="65" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="102" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ24">
-    <cfRule type="cellIs" dxfId="64" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="97" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="98" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="99" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="100" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="101" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR24">
-    <cfRule type="cellIs" dxfId="59" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="96" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR24">
-    <cfRule type="cellIs" dxfId="58" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="91" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="92" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="93" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="94" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="95" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS24">
-    <cfRule type="cellIs" dxfId="53" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="90" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS24">
-    <cfRule type="cellIs" dxfId="52" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="85" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="86" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="87" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="88" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="89" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT24">
-    <cfRule type="cellIs" dxfId="47" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="84" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT24">
-    <cfRule type="cellIs" dxfId="46" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="79" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="80" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="81" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="82" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="83" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV24">
-    <cfRule type="cellIs" dxfId="41" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="72" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV24">
-    <cfRule type="cellIs" dxfId="40" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="67" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="68" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="70" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="71" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW24">
-    <cfRule type="cellIs" dxfId="35" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW24">
-    <cfRule type="cellIs" dxfId="34" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="61" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="63" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="64" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="65" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU24">
-    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU24">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX24">
-    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX24">
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY24">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY24">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ24">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ24">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DA24:DQ24">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DA24:DQ24">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7220,97 +7332,103 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A712ECE2-33D4-468C-AC42-3438B4F27DC9}">
-  <dimension ref="A2:BR67"/>
+  <dimension ref="A2:BX67"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+    <sheetView tabSelected="1" topLeftCell="BA3" workbookViewId="0">
+      <selection activeCell="BI15" sqref="BI15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="35" max="35" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="22.28515625" customWidth="1"/>
-    <col min="60" max="60" width="31.85546875" customWidth="1"/>
+    <col min="41" max="41" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="22.28515625" customWidth="1"/>
+    <col min="66" max="66" width="31.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:70" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="105" t="s">
+    <row r="2" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:76" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="107"/>
-      <c r="F3" s="108" t="s">
+      <c r="B3" s="107"/>
+      <c r="C3" s="108"/>
+      <c r="F3" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="110"/>
-      <c r="K3" s="113" t="s">
+      <c r="G3" s="110"/>
+      <c r="H3" s="111"/>
+      <c r="K3" s="114" t="s">
         <v>195</v>
       </c>
-      <c r="L3" s="114"/>
-      <c r="M3" s="114"/>
-      <c r="N3" s="114"/>
-      <c r="O3" s="114"/>
-      <c r="P3" s="114"/>
-      <c r="Q3" s="114"/>
-      <c r="R3" s="114"/>
-      <c r="S3" s="114"/>
-      <c r="T3" s="114"/>
-      <c r="U3" s="114"/>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="114"/>
-      <c r="Y3" s="114"/>
-      <c r="Z3" s="114"/>
-      <c r="AA3" s="114"/>
-      <c r="AB3" s="114"/>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="114"/>
-      <c r="AE3" s="114"/>
-      <c r="AF3" s="114"/>
-      <c r="AG3" s="114"/>
-      <c r="AH3" s="114"/>
-      <c r="AI3" s="114"/>
-      <c r="AJ3" s="114"/>
-      <c r="AK3" s="114"/>
-      <c r="AL3" s="114"/>
-      <c r="AM3" s="114"/>
-      <c r="AN3" s="114"/>
-      <c r="AO3" s="114"/>
-      <c r="AP3" s="114"/>
-      <c r="AQ3" s="114"/>
-      <c r="AR3" s="114"/>
-      <c r="AS3" s="114"/>
-      <c r="AT3" s="114"/>
-      <c r="AU3" s="114"/>
-      <c r="AV3" s="114"/>
-      <c r="AW3" s="114"/>
-      <c r="AX3" s="114"/>
-      <c r="AY3" s="114"/>
-      <c r="AZ3" s="114"/>
-      <c r="BA3" s="114"/>
-      <c r="BB3" s="114"/>
-      <c r="BC3" s="114"/>
-      <c r="BD3" s="114"/>
-      <c r="BE3" s="114"/>
-      <c r="BF3" s="114"/>
-      <c r="BG3" s="114"/>
-      <c r="BH3" s="114"/>
-      <c r="BI3" s="114"/>
-      <c r="BJ3" s="114"/>
-      <c r="BK3" s="114"/>
-      <c r="BL3" s="114"/>
-      <c r="BM3" s="114"/>
-      <c r="BN3" s="114"/>
-      <c r="BO3" s="114"/>
-      <c r="BP3" s="114"/>
-      <c r="BQ3" s="114"/>
-      <c r="BR3" s="114"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="115"/>
+      <c r="O3" s="115"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115"/>
+      <c r="R3" s="115"/>
+      <c r="S3" s="115"/>
+      <c r="T3" s="115"/>
+      <c r="U3" s="115"/>
+      <c r="V3" s="115"/>
+      <c r="W3" s="115"/>
+      <c r="X3" s="115"/>
+      <c r="Y3" s="115"/>
+      <c r="Z3" s="115"/>
+      <c r="AA3" s="115"/>
+      <c r="AB3" s="115"/>
+      <c r="AC3" s="115"/>
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115"/>
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115"/>
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="115"/>
+      <c r="AJ3" s="115"/>
+      <c r="AK3" s="115"/>
+      <c r="AL3" s="115"/>
+      <c r="AM3" s="115"/>
+      <c r="AN3" s="115"/>
+      <c r="AO3" s="115"/>
+      <c r="AP3" s="115"/>
+      <c r="AQ3" s="115"/>
+      <c r="AR3" s="115"/>
+      <c r="AS3" s="115"/>
+      <c r="AT3" s="115"/>
+      <c r="AU3" s="115"/>
+      <c r="AV3" s="115"/>
+      <c r="AW3" s="115"/>
+      <c r="AX3" s="115"/>
+      <c r="AY3" s="115"/>
+      <c r="AZ3" s="115"/>
+      <c r="BA3" s="115"/>
+      <c r="BB3" s="115"/>
+      <c r="BC3" s="115"/>
+      <c r="BD3" s="115"/>
+      <c r="BE3" s="115"/>
+      <c r="BF3" s="115"/>
+      <c r="BG3" s="115"/>
+      <c r="BH3" s="115"/>
+      <c r="BI3" s="115"/>
+      <c r="BJ3" s="115"/>
+      <c r="BK3" s="115"/>
+      <c r="BL3" s="115"/>
+      <c r="BM3" s="115"/>
+      <c r="BN3" s="115"/>
+      <c r="BO3" s="115"/>
+      <c r="BP3" s="115"/>
+      <c r="BQ3" s="115"/>
+      <c r="BR3" s="115"/>
+      <c r="BS3" s="115"/>
+      <c r="BT3" s="115"/>
+      <c r="BU3" s="115"/>
+      <c r="BV3" s="115"/>
+      <c r="BW3" s="115"/>
+      <c r="BX3" s="115"/>
     </row>
-    <row r="4" spans="1:70" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:76" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>48</v>
       </c>
@@ -7382,134 +7500,152 @@
         <v>266</v>
       </c>
       <c r="AB4" s="53" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC4" s="53" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD4" s="53" t="s">
+        <v>378</v>
+      </c>
+      <c r="AE4" s="53" t="s">
         <v>202</v>
       </c>
-      <c r="AC4" s="53" t="s">
+      <c r="AF4" s="53" t="s">
         <v>203</v>
       </c>
-      <c r="AD4" s="53" t="s">
+      <c r="AG4" s="53" t="s">
         <v>204</v>
       </c>
-      <c r="AE4" s="53" t="s">
+      <c r="AH4" s="53" t="s">
         <v>231</v>
       </c>
-      <c r="AF4" s="53" t="s">
+      <c r="AI4" s="53" t="s">
         <v>232</v>
       </c>
-      <c r="AG4" s="53" t="s">
+      <c r="AJ4" s="53" t="s">
         <v>233</v>
       </c>
-      <c r="AH4" s="53" t="s">
+      <c r="AK4" s="53" t="s">
         <v>267</v>
       </c>
-      <c r="AI4" s="53" t="s">
+      <c r="AL4" s="53" t="s">
+        <v>372</v>
+      </c>
+      <c r="AM4" s="53" t="s">
+        <v>373</v>
+      </c>
+      <c r="AN4" s="53" t="s">
+        <v>374</v>
+      </c>
+      <c r="AO4" s="53" t="s">
         <v>205</v>
       </c>
-      <c r="AJ4" s="53" t="s">
+      <c r="AP4" s="53" t="s">
         <v>206</v>
       </c>
-      <c r="AK4" s="53" t="s">
+      <c r="AQ4" s="53" t="s">
         <v>207</v>
       </c>
-      <c r="AL4" s="53" t="s">
+      <c r="AR4" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="AM4" s="53" t="s">
+      <c r="AS4" s="53" t="s">
         <v>239</v>
       </c>
-      <c r="AN4" s="53" t="s">
+      <c r="AT4" s="53" t="s">
         <v>240</v>
       </c>
-      <c r="AO4" s="53" t="s">
+      <c r="AU4" s="53" t="s">
         <v>268</v>
       </c>
-      <c r="AP4" s="53" t="s">
+      <c r="AV4" s="53" t="s">
         <v>208</v>
       </c>
-      <c r="AQ4" s="53" t="s">
+      <c r="AW4" s="53" t="s">
         <v>209</v>
       </c>
-      <c r="AR4" s="53" t="s">
+      <c r="AX4" s="53" t="s">
         <v>210</v>
       </c>
-      <c r="AS4" s="53" t="s">
+      <c r="AY4" s="53" t="s">
         <v>241</v>
       </c>
-      <c r="AT4" s="53" t="s">
+      <c r="AZ4" s="53" t="s">
         <v>242</v>
       </c>
-      <c r="AU4" s="53" t="s">
+      <c r="BA4" s="53" t="s">
         <v>243</v>
       </c>
-      <c r="AV4" s="53" t="s">
+      <c r="BB4" s="53" t="s">
         <v>269</v>
       </c>
-      <c r="AW4" s="53" t="s">
+      <c r="BC4" s="53" t="s">
         <v>211</v>
       </c>
-      <c r="AX4" s="53" t="s">
+      <c r="BD4" s="53" t="s">
         <v>212</v>
       </c>
-      <c r="AY4" s="53" t="s">
+      <c r="BE4" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="AZ4" s="53" t="s">
+      <c r="BF4" s="53" t="s">
         <v>244</v>
       </c>
-      <c r="BA4" s="53" t="s">
+      <c r="BG4" s="53" t="s">
         <v>245</v>
       </c>
-      <c r="BB4" s="53" t="s">
+      <c r="BH4" s="53" t="s">
         <v>246</v>
       </c>
-      <c r="BC4" s="53" t="s">
+      <c r="BI4" s="53" t="s">
         <v>270</v>
       </c>
-      <c r="BD4" s="53" t="s">
+      <c r="BJ4" s="53" t="s">
         <v>214</v>
       </c>
-      <c r="BE4" s="53" t="s">
+      <c r="BK4" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="BF4" s="53" t="s">
+      <c r="BL4" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="BG4" s="53" t="s">
+      <c r="BM4" s="53" t="s">
         <v>247</v>
       </c>
-      <c r="BH4" s="53" t="s">
+      <c r="BN4" s="53" t="s">
         <v>248</v>
       </c>
-      <c r="BI4" s="53" t="s">
+      <c r="BO4" s="53" t="s">
         <v>249</v>
       </c>
-      <c r="BJ4" s="53" t="s">
+      <c r="BP4" s="53" t="s">
         <v>271</v>
       </c>
-      <c r="BK4" s="53" t="s">
+      <c r="BQ4" s="53" t="s">
         <v>217</v>
       </c>
-      <c r="BL4" s="53" t="s">
+      <c r="BR4" s="53" t="s">
         <v>218</v>
       </c>
-      <c r="BM4" s="53" t="s">
+      <c r="BS4" s="53" t="s">
         <v>219</v>
       </c>
-      <c r="BN4" s="53" t="s">
+      <c r="BT4" s="53" t="s">
         <v>250</v>
       </c>
-      <c r="BO4" s="53" t="s">
+      <c r="BU4" s="53" t="s">
         <v>251</v>
       </c>
-      <c r="BP4" s="53" t="s">
+      <c r="BV4" s="53" t="s">
         <v>252</v>
       </c>
-      <c r="BQ4" s="53" t="s">
+      <c r="BW4" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="BR4" s="53"/>
+      <c r="BX4" s="53"/>
     </row>
-    <row r="5" spans="1:70" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:76" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
@@ -7534,7 +7670,7 @@
         <v>$K$6:$K$100</v>
       </c>
       <c r="L5" s="74" t="str">
-        <f t="shared" ref="L5:BQ5" si="0">ADDRESS(ROW()+1,COLUMN())&amp;":"&amp;ADDRESS(100,COLUMN())</f>
+        <f t="shared" ref="L5:BW5" si="0">ADDRESS(ROW()+1,COLUMN())&amp;":"&amp;ADDRESS(100,COLUMN())</f>
         <v>$L$6:$L$100</v>
       </c>
       <c r="M5" s="74" t="str">
@@ -7765,9 +7901,33 @@
         <f t="shared" si="0"/>
         <v>$BQ$6:$BQ$100</v>
       </c>
-      <c r="BR5" s="74"/>
+      <c r="BR5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>$BR$6:$BR$100</v>
+      </c>
+      <c r="BS5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>$BS$6:$BS$100</v>
+      </c>
+      <c r="BT5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>$BT$6:$BT$100</v>
+      </c>
+      <c r="BU5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>$BU$6:$BU$100</v>
+      </c>
+      <c r="BV5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>$BV$6:$BV$100</v>
+      </c>
+      <c r="BW5" s="74" t="str">
+        <f t="shared" si="0"/>
+        <v>$BW$6:$BW$100</v>
+      </c>
+      <c r="BX5" s="74"/>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:76" x14ac:dyDescent="0.25">
       <c r="F6" s="36">
         <v>5000</v>
       </c>
@@ -7822,125 +7982,143 @@
       <c r="AA6" s="10">
         <v>1</v>
       </c>
-      <c r="AB6" s="10">
+      <c r="AB6" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC6" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD6" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE6" s="10">
         <v>100</v>
       </c>
-      <c r="AC6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="10" t="s">
+      <c r="AF6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AF6" s="10" t="s">
+      <c r="AI6" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AG6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="10">
+      <c r="AJ6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="10">
         <v>3</v>
       </c>
-      <c r="AI6" s="10">
+      <c r="AL6" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM6" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN6" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO6" s="10">
         <v>100</v>
       </c>
-      <c r="AJ6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="10" t="s">
+      <c r="AP6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AM6" s="10" t="s">
+      <c r="AS6" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AN6" s="10">
+      <c r="AT6" s="10">
         <v>4</v>
       </c>
-      <c r="AO6" s="10"/>
-      <c r="AP6" s="81">
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="81">
         <v>50</v>
       </c>
-      <c r="AQ6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="10" t="s">
+      <c r="AW6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="AT6" s="10" t="s">
+      <c r="AZ6" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="AU6" s="10"/>
-      <c r="AV6" s="10">
+      <c r="BA6" s="10"/>
+      <c r="BB6" s="10">
         <v>5</v>
       </c>
-      <c r="AW6" s="10">
+      <c r="BC6" s="10">
         <v>5000</v>
       </c>
-      <c r="AX6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="10" t="s">
+      <c r="BD6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA6" s="10" t="str">
-        <f t="shared" ref="BA6:BA36" si="1">"ТТИ-А "&amp;AW6&amp;"/5А 5ВА 0,5S"</f>
+      <c r="BG6" s="10" t="str">
+        <f t="shared" ref="BG6:BG36" si="1">"ТТИ-А "&amp;BC6&amp;"/5А 5ВА 0,5S"</f>
         <v>ТТИ-А 5000/5А 5ВА 0,5S</v>
       </c>
-      <c r="BC6">
+      <c r="BI6">
         <v>6</v>
       </c>
-      <c r="BD6" s="10">
+      <c r="BJ6" s="10">
         <v>100</v>
       </c>
-      <c r="BE6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="10" t="s">
+      <c r="BK6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BL6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="BH6" s="10" t="s">
+      <c r="BN6" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="BI6" s="10"/>
-      <c r="BJ6" s="10">
+      <c r="BO6" s="10"/>
+      <c r="BP6" s="10">
         <v>7</v>
       </c>
-      <c r="BK6" s="10">
+      <c r="BQ6" s="10">
         <v>80</v>
       </c>
-      <c r="BL6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BM6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN6" s="10" t="s">
+      <c r="BR6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT6" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BO6" s="10" t="s">
+      <c r="BU6" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BP6" s="10"/>
-      <c r="BQ6" s="10">
+      <c r="BV6" s="10"/>
+      <c r="BW6" s="10">
         <v>8</v>
       </c>
-      <c r="BR6" s="10"/>
+      <c r="BX6" s="10"/>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:76" x14ac:dyDescent="0.25">
       <c r="F7" s="36">
         <v>4000</v>
       </c>
@@ -7995,126 +8173,144 @@
       <c r="AA7" s="10">
         <v>1</v>
       </c>
-      <c r="AB7" s="10">
+      <c r="AB7" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC7" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD7" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE7" s="10">
         <v>63</v>
       </c>
-      <c r="AC7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="10" t="s">
+      <c r="AF7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AF7" s="10" t="s">
+      <c r="AI7" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AG7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="10">
+      <c r="AJ7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="10">
         <v>3</v>
       </c>
-      <c r="AI7" s="10">
+      <c r="AL7" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM7" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN7" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO7" s="10">
         <v>80</v>
       </c>
-      <c r="AJ7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="10" t="s">
+      <c r="AP7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AM7" s="10" t="s">
+      <c r="AS7" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AN7" s="10">
+      <c r="AT7" s="10">
         <v>4</v>
       </c>
-      <c r="AO7" s="10"/>
-      <c r="AP7" s="81">
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="81">
         <v>40</v>
       </c>
-      <c r="AQ7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS7" s="10" t="s">
+      <c r="AW7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="AT7" s="10" t="s">
+      <c r="AZ7" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="AU7" s="10"/>
-      <c r="AV7" s="10">
+      <c r="BA7" s="10"/>
+      <c r="BB7" s="10">
         <v>5</v>
       </c>
-      <c r="AW7" s="10">
+      <c r="BC7" s="10">
         <v>4000</v>
       </c>
-      <c r="AX7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY7" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="10" t="s">
+      <c r="BD7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF7" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA7" s="10" t="str">
+      <c r="BG7" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 4000/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB7" s="10"/>
-      <c r="BC7">
+      <c r="BH7" s="10"/>
+      <c r="BI7">
         <v>6</v>
       </c>
-      <c r="BD7" s="10">
+      <c r="BJ7" s="10">
         <v>60</v>
       </c>
-      <c r="BE7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG7" s="10" t="s">
+      <c r="BK7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BL7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="BH7" s="10" t="s">
+      <c r="BN7" s="10" t="s">
         <v>255</v>
       </c>
-      <c r="BI7" s="10"/>
-      <c r="BJ7" s="10">
+      <c r="BO7" s="10"/>
+      <c r="BP7" s="10">
         <v>7</v>
       </c>
-      <c r="BK7" s="10">
+      <c r="BQ7" s="10">
         <v>63</v>
       </c>
-      <c r="BL7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BM7" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN7" s="10" t="s">
+      <c r="BR7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS7" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT7" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BO7" s="10" t="s">
+      <c r="BU7" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BP7" s="10"/>
-      <c r="BQ7" s="10">
+      <c r="BV7" s="10"/>
+      <c r="BW7" s="10">
         <v>8</v>
       </c>
-      <c r="BR7" s="10"/>
+      <c r="BX7" s="10"/>
     </row>
-    <row r="8" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F8" s="36">
         <v>3200</v>
       </c>
@@ -8169,124 +8365,142 @@
       <c r="AA8" s="10">
         <v>1</v>
       </c>
-      <c r="AB8" s="10">
+      <c r="AB8" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC8" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD8" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE8" s="10">
         <v>50</v>
       </c>
-      <c r="AC8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="10" t="s">
+      <c r="AF8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AF8" s="10" t="s">
+      <c r="AI8" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AG8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="10">
+      <c r="AJ8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="10">
         <v>3</v>
       </c>
-      <c r="AI8" s="10">
+      <c r="AL8" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM8" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN8" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO8" s="10">
         <v>63</v>
       </c>
-      <c r="AJ8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="10" t="s">
+      <c r="AP8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AM8" s="10" t="s">
+      <c r="AS8" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AN8" s="10">
+      <c r="AT8" s="10">
         <v>4</v>
-      </c>
-      <c r="AO8" s="10"/>
-      <c r="AP8" s="10">
-        <v>32</v>
-      </c>
-      <c r="AQ8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS8" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="AT8" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="AU8" s="10"/>
       <c r="AV8" s="10">
+        <v>32</v>
+      </c>
+      <c r="AW8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="AZ8" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA8" s="10"/>
+      <c r="BB8" s="10">
         <v>5</v>
       </c>
-      <c r="AW8" s="10">
+      <c r="BC8" s="10">
         <v>3000</v>
       </c>
-      <c r="AX8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY8" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ8" s="10" t="s">
+      <c r="BD8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA8" s="10" t="str">
+      <c r="BG8" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 3000/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB8" s="10"/>
-      <c r="BC8">
+      <c r="BH8" s="10"/>
+      <c r="BI8">
         <v>6</v>
       </c>
-      <c r="BD8" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE8" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF8" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG8" s="10"/>
-      <c r="BH8" s="10"/>
-      <c r="BI8" s="10"/>
-      <c r="BJ8" s="10"/>
+      <c r="BJ8" s="10">
+        <v>0</v>
+      </c>
       <c r="BK8" s="10">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="BL8" s="10">
         <v>0</v>
       </c>
-      <c r="BM8" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN8" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="BO8" s="10" t="s">
-        <v>264</v>
-      </c>
+      <c r="BM8" s="10"/>
+      <c r="BN8" s="10"/>
+      <c r="BO8" s="10"/>
       <c r="BP8" s="10"/>
       <c r="BQ8" s="10">
+        <v>50</v>
+      </c>
+      <c r="BR8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS8" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT8" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU8" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="BV8" s="10"/>
+      <c r="BW8" s="10">
         <v>8</v>
       </c>
-      <c r="BR8" s="10"/>
+      <c r="BX8" s="10"/>
     </row>
-    <row r="9" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="111" t="s">
+    <row r="9" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="112"/>
+      <c r="B9" s="113"/>
       <c r="F9" s="36">
         <v>2500</v>
       </c>
@@ -8341,120 +8555,138 @@
       <c r="AA9" s="10">
         <v>1</v>
       </c>
-      <c r="AB9" s="10">
+      <c r="AB9" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC9" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD9" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE9" s="10">
         <v>40</v>
       </c>
-      <c r="AC9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="10" t="s">
+      <c r="AF9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AF9" s="10" t="s">
+      <c r="AI9" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AG9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="10">
+      <c r="AJ9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="10">
         <v>3</v>
       </c>
-      <c r="AI9" s="10">
+      <c r="AL9" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM9" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN9" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO9" s="10">
         <v>50</v>
       </c>
-      <c r="AJ9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="10" t="s">
+      <c r="AP9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AM9" s="10" t="s">
+      <c r="AS9" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AN9" s="10">
+      <c r="AT9" s="10">
         <v>4</v>
-      </c>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="10">
-        <v>25</v>
-      </c>
-      <c r="AQ9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS9" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="AT9" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="AU9" s="10"/>
       <c r="AV9" s="10">
+        <v>25</v>
+      </c>
+      <c r="AW9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="AZ9" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA9" s="10"/>
+      <c r="BB9" s="10">
         <v>5</v>
       </c>
-      <c r="AW9" s="10">
+      <c r="BC9" s="10">
         <v>2000</v>
       </c>
-      <c r="AX9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="10" t="s">
+      <c r="BD9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA9" s="10" t="str">
+      <c r="BG9" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 2000/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB9" s="10"/>
-      <c r="BC9">
+      <c r="BH9" s="10"/>
+      <c r="BI9">
         <v>6</v>
       </c>
-      <c r="BD9" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE9" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="10"/>
-      <c r="BH9" s="10"/>
-      <c r="BI9" s="10"/>
-      <c r="BJ9" s="10"/>
+      <c r="BJ9" s="10">
+        <v>0</v>
+      </c>
       <c r="BK9" s="10">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="BL9" s="10">
         <v>0</v>
       </c>
-      <c r="BM9" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="BO9" s="10" t="s">
-        <v>264</v>
-      </c>
+      <c r="BM9" s="10"/>
+      <c r="BN9" s="10"/>
+      <c r="BO9" s="10"/>
       <c r="BP9" s="10"/>
       <c r="BQ9" s="10">
+        <v>40</v>
+      </c>
+      <c r="BR9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS9" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT9" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU9" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="BV9" s="10"/>
+      <c r="BW9" s="10">
         <v>8</v>
       </c>
-      <c r="BR9" s="10"/>
+      <c r="BX9" s="10"/>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>114</v>
       </c>
@@ -8515,120 +8747,138 @@
       <c r="AA10" s="10">
         <v>1</v>
       </c>
-      <c r="AB10" s="10">
+      <c r="AB10" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC10" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD10" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE10" s="10">
         <v>32</v>
       </c>
-      <c r="AC10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="10" t="s">
+      <c r="AF10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AF10" s="10" t="s">
+      <c r="AI10" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AG10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="10">
+      <c r="AJ10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="10">
         <v>3</v>
       </c>
-      <c r="AI10" s="10">
+      <c r="AL10" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM10" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN10" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO10" s="10">
         <v>40</v>
       </c>
-      <c r="AJ10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="10" t="s">
+      <c r="AP10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AM10" s="10" t="s">
+      <c r="AS10" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AN10" s="10">
+      <c r="AT10" s="10">
         <v>4</v>
-      </c>
-      <c r="AO10" s="10"/>
-      <c r="AP10" s="10">
-        <v>20</v>
-      </c>
-      <c r="AQ10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="AT10" s="10" t="s">
-        <v>254</v>
       </c>
       <c r="AU10" s="10"/>
       <c r="AV10" s="10">
+        <v>20</v>
+      </c>
+      <c r="AW10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="AZ10" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="BA10" s="10"/>
+      <c r="BB10" s="10">
         <v>5</v>
       </c>
-      <c r="AW10" s="10">
+      <c r="BC10" s="10">
         <v>1600</v>
       </c>
-      <c r="AX10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="10" t="s">
+      <c r="BD10" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA10" s="10" t="str">
+      <c r="BG10" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 1600/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB10" s="10"/>
-      <c r="BC10">
+      <c r="BH10" s="10"/>
+      <c r="BI10">
         <v>6</v>
       </c>
-      <c r="BD10" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF10" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="10"/>
-      <c r="BH10" s="10"/>
-      <c r="BI10" s="10"/>
-      <c r="BJ10" s="10"/>
+      <c r="BJ10" s="10">
+        <v>0</v>
+      </c>
       <c r="BK10" s="10">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="BL10" s="10">
         <v>0</v>
       </c>
-      <c r="BM10" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN10" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="BO10" s="10" t="s">
-        <v>264</v>
-      </c>
+      <c r="BM10" s="10"/>
+      <c r="BN10" s="10"/>
+      <c r="BO10" s="10"/>
       <c r="BP10" s="10"/>
       <c r="BQ10" s="10">
+        <v>32</v>
+      </c>
+      <c r="BR10" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS10" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT10" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU10" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="BV10" s="10"/>
+      <c r="BW10" s="10">
         <v>8</v>
       </c>
-      <c r="BR10" s="10"/>
+      <c r="BX10" s="10"/>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A11" s="50" t="s">
         <v>115</v>
       </c>
@@ -8689,118 +8939,136 @@
       <c r="AA11" s="10">
         <v>1</v>
       </c>
-      <c r="AB11" s="10">
+      <c r="AB11" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC11" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD11" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE11" s="10">
         <v>25</v>
       </c>
-      <c r="AC11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="10" t="s">
+      <c r="AF11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AF11" s="10" t="s">
+      <c r="AI11" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AG11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH11" s="10">
+      <c r="AJ11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="10">
         <v>3</v>
       </c>
-      <c r="AI11" s="10">
+      <c r="AL11" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM11" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN11" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO11" s="10">
         <v>32</v>
       </c>
-      <c r="AJ11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="10" t="s">
+      <c r="AP11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AM11" s="10" t="s">
+      <c r="AS11" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AN11" s="10">
+      <c r="AT11" s="10">
         <v>4</v>
       </c>
-      <c r="AO11" s="10"/>
-      <c r="AP11" s="10">
+      <c r="AU11" s="10"/>
+      <c r="AV11" s="10">
         <v>16</v>
       </c>
-      <c r="AQ11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS11" s="81" t="s">
+      <c r="AW11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="81" t="s">
         <v>260</v>
       </c>
-      <c r="AT11" s="81" t="s">
+      <c r="AZ11" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="10"/>
-      <c r="AW11" s="10">
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="10"/>
+      <c r="BC11" s="10">
         <v>1500</v>
       </c>
-      <c r="AX11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY11" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ11" s="10" t="s">
+      <c r="BD11" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE11" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF11" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA11" s="10" t="str">
+      <c r="BG11" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 1500/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB11" s="10"/>
-      <c r="BC11">
+      <c r="BH11" s="10"/>
+      <c r="BI11">
         <v>6</v>
       </c>
-      <c r="BD11" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE11" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF11" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG11" s="10"/>
-      <c r="BH11" s="10"/>
-      <c r="BI11" s="10"/>
-      <c r="BJ11" s="10"/>
+      <c r="BJ11" s="10">
+        <v>0</v>
+      </c>
       <c r="BK11" s="10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BL11" s="10">
         <v>0</v>
       </c>
-      <c r="BM11" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN11" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="BO11" s="10" t="s">
-        <v>264</v>
-      </c>
+      <c r="BM11" s="10"/>
+      <c r="BN11" s="10"/>
+      <c r="BO11" s="10"/>
       <c r="BP11" s="10"/>
       <c r="BQ11" s="10">
+        <v>25</v>
+      </c>
+      <c r="BR11" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS11" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT11" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU11" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="BV11" s="10"/>
+      <c r="BW11" s="10">
         <v>8</v>
       </c>
-      <c r="BR11" s="10"/>
+      <c r="BX11" s="10"/>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:76" x14ac:dyDescent="0.25">
       <c r="A12" s="50" t="s">
         <v>116</v>
       </c>
@@ -8861,118 +9129,136 @@
       <c r="AA12" s="10">
         <v>1</v>
       </c>
-      <c r="AB12" s="10">
+      <c r="AB12" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC12" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD12" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE12" s="10">
         <v>20</v>
       </c>
-      <c r="AC12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="10" t="s">
+      <c r="AF12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AF12" s="10" t="s">
+      <c r="AI12" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AG12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="10">
+      <c r="AJ12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="10">
         <v>3</v>
       </c>
-      <c r="AI12" s="10">
+      <c r="AL12" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM12" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN12" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO12" s="10">
         <v>25</v>
       </c>
-      <c r="AJ12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="10" t="s">
+      <c r="AP12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AM12" s="10" t="s">
+      <c r="AS12" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AN12" s="10">
+      <c r="AT12" s="10">
         <v>4</v>
       </c>
-      <c r="AO12" s="10"/>
-      <c r="AP12" s="10">
+      <c r="AU12" s="10"/>
+      <c r="AV12" s="10">
         <v>10</v>
       </c>
-      <c r="AQ12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS12" s="81" t="s">
+      <c r="AW12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="81" t="s">
         <v>260</v>
       </c>
-      <c r="AT12" s="81" t="s">
+      <c r="AZ12" s="81" t="s">
         <v>254</v>
       </c>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="10"/>
-      <c r="AW12" s="10">
+      <c r="BA12" s="10"/>
+      <c r="BB12" s="10"/>
+      <c r="BC12" s="10">
         <v>1250</v>
       </c>
-      <c r="AX12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY12" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="10" t="s">
+      <c r="BD12" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE12" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF12" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA12" s="10" t="str">
+      <c r="BG12" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 1250/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB12" s="10"/>
-      <c r="BC12">
+      <c r="BH12" s="10"/>
+      <c r="BI12">
         <v>6</v>
       </c>
-      <c r="BD12" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE12" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF12" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG12" s="10"/>
-      <c r="BH12" s="10"/>
-      <c r="BI12" s="10"/>
-      <c r="BJ12" s="10"/>
+      <c r="BJ12" s="10">
+        <v>0</v>
+      </c>
       <c r="BK12" s="10">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="BL12" s="10">
         <v>0</v>
       </c>
-      <c r="BM12" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN12" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="BO12" s="10" t="s">
-        <v>264</v>
-      </c>
+      <c r="BM12" s="10"/>
+      <c r="BN12" s="10"/>
+      <c r="BO12" s="10"/>
       <c r="BP12" s="10"/>
       <c r="BQ12" s="10">
+        <v>16</v>
+      </c>
+      <c r="BR12" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS12" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT12" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU12" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="BV12" s="10"/>
+      <c r="BW12" s="10">
         <v>8</v>
       </c>
-      <c r="BR12" s="10"/>
+      <c r="BX12" s="10"/>
     </row>
-    <row r="13" spans="1:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
         <v>117</v>
       </c>
@@ -9027,114 +9313,132 @@
       <c r="Y13" s="10"/>
       <c r="Z13" s="10"/>
       <c r="AA13" s="10"/>
-      <c r="AB13" s="10">
+      <c r="AB13" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC13" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD13" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE13" s="10">
         <v>16</v>
       </c>
-      <c r="AC13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="10" t="s">
+      <c r="AF13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AF13" s="10" t="s">
+      <c r="AI13" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AG13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="10">
+      <c r="AJ13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="10">
         <v>3</v>
       </c>
-      <c r="AI13" s="10">
+      <c r="AL13" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM13" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN13" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO13" s="10">
         <v>16</v>
       </c>
-      <c r="AJ13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="10" t="s">
+      <c r="AP13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="AM13" s="10" t="s">
+      <c r="AS13" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="AN13" s="10">
+      <c r="AT13" s="10">
         <v>4</v>
       </c>
-      <c r="AO13" s="10"/>
-      <c r="AP13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="10"/>
-      <c r="AT13" s="10"/>
       <c r="AU13" s="10"/>
-      <c r="AV13" s="10"/>
+      <c r="AV13" s="10">
+        <v>0</v>
+      </c>
       <c r="AW13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="10"/>
+      <c r="AZ13" s="10"/>
+      <c r="BA13" s="10"/>
+      <c r="BB13" s="10"/>
+      <c r="BC13" s="10">
         <v>1200</v>
       </c>
-      <c r="AX13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="10" t="s">
+      <c r="BD13" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE13" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF13" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA13" s="10" t="str">
+      <c r="BG13" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 1200/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB13" s="10"/>
-      <c r="BC13">
+      <c r="BH13" s="10"/>
+      <c r="BI13">
         <v>6</v>
       </c>
-      <c r="BD13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="10"/>
-      <c r="BH13" s="10"/>
-      <c r="BI13" s="10"/>
-      <c r="BJ13" s="10"/>
+      <c r="BJ13" s="10">
+        <v>0</v>
+      </c>
       <c r="BK13" s="10">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BL13" s="10">
         <v>0</v>
       </c>
-      <c r="BM13" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN13" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="BO13" s="10" t="s">
-        <v>264</v>
-      </c>
+      <c r="BM13" s="10"/>
+      <c r="BN13" s="10"/>
+      <c r="BO13" s="10"/>
       <c r="BP13" s="10"/>
       <c r="BQ13" s="10">
+        <v>12</v>
+      </c>
+      <c r="BR13" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT13" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="BU13" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="BV13" s="10"/>
+      <c r="BW13" s="10">
         <v>8</v>
       </c>
-      <c r="BR13" s="10"/>
+      <c r="BX13" s="10"/>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:76" x14ac:dyDescent="0.25">
       <c r="F14" s="36">
         <v>800</v>
       </c>
@@ -9183,108 +9487,126 @@
       <c r="Y14" s="10"/>
       <c r="Z14" s="10"/>
       <c r="AA14" s="10"/>
-      <c r="AB14" s="75">
+      <c r="AB14" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC14" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD14" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE14" s="75">
         <v>10</v>
       </c>
-      <c r="AC14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="10" t="s">
+      <c r="AF14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AF14" s="10" t="s">
+      <c r="AI14" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AG14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="10">
+      <c r="AJ14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="10">
         <v>3</v>
       </c>
-      <c r="AI14" s="75">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="10"/>
-      <c r="AM14" s="10"/>
-      <c r="AN14" s="10"/>
-      <c r="AO14" s="10"/>
+      <c r="AL14" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM14" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN14" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO14" s="75">
+        <v>0</v>
+      </c>
       <c r="AP14" s="10">
         <v>0</v>
       </c>
       <c r="AQ14" s="10">
         <v>0</v>
       </c>
-      <c r="AR14" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR14" s="10"/>
       <c r="AS14" s="10"/>
       <c r="AT14" s="10"/>
       <c r="AU14" s="10"/>
-      <c r="AV14" s="10"/>
-      <c r="AW14" s="75">
+      <c r="AV14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="10"/>
+      <c r="AZ14" s="10"/>
+      <c r="BA14" s="10"/>
+      <c r="BB14" s="10"/>
+      <c r="BC14" s="75">
         <v>1000</v>
       </c>
-      <c r="AX14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY14" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ14" s="10" t="s">
+      <c r="BD14" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE14" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF14" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA14" s="10" t="str">
+      <c r="BG14" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 1000/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB14" s="10"/>
-      <c r="BC14">
+      <c r="BH14" s="10"/>
+      <c r="BI14">
         <v>6</v>
       </c>
-      <c r="BD14" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE14" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF14" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG14" s="10"/>
-      <c r="BH14" s="10"/>
-      <c r="BI14" s="10"/>
-      <c r="BJ14" s="10"/>
-      <c r="BK14" s="75">
+      <c r="BJ14" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK14" s="10">
+        <v>0</v>
+      </c>
+      <c r="BL14" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="10"/>
+      <c r="BN14" s="10"/>
+      <c r="BO14" s="10"/>
+      <c r="BP14" s="10"/>
+      <c r="BQ14" s="75">
         <v>10</v>
       </c>
-      <c r="BL14" s="10">
-        <v>0</v>
-      </c>
-      <c r="BM14" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN14" s="10" t="s">
+      <c r="BR14" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS14" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT14" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BO14" s="10" t="s">
+      <c r="BU14" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BP14" s="10"/>
-      <c r="BQ14" s="10">
+      <c r="BV14" s="10"/>
+      <c r="BW14" s="10">
         <v>8</v>
       </c>
-      <c r="BR14" s="10"/>
+      <c r="BX14" s="10"/>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:76" x14ac:dyDescent="0.25">
       <c r="F15" s="36">
         <v>630</v>
       </c>
@@ -9333,108 +9655,126 @@
       <c r="Y15" s="10"/>
       <c r="Z15" s="10"/>
       <c r="AA15" s="10"/>
-      <c r="AB15" s="75">
+      <c r="AB15" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC15" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD15" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE15" s="75">
         <v>6</v>
       </c>
-      <c r="AC15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="10" t="s">
+      <c r="AF15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="AF15" s="10" t="s">
+      <c r="AI15" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="AG15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AH15" s="10">
+      <c r="AJ15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="10">
         <v>3</v>
       </c>
-      <c r="AI15" s="75">
-        <v>0</v>
-      </c>
-      <c r="AJ15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AK15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL15" s="10"/>
-      <c r="AM15" s="10"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10"/>
+      <c r="AL15" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM15" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN15" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO15" s="75">
+        <v>0</v>
+      </c>
       <c r="AP15" s="10">
         <v>0</v>
       </c>
       <c r="AQ15" s="10">
         <v>0</v>
       </c>
-      <c r="AR15" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR15" s="10"/>
       <c r="AS15" s="10"/>
       <c r="AT15" s="10"/>
       <c r="AU15" s="10"/>
-      <c r="AV15" s="10"/>
-      <c r="AW15" s="75">
+      <c r="AV15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="10"/>
+      <c r="AZ15" s="10"/>
+      <c r="BA15" s="10"/>
+      <c r="BB15" s="10"/>
+      <c r="BC15" s="75">
         <v>800</v>
       </c>
-      <c r="AX15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY15" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ15" s="10" t="s">
+      <c r="BD15" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE15" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF15" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA15" s="10" t="str">
+      <c r="BG15" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 800/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB15" s="10"/>
-      <c r="BC15">
+      <c r="BH15" s="10"/>
+      <c r="BI15">
         <v>6</v>
       </c>
-      <c r="BD15" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE15" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF15" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG15" s="10"/>
-      <c r="BH15" s="10"/>
-      <c r="BI15" s="10"/>
-      <c r="BJ15" s="10"/>
-      <c r="BK15" s="75">
+      <c r="BJ15" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK15" s="10">
+        <v>0</v>
+      </c>
+      <c r="BL15" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="10"/>
+      <c r="BN15" s="10"/>
+      <c r="BO15" s="10"/>
+      <c r="BP15" s="10"/>
+      <c r="BQ15" s="75">
         <v>8</v>
       </c>
-      <c r="BL15" s="10">
-        <v>0</v>
-      </c>
-      <c r="BM15" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN15" s="10" t="s">
+      <c r="BR15" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS15" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT15" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BO15" s="10" t="s">
+      <c r="BU15" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BP15" s="10"/>
-      <c r="BQ15" s="10">
+      <c r="BV15" s="10"/>
+      <c r="BW15" s="10">
         <v>8</v>
       </c>
-      <c r="BR15" s="10"/>
+      <c r="BX15" s="10"/>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:76" x14ac:dyDescent="0.25">
       <c r="F16" s="36">
         <v>400</v>
       </c>
@@ -9483,16 +9823,16 @@
       <c r="Y16" s="10"/>
       <c r="Z16" s="10"/>
       <c r="AA16" s="10"/>
-      <c r="AB16" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="10">
+      <c r="AB16" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC16" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD16" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE16" s="75">
         <v>0</v>
       </c>
       <c r="AF16" s="10">
@@ -9501,88 +9841,106 @@
       <c r="AG16" s="10">
         <v>0</v>
       </c>
-      <c r="AH16" s="10"/>
-      <c r="AI16" s="75">
+      <c r="AH16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="10">
         <v>0</v>
       </c>
       <c r="AJ16" s="10">
         <v>0</v>
       </c>
-      <c r="AK16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="10"/>
-      <c r="AM16" s="10"/>
-      <c r="AN16" s="10"/>
-      <c r="AO16" s="10"/>
+      <c r="AK16" s="10"/>
+      <c r="AL16" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM16" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN16" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO16" s="75">
+        <v>0</v>
+      </c>
       <c r="AP16" s="10">
         <v>0</v>
       </c>
       <c r="AQ16" s="10">
         <v>0</v>
       </c>
-      <c r="AR16" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR16" s="10"/>
       <c r="AS16" s="10"/>
       <c r="AT16" s="10"/>
       <c r="AU16" s="10"/>
-      <c r="AV16" s="10"/>
-      <c r="AW16" s="75">
+      <c r="AV16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="10"/>
+      <c r="AZ16" s="10"/>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="10"/>
+      <c r="BC16" s="75">
         <v>750</v>
       </c>
-      <c r="AX16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="10" t="s">
+      <c r="BD16" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA16" s="10" t="str">
+      <c r="BG16" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 750/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB16" s="10"/>
-      <c r="BC16">
+      <c r="BH16" s="10"/>
+      <c r="BI16">
         <v>6</v>
       </c>
-      <c r="BD16" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE16" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF16" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG16" s="10"/>
-      <c r="BH16" s="10"/>
-      <c r="BI16" s="10"/>
-      <c r="BJ16" s="10"/>
-      <c r="BK16" s="75">
+      <c r="BJ16" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK16" s="10">
+        <v>0</v>
+      </c>
+      <c r="BL16" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="10"/>
+      <c r="BN16" s="10"/>
+      <c r="BO16" s="10"/>
+      <c r="BP16" s="10"/>
+      <c r="BQ16" s="75">
         <v>6</v>
       </c>
-      <c r="BL16" s="10">
-        <v>0</v>
-      </c>
-      <c r="BM16" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN16" s="10" t="s">
+      <c r="BR16" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS16" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT16" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BO16" s="10" t="s">
+      <c r="BU16" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BP16" s="10"/>
-      <c r="BQ16" s="10">
+      <c r="BV16" s="10"/>
+      <c r="BW16" s="10">
         <v>8</v>
       </c>
-      <c r="BR16" s="10"/>
+      <c r="BX16" s="10"/>
     </row>
-    <row r="17" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F17" s="36">
         <v>250</v>
       </c>
@@ -9631,16 +9989,16 @@
       <c r="Y17" s="10"/>
       <c r="Z17" s="10"/>
       <c r="AA17" s="10"/>
-      <c r="AB17" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="10">
+      <c r="AB17" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC17" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD17" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE17" s="75">
         <v>0</v>
       </c>
       <c r="AF17" s="10">
@@ -9649,88 +10007,106 @@
       <c r="AG17" s="10">
         <v>0</v>
       </c>
-      <c r="AH17" s="10"/>
-      <c r="AI17" s="75">
+      <c r="AH17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="10">
         <v>0</v>
       </c>
       <c r="AJ17" s="10">
         <v>0</v>
       </c>
-      <c r="AK17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="10"/>
-      <c r="AM17" s="10"/>
-      <c r="AN17" s="10"/>
-      <c r="AO17" s="10"/>
+      <c r="AK17" s="10"/>
+      <c r="AL17" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM17" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN17" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO17" s="75">
+        <v>0</v>
+      </c>
       <c r="AP17" s="10">
         <v>0</v>
       </c>
       <c r="AQ17" s="10">
         <v>0</v>
       </c>
-      <c r="AR17" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR17" s="10"/>
       <c r="AS17" s="10"/>
       <c r="AT17" s="10"/>
       <c r="AU17" s="10"/>
-      <c r="AV17" s="10"/>
-      <c r="AW17" s="75">
+      <c r="AV17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="10"/>
+      <c r="AZ17" s="10"/>
+      <c r="BA17" s="10"/>
+      <c r="BB17" s="10"/>
+      <c r="BC17" s="75">
         <v>600</v>
       </c>
-      <c r="AX17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY17" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ17" s="10" t="s">
+      <c r="BD17" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE17" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF17" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA17" s="10" t="str">
+      <c r="BG17" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 600/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB17" s="10"/>
-      <c r="BC17">
+      <c r="BH17" s="10"/>
+      <c r="BI17">
         <v>6</v>
       </c>
-      <c r="BD17" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE17" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF17" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG17" s="10"/>
-      <c r="BH17" s="10"/>
-      <c r="BI17" s="10"/>
-      <c r="BJ17" s="10"/>
-      <c r="BK17" s="75">
+      <c r="BJ17" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK17" s="10">
+        <v>0</v>
+      </c>
+      <c r="BL17" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="10"/>
+      <c r="BN17" s="10"/>
+      <c r="BO17" s="10"/>
+      <c r="BP17" s="10"/>
+      <c r="BQ17" s="75">
         <v>4</v>
       </c>
-      <c r="BL17" s="10">
-        <v>0</v>
-      </c>
-      <c r="BM17" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN17" s="10" t="s">
+      <c r="BR17" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS17" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT17" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BO17" s="10" t="s">
+      <c r="BU17" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BP17" s="10"/>
-      <c r="BQ17" s="10">
+      <c r="BV17" s="10"/>
+      <c r="BW17" s="10">
         <v>8</v>
       </c>
-      <c r="BR17" s="10"/>
+      <c r="BX17" s="10"/>
     </row>
-    <row r="18" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="18" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F18" s="36">
         <v>200</v>
       </c>
@@ -9779,16 +10155,16 @@
       <c r="Y18" s="10"/>
       <c r="Z18" s="10"/>
       <c r="AA18" s="10"/>
-      <c r="AB18" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="10">
+      <c r="AB18" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC18" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD18" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE18" s="75">
         <v>0</v>
       </c>
       <c r="AF18" s="10">
@@ -9797,88 +10173,106 @@
       <c r="AG18" s="10">
         <v>0</v>
       </c>
-      <c r="AH18" s="10"/>
-      <c r="AI18" s="75">
+      <c r="AH18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="10">
         <v>0</v>
       </c>
       <c r="AJ18" s="10">
         <v>0</v>
       </c>
-      <c r="AK18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="10"/>
-      <c r="AO18" s="10"/>
+      <c r="AK18" s="10"/>
+      <c r="AL18" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM18" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN18" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO18" s="75">
+        <v>0</v>
+      </c>
       <c r="AP18" s="10">
         <v>0</v>
       </c>
       <c r="AQ18" s="10">
         <v>0</v>
       </c>
-      <c r="AR18" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR18" s="10"/>
       <c r="AS18" s="10"/>
       <c r="AT18" s="10"/>
       <c r="AU18" s="10"/>
-      <c r="AV18" s="10"/>
-      <c r="AW18" s="75">
+      <c r="AV18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="10"/>
+      <c r="AZ18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="10"/>
+      <c r="BC18" s="75">
         <v>500</v>
       </c>
-      <c r="AX18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ18" s="10" t="s">
+      <c r="BD18" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE18" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF18" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA18" s="10" t="str">
+      <c r="BG18" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 500/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB18" s="10"/>
-      <c r="BC18">
+      <c r="BH18" s="10"/>
+      <c r="BI18">
         <v>6</v>
       </c>
-      <c r="BD18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG18" s="10"/>
-      <c r="BH18" s="10"/>
-      <c r="BI18" s="10"/>
-      <c r="BJ18" s="10"/>
-      <c r="BK18" s="75">
+      <c r="BJ18" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK18" s="10">
+        <v>0</v>
+      </c>
+      <c r="BL18" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="10"/>
+      <c r="BN18" s="10"/>
+      <c r="BO18" s="10"/>
+      <c r="BP18" s="10"/>
+      <c r="BQ18" s="75">
         <v>2.5</v>
       </c>
-      <c r="BL18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BM18" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN18" s="10" t="s">
+      <c r="BR18" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS18" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT18" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BO18" s="10" t="s">
+      <c r="BU18" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BP18" s="10"/>
-      <c r="BQ18" s="10">
+      <c r="BV18" s="10"/>
+      <c r="BW18" s="10">
         <v>8</v>
       </c>
-      <c r="BR18" s="10"/>
+      <c r="BX18" s="10"/>
     </row>
-    <row r="19" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="19" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F19" s="36">
         <v>160</v>
       </c>
@@ -9927,16 +10321,16 @@
       <c r="Y19" s="10"/>
       <c r="Z19" s="10"/>
       <c r="AA19" s="10"/>
-      <c r="AB19" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE19" s="10">
+      <c r="AB19" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC19" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD19" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE19" s="75">
         <v>0</v>
       </c>
       <c r="AF19" s="10">
@@ -9945,88 +10339,106 @@
       <c r="AG19" s="10">
         <v>0</v>
       </c>
-      <c r="AH19" s="10"/>
-      <c r="AI19" s="75">
+      <c r="AH19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="10">
         <v>0</v>
       </c>
       <c r="AJ19" s="10">
         <v>0</v>
       </c>
-      <c r="AK19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="10"/>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="10"/>
-      <c r="AO19" s="10"/>
+      <c r="AK19" s="10"/>
+      <c r="AL19" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM19" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN19" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO19" s="75">
+        <v>0</v>
+      </c>
       <c r="AP19" s="10">
         <v>0</v>
       </c>
       <c r="AQ19" s="10">
         <v>0</v>
       </c>
-      <c r="AR19" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR19" s="10"/>
       <c r="AS19" s="10"/>
       <c r="AT19" s="10"/>
       <c r="AU19" s="10"/>
-      <c r="AV19" s="10"/>
-      <c r="AW19" s="75">
+      <c r="AV19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="10"/>
+      <c r="AZ19" s="10"/>
+      <c r="BA19" s="10"/>
+      <c r="BB19" s="10"/>
+      <c r="BC19" s="75">
         <v>400</v>
       </c>
-      <c r="AX19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY19" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ19" s="10" t="s">
+      <c r="BD19" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE19" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF19" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA19" s="10" t="str">
+      <c r="BG19" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 400/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB19" s="10"/>
-      <c r="BC19">
+      <c r="BH19" s="10"/>
+      <c r="BI19">
         <v>6</v>
       </c>
-      <c r="BD19" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE19" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF19" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG19" s="10"/>
-      <c r="BH19" s="10"/>
-      <c r="BI19" s="10"/>
-      <c r="BJ19" s="10"/>
-      <c r="BK19" s="75">
+      <c r="BJ19" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK19" s="10">
+        <v>0</v>
+      </c>
+      <c r="BL19" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="10"/>
+      <c r="BN19" s="10"/>
+      <c r="BO19" s="10"/>
+      <c r="BP19" s="10"/>
+      <c r="BQ19" s="75">
         <v>1.6</v>
       </c>
-      <c r="BL19" s="10">
-        <v>0</v>
-      </c>
-      <c r="BM19" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN19" s="10" t="s">
+      <c r="BR19" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS19" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT19" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BO19" s="10" t="s">
+      <c r="BU19" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BP19" s="10"/>
-      <c r="BQ19" s="10">
+      <c r="BV19" s="10"/>
+      <c r="BW19" s="10">
         <v>8</v>
       </c>
-      <c r="BR19" s="10"/>
+      <c r="BX19" s="10"/>
     </row>
-    <row r="20" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F20" s="36">
         <v>125</v>
       </c>
@@ -10075,16 +10487,16 @@
       <c r="Y20" s="10"/>
       <c r="Z20" s="10"/>
       <c r="AA20" s="10"/>
-      <c r="AB20" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="10">
+      <c r="AB20" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC20" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD20" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE20" s="75">
         <v>0</v>
       </c>
       <c r="AF20" s="10">
@@ -10093,88 +10505,106 @@
       <c r="AG20" s="10">
         <v>0</v>
       </c>
-      <c r="AH20" s="10"/>
-      <c r="AI20" s="75">
+      <c r="AH20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="10">
         <v>0</v>
       </c>
       <c r="AJ20" s="10">
         <v>0</v>
       </c>
-      <c r="AK20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="10"/>
-      <c r="AM20" s="10"/>
-      <c r="AN20" s="10"/>
-      <c r="AO20" s="10"/>
+      <c r="AK20" s="10"/>
+      <c r="AL20" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM20" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN20" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO20" s="75">
+        <v>0</v>
+      </c>
       <c r="AP20" s="10">
         <v>0</v>
       </c>
       <c r="AQ20" s="10">
         <v>0</v>
       </c>
-      <c r="AR20" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR20" s="10"/>
       <c r="AS20" s="10"/>
       <c r="AT20" s="10"/>
       <c r="AU20" s="10"/>
-      <c r="AV20" s="10"/>
-      <c r="AW20" s="75">
+      <c r="AV20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="10"/>
+      <c r="AZ20" s="10"/>
+      <c r="BA20" s="10"/>
+      <c r="BB20" s="10"/>
+      <c r="BC20" s="75">
         <v>300</v>
       </c>
-      <c r="AX20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY20" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ20" s="10" t="s">
+      <c r="BD20" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE20" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF20" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA20" s="10" t="str">
+      <c r="BG20" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 300/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB20" s="10"/>
-      <c r="BC20">
+      <c r="BH20" s="10"/>
+      <c r="BI20">
         <v>6</v>
       </c>
-      <c r="BD20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG20" s="10"/>
-      <c r="BH20" s="10"/>
-      <c r="BI20" s="10"/>
-      <c r="BJ20" s="10"/>
-      <c r="BK20" s="75">
+      <c r="BJ20" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK20" s="10">
+        <v>0</v>
+      </c>
+      <c r="BL20" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="10"/>
+      <c r="BN20" s="10"/>
+      <c r="BO20" s="10"/>
+      <c r="BP20" s="10"/>
+      <c r="BQ20" s="75">
         <v>1</v>
       </c>
-      <c r="BL20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BM20" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN20" s="10" t="s">
+      <c r="BR20" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS20" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT20" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BO20" s="10" t="s">
+      <c r="BU20" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BP20" s="10"/>
-      <c r="BQ20" s="10">
+      <c r="BV20" s="10"/>
+      <c r="BW20" s="10">
         <v>8</v>
       </c>
-      <c r="BR20" s="10"/>
+      <c r="BX20" s="10"/>
     </row>
-    <row r="21" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="21" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F21" s="36">
         <v>100</v>
       </c>
@@ -10223,16 +10653,16 @@
       <c r="Y21" s="10"/>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
-      <c r="AB21" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="10">
+      <c r="AB21" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC21" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD21" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE21" s="75">
         <v>0</v>
       </c>
       <c r="AF21" s="10">
@@ -10241,88 +10671,106 @@
       <c r="AG21" s="10">
         <v>0</v>
       </c>
-      <c r="AH21" s="10"/>
-      <c r="AI21" s="75">
+      <c r="AH21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="10">
         <v>0</v>
       </c>
       <c r="AJ21" s="10">
         <v>0</v>
       </c>
-      <c r="AK21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL21" s="10"/>
-      <c r="AM21" s="10"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="10"/>
+      <c r="AK21" s="10"/>
+      <c r="AL21" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM21" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN21" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO21" s="75">
+        <v>0</v>
+      </c>
       <c r="AP21" s="10">
         <v>0</v>
       </c>
       <c r="AQ21" s="10">
         <v>0</v>
       </c>
-      <c r="AR21" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR21" s="10"/>
       <c r="AS21" s="10"/>
       <c r="AT21" s="10"/>
       <c r="AU21" s="10"/>
-      <c r="AV21" s="10"/>
-      <c r="AW21" s="75">
+      <c r="AV21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="10"/>
+      <c r="AZ21" s="10"/>
+      <c r="BA21" s="10"/>
+      <c r="BB21" s="10"/>
+      <c r="BC21" s="75">
         <v>250</v>
       </c>
-      <c r="AX21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ21" s="10" t="s">
+      <c r="BD21" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE21" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF21" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA21" s="10" t="str">
+      <c r="BG21" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 250/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB21" s="10"/>
-      <c r="BC21">
+      <c r="BH21" s="10"/>
+      <c r="BI21">
         <v>6</v>
       </c>
-      <c r="BD21" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE21" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF21" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG21" s="10"/>
-      <c r="BH21" s="10"/>
-      <c r="BI21" s="10"/>
-      <c r="BJ21" s="10"/>
-      <c r="BK21" s="75">
+      <c r="BJ21" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK21" s="10">
+        <v>0</v>
+      </c>
+      <c r="BL21" s="10">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="10"/>
+      <c r="BN21" s="10"/>
+      <c r="BO21" s="10"/>
+      <c r="BP21" s="10"/>
+      <c r="BQ21" s="75">
         <v>0.6</v>
       </c>
-      <c r="BL21" s="10">
-        <v>0</v>
-      </c>
-      <c r="BM21" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN21" s="10" t="s">
+      <c r="BR21" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS21" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT21" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="BO21" s="10" t="s">
+      <c r="BU21" s="10" t="s">
         <v>264</v>
       </c>
-      <c r="BP21" s="10"/>
-      <c r="BQ21" s="10">
+      <c r="BV21" s="10"/>
+      <c r="BW21" s="10">
         <v>8</v>
       </c>
-      <c r="BR21" s="10"/>
+      <c r="BX21" s="10"/>
     </row>
-    <row r="22" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F22" s="36">
         <v>80</v>
       </c>
@@ -10371,16 +10819,16 @@
       <c r="Y22" s="10"/>
       <c r="Z22" s="10"/>
       <c r="AA22" s="10"/>
-      <c r="AB22" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="10">
+      <c r="AB22" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC22" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD22" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE22" s="75">
         <v>0</v>
       </c>
       <c r="AF22" s="10">
@@ -10389,84 +10837,102 @@
       <c r="AG22" s="10">
         <v>0</v>
       </c>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="75">
+      <c r="AH22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="10">
         <v>0</v>
       </c>
       <c r="AJ22" s="10">
         <v>0</v>
       </c>
-      <c r="AK22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="10"/>
-      <c r="AM22" s="10"/>
-      <c r="AN22" s="10"/>
-      <c r="AO22" s="10"/>
+      <c r="AK22" s="10"/>
+      <c r="AL22" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM22" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN22" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO22" s="75">
+        <v>0</v>
+      </c>
       <c r="AP22" s="10">
         <v>0</v>
       </c>
       <c r="AQ22" s="10">
         <v>0</v>
       </c>
-      <c r="AR22" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR22" s="10"/>
       <c r="AS22" s="10"/>
       <c r="AT22" s="10"/>
       <c r="AU22" s="10"/>
-      <c r="AV22" s="10"/>
-      <c r="AW22" s="75">
+      <c r="AV22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX22" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY22" s="10"/>
+      <c r="AZ22" s="10"/>
+      <c r="BA22" s="10"/>
+      <c r="BB22" s="10"/>
+      <c r="BC22" s="75">
         <v>200</v>
       </c>
-      <c r="AX22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY22" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ22" s="10" t="s">
+      <c r="BD22" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE22" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF22" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA22" s="10" t="str">
+      <c r="BG22" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 200/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB22" s="10"/>
-      <c r="BC22">
+      <c r="BH22" s="10"/>
+      <c r="BI22">
         <v>6</v>
       </c>
-      <c r="BD22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG22" s="10"/>
-      <c r="BH22" s="10"/>
-      <c r="BI22" s="10"/>
-      <c r="BJ22" s="10"/>
+      <c r="BJ22" s="10">
+        <v>0</v>
+      </c>
       <c r="BK22" s="10">
         <v>0</v>
       </c>
       <c r="BL22" s="10">
         <v>0</v>
       </c>
-      <c r="BM22" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN22" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM22" s="10"/>
+      <c r="BN22" s="10"/>
       <c r="BO22" s="10"/>
       <c r="BP22" s="10"/>
-      <c r="BQ22" s="10"/>
-      <c r="BR22" s="10"/>
+      <c r="BQ22" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR22" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS22" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT22" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU22" s="10"/>
+      <c r="BV22" s="10"/>
+      <c r="BW22" s="10"/>
+      <c r="BX22" s="10"/>
     </row>
-    <row r="23" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F23" s="36">
         <v>63</v>
       </c>
@@ -10515,16 +10981,16 @@
       <c r="Y23" s="10"/>
       <c r="Z23" s="10"/>
       <c r="AA23" s="10"/>
-      <c r="AB23" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="10">
+      <c r="AB23" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC23" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD23" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE23" s="75">
         <v>0</v>
       </c>
       <c r="AF23" s="10">
@@ -10533,84 +10999,102 @@
       <c r="AG23" s="10">
         <v>0</v>
       </c>
-      <c r="AH23" s="10"/>
-      <c r="AI23" s="75">
+      <c r="AH23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="10">
         <v>0</v>
       </c>
       <c r="AJ23" s="10">
         <v>0</v>
       </c>
-      <c r="AK23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL23" s="10"/>
-      <c r="AM23" s="10"/>
-      <c r="AN23" s="10"/>
-      <c r="AO23" s="10"/>
+      <c r="AK23" s="10"/>
+      <c r="AL23" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM23" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN23" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO23" s="75">
+        <v>0</v>
+      </c>
       <c r="AP23" s="10">
         <v>0</v>
       </c>
       <c r="AQ23" s="10">
         <v>0</v>
       </c>
-      <c r="AR23" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR23" s="10"/>
       <c r="AS23" s="10"/>
       <c r="AT23" s="10"/>
       <c r="AU23" s="10"/>
-      <c r="AV23" s="10"/>
-      <c r="AW23" s="75">
+      <c r="AV23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX23" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="10"/>
+      <c r="AZ23" s="10"/>
+      <c r="BA23" s="10"/>
+      <c r="BB23" s="10"/>
+      <c r="BC23" s="75">
         <v>150</v>
       </c>
-      <c r="AX23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY23" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ23" s="10" t="s">
+      <c r="BD23" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE23" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF23" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA23" s="10" t="str">
+      <c r="BG23" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 150/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB23" s="10"/>
-      <c r="BC23">
+      <c r="BH23" s="10"/>
+      <c r="BI23">
         <v>6</v>
       </c>
-      <c r="BD23" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE23" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF23" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG23" s="10"/>
-      <c r="BH23" s="10"/>
-      <c r="BI23" s="10"/>
-      <c r="BJ23" s="10"/>
+      <c r="BJ23" s="10">
+        <v>0</v>
+      </c>
       <c r="BK23" s="10">
         <v>0</v>
       </c>
       <c r="BL23" s="10">
         <v>0</v>
       </c>
-      <c r="BM23" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN23" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM23" s="10"/>
+      <c r="BN23" s="10"/>
       <c r="BO23" s="10"/>
       <c r="BP23" s="10"/>
-      <c r="BQ23" s="10"/>
-      <c r="BR23" s="10"/>
+      <c r="BQ23" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR23" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS23" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT23" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU23" s="10"/>
+      <c r="BV23" s="10"/>
+      <c r="BW23" s="10"/>
+      <c r="BX23" s="10"/>
     </row>
-    <row r="24" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F24" s="36">
         <v>50</v>
       </c>
@@ -10661,16 +11145,16 @@
       <c r="Y24" s="10"/>
       <c r="Z24" s="10"/>
       <c r="AA24" s="10"/>
-      <c r="AB24" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="10">
+      <c r="AB24" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC24" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD24" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE24" s="75">
         <v>0</v>
       </c>
       <c r="AF24" s="10">
@@ -10679,84 +11163,102 @@
       <c r="AG24" s="10">
         <v>0</v>
       </c>
-      <c r="AH24" s="10"/>
-      <c r="AI24" s="75">
+      <c r="AH24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="10">
         <v>0</v>
       </c>
       <c r="AJ24" s="10">
         <v>0</v>
       </c>
-      <c r="AK24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL24" s="10"/>
-      <c r="AM24" s="10"/>
-      <c r="AN24" s="10"/>
-      <c r="AO24" s="10"/>
+      <c r="AK24" s="10"/>
+      <c r="AL24" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM24" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN24" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO24" s="75">
+        <v>0</v>
+      </c>
       <c r="AP24" s="10">
         <v>0</v>
       </c>
       <c r="AQ24" s="10">
         <v>0</v>
       </c>
-      <c r="AR24" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR24" s="10"/>
       <c r="AS24" s="10"/>
       <c r="AT24" s="10"/>
       <c r="AU24" s="10"/>
-      <c r="AV24" s="10"/>
-      <c r="AW24" s="75">
+      <c r="AV24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX24" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY24" s="10"/>
+      <c r="AZ24" s="10"/>
+      <c r="BA24" s="10"/>
+      <c r="BB24" s="10"/>
+      <c r="BC24" s="75">
         <v>125</v>
       </c>
-      <c r="AX24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY24" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ24" s="10" t="s">
+      <c r="BD24" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE24" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF24" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA24" s="10" t="str">
+      <c r="BG24" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 125/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB24" s="10"/>
-      <c r="BC24">
+      <c r="BH24" s="10"/>
+      <c r="BI24">
         <v>6</v>
       </c>
-      <c r="BD24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG24" s="10"/>
-      <c r="BH24" s="10"/>
-      <c r="BI24" s="10"/>
-      <c r="BJ24" s="10"/>
+      <c r="BJ24" s="10">
+        <v>0</v>
+      </c>
       <c r="BK24" s="10">
         <v>0</v>
       </c>
       <c r="BL24" s="10">
         <v>0</v>
       </c>
-      <c r="BM24" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN24" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM24" s="10"/>
+      <c r="BN24" s="10"/>
       <c r="BO24" s="10"/>
       <c r="BP24" s="10"/>
-      <c r="BQ24" s="10"/>
-      <c r="BR24" s="10"/>
+      <c r="BQ24" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR24" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS24" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT24" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU24" s="10"/>
+      <c r="BV24" s="10"/>
+      <c r="BW24" s="10"/>
+      <c r="BX24" s="10"/>
     </row>
-    <row r="25" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F25" s="36">
         <v>40</v>
       </c>
@@ -10807,16 +11309,16 @@
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10"/>
-      <c r="AB25" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="10">
+      <c r="AB25" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC25" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD25" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE25" s="75">
         <v>0</v>
       </c>
       <c r="AF25" s="10">
@@ -10825,84 +11327,102 @@
       <c r="AG25" s="10">
         <v>0</v>
       </c>
-      <c r="AH25" s="10"/>
-      <c r="AI25" s="75">
+      <c r="AH25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI25" s="10">
         <v>0</v>
       </c>
       <c r="AJ25" s="10">
         <v>0</v>
       </c>
-      <c r="AK25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL25" s="10"/>
-      <c r="AM25" s="10"/>
-      <c r="AN25" s="10"/>
-      <c r="AO25" s="10"/>
+      <c r="AK25" s="10"/>
+      <c r="AL25" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM25" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN25" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO25" s="75">
+        <v>0</v>
+      </c>
       <c r="AP25" s="10">
         <v>0</v>
       </c>
       <c r="AQ25" s="10">
         <v>0</v>
       </c>
-      <c r="AR25" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR25" s="10"/>
       <c r="AS25" s="10"/>
       <c r="AT25" s="10"/>
       <c r="AU25" s="10"/>
-      <c r="AV25" s="10"/>
-      <c r="AW25" s="75">
+      <c r="AV25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX25" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY25" s="10"/>
+      <c r="AZ25" s="10"/>
+      <c r="BA25" s="10"/>
+      <c r="BB25" s="10"/>
+      <c r="BC25" s="75">
         <v>120</v>
       </c>
-      <c r="AX25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY25" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ25" s="10" t="s">
+      <c r="BD25" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE25" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF25" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA25" s="10" t="str">
+      <c r="BG25" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 120/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB25" s="10"/>
-      <c r="BC25">
+      <c r="BH25" s="10"/>
+      <c r="BI25">
         <v>6</v>
       </c>
-      <c r="BD25" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE25" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF25" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG25" s="10"/>
-      <c r="BH25" s="10"/>
-      <c r="BI25" s="10"/>
-      <c r="BJ25" s="10"/>
+      <c r="BJ25" s="10">
+        <v>0</v>
+      </c>
       <c r="BK25" s="10">
         <v>0</v>
       </c>
       <c r="BL25" s="10">
         <v>0</v>
       </c>
-      <c r="BM25" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN25" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM25" s="10"/>
+      <c r="BN25" s="10"/>
       <c r="BO25" s="10"/>
       <c r="BP25" s="10"/>
-      <c r="BQ25" s="10"/>
-      <c r="BR25" s="10"/>
+      <c r="BQ25" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR25" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS25" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT25" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU25" s="10"/>
+      <c r="BV25" s="10"/>
+      <c r="BW25" s="10"/>
+      <c r="BX25" s="10"/>
     </row>
-    <row r="26" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F26" s="36">
         <v>32</v>
       </c>
@@ -10953,16 +11473,16 @@
       <c r="Y26" s="10"/>
       <c r="Z26" s="10"/>
       <c r="AA26" s="10"/>
-      <c r="AB26" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="10">
+      <c r="AB26" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC26" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD26" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE26" s="75">
         <v>0</v>
       </c>
       <c r="AF26" s="10">
@@ -10971,84 +11491,102 @@
       <c r="AG26" s="10">
         <v>0</v>
       </c>
-      <c r="AH26" s="10"/>
-      <c r="AI26" s="75">
+      <c r="AH26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="10">
         <v>0</v>
       </c>
       <c r="AJ26" s="10">
         <v>0</v>
       </c>
-      <c r="AK26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL26" s="10"/>
-      <c r="AM26" s="10"/>
-      <c r="AN26" s="10"/>
-      <c r="AO26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM26" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN26" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO26" s="75">
+        <v>0</v>
+      </c>
       <c r="AP26" s="10">
         <v>0</v>
       </c>
       <c r="AQ26" s="10">
         <v>0</v>
       </c>
-      <c r="AR26" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR26" s="10"/>
       <c r="AS26" s="10"/>
       <c r="AT26" s="10"/>
       <c r="AU26" s="10"/>
-      <c r="AV26" s="10"/>
-      <c r="AW26" s="75">
+      <c r="AV26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX26" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="10"/>
+      <c r="BA26" s="10"/>
+      <c r="BB26" s="10"/>
+      <c r="BC26" s="75">
         <v>100</v>
       </c>
-      <c r="AX26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY26" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ26" s="10" t="s">
+      <c r="BD26" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF26" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA26" s="10" t="str">
+      <c r="BG26" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 100/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB26" s="10"/>
-      <c r="BC26">
+      <c r="BH26" s="10"/>
+      <c r="BI26">
         <v>6</v>
       </c>
-      <c r="BD26" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE26" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF26" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG26" s="10"/>
-      <c r="BH26" s="10"/>
-      <c r="BI26" s="10"/>
-      <c r="BJ26" s="10"/>
+      <c r="BJ26" s="10">
+        <v>0</v>
+      </c>
       <c r="BK26" s="10">
         <v>0</v>
       </c>
       <c r="BL26" s="10">
         <v>0</v>
       </c>
-      <c r="BM26" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN26" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM26" s="10"/>
+      <c r="BN26" s="10"/>
       <c r="BO26" s="10"/>
       <c r="BP26" s="10"/>
-      <c r="BQ26" s="10"/>
-      <c r="BR26" s="10"/>
+      <c r="BQ26" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR26" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS26" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT26" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU26" s="10"/>
+      <c r="BV26" s="10"/>
+      <c r="BW26" s="10"/>
+      <c r="BX26" s="10"/>
     </row>
-    <row r="27" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F27" s="36">
         <v>25</v>
       </c>
@@ -11099,16 +11637,16 @@
       <c r="Y27" s="10"/>
       <c r="Z27" s="10"/>
       <c r="AA27" s="10"/>
-      <c r="AB27" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="10">
+      <c r="AB27" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC27" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD27" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE27" s="75">
         <v>0</v>
       </c>
       <c r="AF27" s="10">
@@ -11117,84 +11655,102 @@
       <c r="AG27" s="10">
         <v>0</v>
       </c>
-      <c r="AH27" s="10"/>
-      <c r="AI27" s="75">
+      <c r="AH27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="10">
         <v>0</v>
       </c>
       <c r="AJ27" s="10">
         <v>0</v>
       </c>
-      <c r="AK27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL27" s="10"/>
-      <c r="AM27" s="10"/>
-      <c r="AN27" s="10"/>
-      <c r="AO27" s="10"/>
+      <c r="AK27" s="10"/>
+      <c r="AL27" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM27" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN27" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO27" s="75">
+        <v>0</v>
+      </c>
       <c r="AP27" s="10">
         <v>0</v>
       </c>
       <c r="AQ27" s="10">
         <v>0</v>
       </c>
-      <c r="AR27" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR27" s="10"/>
       <c r="AS27" s="10"/>
       <c r="AT27" s="10"/>
       <c r="AU27" s="10"/>
-      <c r="AV27" s="10"/>
-      <c r="AW27" s="75">
+      <c r="AV27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX27" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="10"/>
+      <c r="AZ27" s="10"/>
+      <c r="BA27" s="10"/>
+      <c r="BB27" s="10"/>
+      <c r="BC27" s="75">
         <v>80</v>
       </c>
-      <c r="AX27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY27" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ27" s="10" t="s">
+      <c r="BD27" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF27" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA27" s="10" t="str">
+      <c r="BG27" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 80/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB27" s="10"/>
-      <c r="BC27">
+      <c r="BH27" s="10"/>
+      <c r="BI27">
         <v>6</v>
       </c>
-      <c r="BD27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG27" s="10"/>
-      <c r="BH27" s="10"/>
-      <c r="BI27" s="10"/>
-      <c r="BJ27" s="10"/>
+      <c r="BJ27" s="10">
+        <v>0</v>
+      </c>
       <c r="BK27" s="10">
         <v>0</v>
       </c>
       <c r="BL27" s="10">
         <v>0</v>
       </c>
-      <c r="BM27" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN27" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM27" s="10"/>
+      <c r="BN27" s="10"/>
       <c r="BO27" s="10"/>
       <c r="BP27" s="10"/>
-      <c r="BQ27" s="10"/>
-      <c r="BR27" s="10"/>
+      <c r="BQ27" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR27" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS27" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT27" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU27" s="10"/>
+      <c r="BV27" s="10"/>
+      <c r="BW27" s="10"/>
+      <c r="BX27" s="10"/>
     </row>
-    <row r="28" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F28" s="36">
         <v>20</v>
       </c>
@@ -11245,16 +11801,16 @@
       <c r="Y28" s="10"/>
       <c r="Z28" s="10"/>
       <c r="AA28" s="10"/>
-      <c r="AB28" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="10">
+      <c r="AB28" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC28" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD28" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE28" s="75">
         <v>0</v>
       </c>
       <c r="AF28" s="10">
@@ -11263,84 +11819,102 @@
       <c r="AG28" s="10">
         <v>0</v>
       </c>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="75">
+      <c r="AH28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="10">
         <v>0</v>
       </c>
       <c r="AJ28" s="10">
         <v>0</v>
       </c>
-      <c r="AK28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="10"/>
-      <c r="AO28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM28" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN28" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO28" s="75">
+        <v>0</v>
+      </c>
       <c r="AP28" s="10">
         <v>0</v>
       </c>
       <c r="AQ28" s="10">
         <v>0</v>
       </c>
-      <c r="AR28" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR28" s="10"/>
       <c r="AS28" s="10"/>
       <c r="AT28" s="10"/>
       <c r="AU28" s="10"/>
-      <c r="AV28" s="10"/>
-      <c r="AW28" s="75">
+      <c r="AV28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="10"/>
+      <c r="AZ28" s="10"/>
+      <c r="BA28" s="10"/>
+      <c r="BB28" s="10"/>
+      <c r="BC28" s="75">
         <v>75</v>
       </c>
-      <c r="AX28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY28" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ28" s="10" t="s">
+      <c r="BD28" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE28" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF28" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA28" s="10" t="str">
+      <c r="BG28" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 75/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB28" s="10"/>
-      <c r="BC28">
+      <c r="BH28" s="10"/>
+      <c r="BI28">
         <v>6</v>
       </c>
-      <c r="BD28" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE28" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF28" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG28" s="10"/>
-      <c r="BH28" s="10"/>
-      <c r="BI28" s="10"/>
-      <c r="BJ28" s="10"/>
+      <c r="BJ28" s="10">
+        <v>0</v>
+      </c>
       <c r="BK28" s="10">
         <v>0</v>
       </c>
       <c r="BL28" s="10">
         <v>0</v>
       </c>
-      <c r="BM28" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN28" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM28" s="10"/>
+      <c r="BN28" s="10"/>
       <c r="BO28" s="10"/>
       <c r="BP28" s="10"/>
-      <c r="BQ28" s="10"/>
-      <c r="BR28" s="10"/>
+      <c r="BQ28" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR28" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS28" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT28" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU28" s="10"/>
+      <c r="BV28" s="10"/>
+      <c r="BW28" s="10"/>
+      <c r="BX28" s="10"/>
     </row>
-    <row r="29" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F29" s="36">
         <v>16</v>
       </c>
@@ -11391,16 +11965,16 @@
       <c r="Y29" s="10"/>
       <c r="Z29" s="10"/>
       <c r="AA29" s="10"/>
-      <c r="AB29" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="10">
+      <c r="AB29" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC29" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD29" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE29" s="75">
         <v>0</v>
       </c>
       <c r="AF29" s="10">
@@ -11409,84 +11983,102 @@
       <c r="AG29" s="10">
         <v>0</v>
       </c>
-      <c r="AH29" s="10"/>
-      <c r="AI29" s="75">
+      <c r="AH29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="10">
         <v>0</v>
       </c>
       <c r="AJ29" s="10">
         <v>0</v>
       </c>
-      <c r="AK29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL29" s="10"/>
-      <c r="AM29" s="10"/>
-      <c r="AN29" s="10"/>
-      <c r="AO29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM29" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN29" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO29" s="75">
+        <v>0</v>
+      </c>
       <c r="AP29" s="10">
         <v>0</v>
       </c>
       <c r="AQ29" s="10">
         <v>0</v>
       </c>
-      <c r="AR29" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR29" s="10"/>
       <c r="AS29" s="10"/>
       <c r="AT29" s="10"/>
       <c r="AU29" s="10"/>
-      <c r="AV29" s="10"/>
-      <c r="AW29" s="75">
+      <c r="AV29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="10"/>
+      <c r="AZ29" s="10"/>
+      <c r="BA29" s="10"/>
+      <c r="BB29" s="10"/>
+      <c r="BC29" s="75">
         <v>60</v>
       </c>
-      <c r="AX29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY29" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ29" s="10" t="s">
+      <c r="BD29" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE29" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF29" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA29" s="10" t="str">
+      <c r="BG29" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 60/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB29" s="10"/>
-      <c r="BC29">
+      <c r="BH29" s="10"/>
+      <c r="BI29">
         <v>6</v>
       </c>
-      <c r="BD29" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE29" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF29" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG29" s="10"/>
-      <c r="BH29" s="10"/>
-      <c r="BI29" s="10"/>
-      <c r="BJ29" s="10"/>
+      <c r="BJ29" s="10">
+        <v>0</v>
+      </c>
       <c r="BK29" s="10">
         <v>0</v>
       </c>
       <c r="BL29" s="10">
         <v>0</v>
       </c>
-      <c r="BM29" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN29" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM29" s="10"/>
+      <c r="BN29" s="10"/>
       <c r="BO29" s="10"/>
       <c r="BP29" s="10"/>
-      <c r="BQ29" s="10"/>
-      <c r="BR29" s="10"/>
+      <c r="BQ29" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR29" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS29" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT29" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU29" s="10"/>
+      <c r="BV29" s="10"/>
+      <c r="BW29" s="10"/>
+      <c r="BX29" s="10"/>
     </row>
-    <row r="30" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F30" s="36">
         <v>10</v>
       </c>
@@ -11537,16 +12129,16 @@
       <c r="Y30" s="10"/>
       <c r="Z30" s="10"/>
       <c r="AA30" s="10"/>
-      <c r="AB30" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="10">
+      <c r="AB30" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC30" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD30" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE30" s="75">
         <v>0</v>
       </c>
       <c r="AF30" s="10">
@@ -11555,84 +12147,102 @@
       <c r="AG30" s="10">
         <v>0</v>
       </c>
-      <c r="AH30" s="10"/>
-      <c r="AI30" s="75">
+      <c r="AH30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="10">
         <v>0</v>
       </c>
       <c r="AJ30" s="10">
         <v>0</v>
       </c>
-      <c r="AK30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="10"/>
-      <c r="AM30" s="10"/>
-      <c r="AN30" s="10"/>
-      <c r="AO30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM30" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN30" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO30" s="75">
+        <v>0</v>
+      </c>
       <c r="AP30" s="10">
         <v>0</v>
       </c>
       <c r="AQ30" s="10">
         <v>0</v>
       </c>
-      <c r="AR30" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR30" s="10"/>
       <c r="AS30" s="10"/>
       <c r="AT30" s="10"/>
       <c r="AU30" s="10"/>
-      <c r="AV30" s="10"/>
-      <c r="AW30" s="75">
+      <c r="AV30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="10"/>
+      <c r="AZ30" s="10"/>
+      <c r="BA30" s="10"/>
+      <c r="BB30" s="10"/>
+      <c r="BC30" s="75">
         <v>50</v>
       </c>
-      <c r="AX30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY30" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ30" s="10" t="s">
+      <c r="BD30" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE30" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF30" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA30" s="10" t="str">
+      <c r="BG30" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 50/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB30" s="10"/>
-      <c r="BC30">
+      <c r="BH30" s="10"/>
+      <c r="BI30">
         <v>6</v>
       </c>
-      <c r="BD30" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE30" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF30" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG30" s="10"/>
-      <c r="BH30" s="10"/>
-      <c r="BI30" s="10"/>
-      <c r="BJ30" s="10"/>
+      <c r="BJ30" s="10">
+        <v>0</v>
+      </c>
       <c r="BK30" s="10">
         <v>0</v>
       </c>
       <c r="BL30" s="10">
         <v>0</v>
       </c>
-      <c r="BM30" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN30" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM30" s="10"/>
+      <c r="BN30" s="10"/>
       <c r="BO30" s="10"/>
       <c r="BP30" s="10"/>
-      <c r="BQ30" s="10"/>
-      <c r="BR30" s="10"/>
+      <c r="BQ30" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR30" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS30" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT30" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU30" s="10"/>
+      <c r="BV30" s="10"/>
+      <c r="BW30" s="10"/>
+      <c r="BX30" s="10"/>
     </row>
-    <row r="31" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F31" s="36">
         <v>6</v>
       </c>
@@ -11683,16 +12293,16 @@
       <c r="Y31" s="10"/>
       <c r="Z31" s="10"/>
       <c r="AA31" s="10"/>
-      <c r="AB31" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE31" s="10">
+      <c r="AB31" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC31" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD31" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE31" s="75">
         <v>0</v>
       </c>
       <c r="AF31" s="10">
@@ -11701,84 +12311,102 @@
       <c r="AG31" s="10">
         <v>0</v>
       </c>
-      <c r="AH31" s="10"/>
-      <c r="AI31" s="75">
+      <c r="AH31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="10">
         <v>0</v>
       </c>
       <c r="AJ31" s="10">
         <v>0</v>
       </c>
-      <c r="AK31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL31" s="10"/>
-      <c r="AM31" s="10"/>
-      <c r="AN31" s="10"/>
-      <c r="AO31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM31" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN31" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO31" s="75">
+        <v>0</v>
+      </c>
       <c r="AP31" s="10">
         <v>0</v>
       </c>
       <c r="AQ31" s="10">
         <v>0</v>
       </c>
-      <c r="AR31" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR31" s="10"/>
       <c r="AS31" s="10"/>
       <c r="AT31" s="10"/>
       <c r="AU31" s="10"/>
-      <c r="AV31" s="10"/>
-      <c r="AW31" s="75">
+      <c r="AV31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="10"/>
+      <c r="AZ31" s="10"/>
+      <c r="BA31" s="10"/>
+      <c r="BB31" s="10"/>
+      <c r="BC31" s="75">
         <v>40</v>
       </c>
-      <c r="AX31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY31" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ31" s="10" t="s">
+      <c r="BD31" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE31" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF31" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA31" s="10" t="str">
+      <c r="BG31" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 40/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB31" s="10"/>
-      <c r="BC31">
+      <c r="BH31" s="10"/>
+      <c r="BI31">
         <v>6</v>
       </c>
-      <c r="BD31" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE31" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF31" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG31" s="10"/>
-      <c r="BH31" s="10"/>
-      <c r="BI31" s="10"/>
-      <c r="BJ31" s="10"/>
+      <c r="BJ31" s="10">
+        <v>0</v>
+      </c>
       <c r="BK31" s="10">
         <v>0</v>
       </c>
       <c r="BL31" s="10">
         <v>0</v>
       </c>
-      <c r="BM31" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN31" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM31" s="10"/>
+      <c r="BN31" s="10"/>
       <c r="BO31" s="10"/>
       <c r="BP31" s="10"/>
-      <c r="BQ31" s="10"/>
-      <c r="BR31" s="10"/>
+      <c r="BQ31" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR31" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS31" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT31" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU31" s="10"/>
+      <c r="BV31" s="10"/>
+      <c r="BW31" s="10"/>
+      <c r="BX31" s="10"/>
     </row>
-    <row r="32" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F32" s="36">
         <v>4</v>
       </c>
@@ -11829,16 +12457,16 @@
       <c r="Y32" s="10"/>
       <c r="Z32" s="10"/>
       <c r="AA32" s="10"/>
-      <c r="AB32" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="10">
+      <c r="AB32" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC32" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD32" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE32" s="75">
         <v>0</v>
       </c>
       <c r="AF32" s="10">
@@ -11847,84 +12475,102 @@
       <c r="AG32" s="10">
         <v>0</v>
       </c>
-      <c r="AH32" s="10"/>
-      <c r="AI32" s="75">
+      <c r="AH32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="10">
         <v>0</v>
       </c>
       <c r="AJ32" s="10">
         <v>0</v>
       </c>
-      <c r="AK32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="10"/>
-      <c r="AM32" s="10"/>
-      <c r="AN32" s="10"/>
-      <c r="AO32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM32" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN32" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO32" s="75">
+        <v>0</v>
+      </c>
       <c r="AP32" s="10">
         <v>0</v>
       </c>
       <c r="AQ32" s="10">
         <v>0</v>
       </c>
-      <c r="AR32" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR32" s="10"/>
       <c r="AS32" s="10"/>
       <c r="AT32" s="10"/>
       <c r="AU32" s="10"/>
-      <c r="AV32" s="10"/>
-      <c r="AW32" s="75">
+      <c r="AV32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="10"/>
+      <c r="AZ32" s="10"/>
+      <c r="BA32" s="10"/>
+      <c r="BB32" s="10"/>
+      <c r="BC32" s="75">
         <v>30</v>
       </c>
-      <c r="AX32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ32" s="10" t="s">
+      <c r="BD32" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE32" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF32" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA32" s="10" t="str">
+      <c r="BG32" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 30/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB32" s="10"/>
-      <c r="BC32">
+      <c r="BH32" s="10"/>
+      <c r="BI32">
         <v>6</v>
       </c>
-      <c r="BD32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG32" s="10"/>
-      <c r="BH32" s="10"/>
-      <c r="BI32" s="10"/>
-      <c r="BJ32" s="10"/>
+      <c r="BJ32" s="10">
+        <v>0</v>
+      </c>
       <c r="BK32" s="10">
         <v>0</v>
       </c>
       <c r="BL32" s="10">
         <v>0</v>
       </c>
-      <c r="BM32" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN32" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM32" s="10"/>
+      <c r="BN32" s="10"/>
       <c r="BO32" s="10"/>
       <c r="BP32" s="10"/>
-      <c r="BQ32" s="10"/>
-      <c r="BR32" s="10"/>
+      <c r="BQ32" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR32" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS32" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT32" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU32" s="10"/>
+      <c r="BV32" s="10"/>
+      <c r="BW32" s="10"/>
+      <c r="BX32" s="10"/>
     </row>
-    <row r="33" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F33" s="36">
         <v>2</v>
       </c>
@@ -11975,16 +12621,16 @@
       <c r="Y33" s="10"/>
       <c r="Z33" s="10"/>
       <c r="AA33" s="10"/>
-      <c r="AB33" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="10">
+      <c r="AB33" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC33" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD33" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE33" s="75">
         <v>0</v>
       </c>
       <c r="AF33" s="10">
@@ -11993,84 +12639,102 @@
       <c r="AG33" s="10">
         <v>0</v>
       </c>
-      <c r="AH33" s="10"/>
-      <c r="AI33" s="75">
+      <c r="AH33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="10">
         <v>0</v>
       </c>
       <c r="AJ33" s="10">
         <v>0</v>
       </c>
-      <c r="AK33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL33" s="10"/>
-      <c r="AM33" s="10"/>
-      <c r="AN33" s="10"/>
-      <c r="AO33" s="10"/>
+      <c r="AK33" s="10"/>
+      <c r="AL33" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM33" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN33" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO33" s="75">
+        <v>0</v>
+      </c>
       <c r="AP33" s="10">
         <v>0</v>
       </c>
       <c r="AQ33" s="10">
         <v>0</v>
       </c>
-      <c r="AR33" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR33" s="10"/>
       <c r="AS33" s="10"/>
       <c r="AT33" s="10"/>
       <c r="AU33" s="10"/>
-      <c r="AV33" s="10"/>
-      <c r="AW33" s="75">
+      <c r="AV33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX33" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="10"/>
+      <c r="AZ33" s="10"/>
+      <c r="BA33" s="10"/>
+      <c r="BB33" s="10"/>
+      <c r="BC33" s="75">
         <v>25</v>
       </c>
-      <c r="AX33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY33" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ33" s="10" t="s">
+      <c r="BD33" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE33" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF33" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA33" s="10" t="str">
+      <c r="BG33" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 25/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB33" s="10"/>
-      <c r="BC33">
+      <c r="BH33" s="10"/>
+      <c r="BI33">
         <v>6</v>
       </c>
-      <c r="BD33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG33" s="10"/>
-      <c r="BH33" s="10"/>
-      <c r="BI33" s="10"/>
-      <c r="BJ33" s="10"/>
+      <c r="BJ33" s="10">
+        <v>0</v>
+      </c>
       <c r="BK33" s="10">
         <v>0</v>
       </c>
       <c r="BL33" s="10">
         <v>0</v>
       </c>
-      <c r="BM33" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN33" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM33" s="10"/>
+      <c r="BN33" s="10"/>
       <c r="BO33" s="10"/>
       <c r="BP33" s="10"/>
-      <c r="BQ33" s="10"/>
-      <c r="BR33" s="10"/>
+      <c r="BQ33" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR33" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS33" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT33" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU33" s="10"/>
+      <c r="BV33" s="10"/>
+      <c r="BW33" s="10"/>
+      <c r="BX33" s="10"/>
     </row>
-    <row r="34" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F34" s="36">
         <v>1.6</v>
       </c>
@@ -12121,16 +12785,16 @@
       <c r="Y34" s="10"/>
       <c r="Z34" s="10"/>
       <c r="AA34" s="10"/>
-      <c r="AB34" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="10">
+      <c r="AB34" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC34" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD34" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE34" s="75">
         <v>0</v>
       </c>
       <c r="AF34" s="10">
@@ -12139,84 +12803,102 @@
       <c r="AG34" s="10">
         <v>0</v>
       </c>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="75">
+      <c r="AH34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="10">
         <v>0</v>
       </c>
       <c r="AJ34" s="10">
         <v>0</v>
       </c>
-      <c r="AK34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL34" s="10"/>
-      <c r="AM34" s="10"/>
-      <c r="AN34" s="10"/>
-      <c r="AO34" s="10"/>
+      <c r="AK34" s="10"/>
+      <c r="AL34" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM34" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN34" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO34" s="75">
+        <v>0</v>
+      </c>
       <c r="AP34" s="10">
         <v>0</v>
       </c>
       <c r="AQ34" s="10">
         <v>0</v>
       </c>
-      <c r="AR34" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR34" s="10"/>
       <c r="AS34" s="10"/>
       <c r="AT34" s="10"/>
       <c r="AU34" s="10"/>
-      <c r="AV34" s="10"/>
-      <c r="AW34" s="75">
+      <c r="AV34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="10"/>
+      <c r="AZ34" s="10"/>
+      <c r="BA34" s="10"/>
+      <c r="BB34" s="10"/>
+      <c r="BC34" s="75">
         <v>20</v>
       </c>
-      <c r="AX34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY34" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ34" s="10" t="s">
+      <c r="BD34" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE34" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF34" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA34" s="10" t="str">
+      <c r="BG34" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 20/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB34" s="10"/>
-      <c r="BC34">
+      <c r="BH34" s="10"/>
+      <c r="BI34">
         <v>6</v>
       </c>
-      <c r="BD34" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE34" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF34" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG34" s="10"/>
-      <c r="BH34" s="10"/>
-      <c r="BI34" s="10"/>
-      <c r="BJ34" s="10"/>
+      <c r="BJ34" s="10">
+        <v>0</v>
+      </c>
       <c r="BK34" s="10">
         <v>0</v>
       </c>
       <c r="BL34" s="10">
         <v>0</v>
       </c>
-      <c r="BM34" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN34" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM34" s="10"/>
+      <c r="BN34" s="10"/>
       <c r="BO34" s="10"/>
       <c r="BP34" s="10"/>
-      <c r="BQ34" s="10"/>
-      <c r="BR34" s="10"/>
+      <c r="BQ34" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR34" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS34" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT34" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU34" s="10"/>
+      <c r="BV34" s="10"/>
+      <c r="BW34" s="10"/>
+      <c r="BX34" s="10"/>
     </row>
-    <row r="35" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F35" s="41">
         <v>1</v>
       </c>
@@ -12267,16 +12949,16 @@
       <c r="Y35" s="10"/>
       <c r="Z35" s="10"/>
       <c r="AA35" s="10"/>
-      <c r="AB35" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC35" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD35" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE35" s="10">
+      <c r="AB35" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC35" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD35" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE35" s="75">
         <v>0</v>
       </c>
       <c r="AF35" s="10">
@@ -12285,84 +12967,102 @@
       <c r="AG35" s="10">
         <v>0</v>
       </c>
-      <c r="AH35" s="10"/>
-      <c r="AI35" s="75">
+      <c r="AH35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="10">
         <v>0</v>
       </c>
       <c r="AJ35" s="10">
         <v>0</v>
       </c>
-      <c r="AK35" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL35" s="10"/>
-      <c r="AM35" s="10"/>
-      <c r="AN35" s="10"/>
-      <c r="AO35" s="10"/>
+      <c r="AK35" s="10"/>
+      <c r="AL35" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM35" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN35" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO35" s="75">
+        <v>0</v>
+      </c>
       <c r="AP35" s="10">
         <v>0</v>
       </c>
       <c r="AQ35" s="10">
         <v>0</v>
       </c>
-      <c r="AR35" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR35" s="10"/>
       <c r="AS35" s="10"/>
       <c r="AT35" s="10"/>
       <c r="AU35" s="10"/>
-      <c r="AV35" s="10"/>
-      <c r="AW35" s="75">
+      <c r="AV35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="10"/>
+      <c r="AZ35" s="10"/>
+      <c r="BA35" s="10"/>
+      <c r="BB35" s="10"/>
+      <c r="BC35" s="75">
         <v>15</v>
       </c>
-      <c r="AX35" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY35" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ35" s="10" t="s">
+      <c r="BD35" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE35" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF35" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA35" s="10" t="str">
+      <c r="BG35" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 15/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB35" s="10"/>
-      <c r="BC35">
+      <c r="BH35" s="10"/>
+      <c r="BI35">
         <v>6</v>
       </c>
-      <c r="BD35" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE35" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF35" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG35" s="10"/>
-      <c r="BH35" s="10"/>
-      <c r="BI35" s="10"/>
-      <c r="BJ35" s="10"/>
+      <c r="BJ35" s="10">
+        <v>0</v>
+      </c>
       <c r="BK35" s="10">
         <v>0</v>
       </c>
       <c r="BL35" s="10">
         <v>0</v>
       </c>
-      <c r="BM35" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN35" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM35" s="10"/>
+      <c r="BN35" s="10"/>
       <c r="BO35" s="10"/>
       <c r="BP35" s="10"/>
-      <c r="BQ35" s="10"/>
-      <c r="BR35" s="10"/>
+      <c r="BQ35" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR35" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS35" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT35" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU35" s="10"/>
+      <c r="BV35" s="10"/>
+      <c r="BW35" s="10"/>
+      <c r="BX35" s="10"/>
     </row>
-    <row r="36" spans="6:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F36" s="42">
         <v>0.4</v>
       </c>
@@ -12413,16 +13113,16 @@
       <c r="Y36" s="10"/>
       <c r="Z36" s="10"/>
       <c r="AA36" s="10"/>
-      <c r="AB36" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE36" s="10">
+      <c r="AB36" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC36" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD36" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE36" s="75">
         <v>0</v>
       </c>
       <c r="AF36" s="10">
@@ -12431,84 +13131,102 @@
       <c r="AG36" s="10">
         <v>0</v>
       </c>
-      <c r="AH36" s="10"/>
-      <c r="AI36" s="75">
+      <c r="AH36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="10">
         <v>0</v>
       </c>
       <c r="AJ36" s="10">
         <v>0</v>
       </c>
-      <c r="AK36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL36" s="10"/>
-      <c r="AM36" s="10"/>
-      <c r="AN36" s="10"/>
-      <c r="AO36" s="10"/>
+      <c r="AK36" s="10"/>
+      <c r="AL36" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM36" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN36" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO36" s="75">
+        <v>0</v>
+      </c>
       <c r="AP36" s="10">
         <v>0</v>
       </c>
       <c r="AQ36" s="10">
         <v>0</v>
       </c>
-      <c r="AR36" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR36" s="10"/>
       <c r="AS36" s="10"/>
       <c r="AT36" s="10"/>
       <c r="AU36" s="10"/>
-      <c r="AV36" s="10"/>
-      <c r="AW36" s="75">
+      <c r="AV36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="10"/>
+      <c r="AZ36" s="10"/>
+      <c r="BA36" s="10"/>
+      <c r="BB36" s="10"/>
+      <c r="BC36" s="75">
         <v>10</v>
       </c>
-      <c r="AX36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY36" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ36" s="10" t="s">
+      <c r="BD36" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE36" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF36" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA36" s="10" t="str">
+      <c r="BG36" s="10" t="str">
         <f t="shared" si="1"/>
         <v>ТТИ-А 10/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB36" s="10"/>
-      <c r="BC36">
+      <c r="BH36" s="10"/>
+      <c r="BI36">
         <v>6</v>
       </c>
-      <c r="BD36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG36" s="10"/>
-      <c r="BH36" s="10"/>
-      <c r="BI36" s="10"/>
-      <c r="BJ36" s="10"/>
+      <c r="BJ36" s="10">
+        <v>0</v>
+      </c>
       <c r="BK36" s="10">
         <v>0</v>
       </c>
       <c r="BL36" s="10">
         <v>0</v>
       </c>
-      <c r="BM36" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN36" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM36" s="10"/>
+      <c r="BN36" s="10"/>
       <c r="BO36" s="10"/>
       <c r="BP36" s="10"/>
-      <c r="BQ36" s="10"/>
-      <c r="BR36" s="10"/>
+      <c r="BQ36" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR36" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS36" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT36" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU36" s="10"/>
+      <c r="BV36" s="10"/>
+      <c r="BW36" s="10"/>
+      <c r="BX36" s="10"/>
     </row>
-    <row r="37" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:76" x14ac:dyDescent="0.25">
       <c r="K37" s="10">
         <v>0.4</v>
       </c>
@@ -12550,16 +13268,16 @@
       <c r="Y37" s="10"/>
       <c r="Z37" s="10"/>
       <c r="AA37" s="10"/>
-      <c r="AB37" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="10">
+      <c r="AB37" s="105" t="s">
+        <v>379</v>
+      </c>
+      <c r="AC37" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AD37" s="105">
+        <v>150</v>
+      </c>
+      <c r="AE37" s="75">
         <v>0</v>
       </c>
       <c r="AF37" s="10">
@@ -12568,84 +13286,102 @@
       <c r="AG37" s="10">
         <v>0</v>
       </c>
-      <c r="AH37" s="10"/>
-      <c r="AI37" s="75">
+      <c r="AH37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="10">
         <v>0</v>
       </c>
       <c r="AJ37" s="10">
         <v>0</v>
       </c>
-      <c r="AK37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL37" s="10"/>
-      <c r="AM37" s="10"/>
-      <c r="AN37" s="10"/>
-      <c r="AO37" s="10"/>
+      <c r="AK37" s="10"/>
+      <c r="AL37" s="105" t="s">
+        <v>375</v>
+      </c>
+      <c r="AM37" s="105">
+        <v>12.5</v>
+      </c>
+      <c r="AN37" s="105">
+        <v>150</v>
+      </c>
+      <c r="AO37" s="75">
+        <v>0</v>
+      </c>
       <c r="AP37" s="10">
         <v>0</v>
       </c>
       <c r="AQ37" s="10">
         <v>0</v>
       </c>
-      <c r="AR37" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR37" s="10"/>
       <c r="AS37" s="10"/>
       <c r="AT37" s="10"/>
       <c r="AU37" s="10"/>
-      <c r="AV37" s="10"/>
-      <c r="AW37" s="75">
+      <c r="AV37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="10"/>
+      <c r="AZ37" s="10"/>
+      <c r="BA37" s="10"/>
+      <c r="BB37" s="10"/>
+      <c r="BC37" s="75">
         <v>5</v>
       </c>
-      <c r="AX37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AY37" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ37" s="10" t="s">
+      <c r="BD37" s="10">
+        <v>0</v>
+      </c>
+      <c r="BE37" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF37" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="BA37" s="10" t="str">
-        <f>"ТТИ-А "&amp;AW37&amp;"/5А 5ВА 0,5S"</f>
+      <c r="BG37" s="10" t="str">
+        <f>"ТТИ-А "&amp;BC37&amp;"/5А 5ВА 0,5S"</f>
         <v>ТТИ-А 5/5А 5ВА 0,5S</v>
       </c>
-      <c r="BB37" s="10"/>
-      <c r="BC37">
+      <c r="BH37" s="10"/>
+      <c r="BI37">
         <v>6</v>
       </c>
-      <c r="BD37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BG37" s="10"/>
-      <c r="BH37" s="10"/>
-      <c r="BI37" s="10"/>
-      <c r="BJ37" s="10"/>
+      <c r="BJ37" s="10">
+        <v>0</v>
+      </c>
       <c r="BK37" s="10">
         <v>0</v>
       </c>
       <c r="BL37" s="10">
         <v>0</v>
       </c>
-      <c r="BM37" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN37" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM37" s="10"/>
+      <c r="BN37" s="10"/>
       <c r="BO37" s="10"/>
       <c r="BP37" s="10"/>
-      <c r="BQ37" s="10"/>
-      <c r="BR37" s="10"/>
+      <c r="BQ37" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR37" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS37" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT37" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU37" s="10"/>
+      <c r="BV37" s="10"/>
+      <c r="BW37" s="10"/>
+      <c r="BX37" s="10"/>
     </row>
-    <row r="38" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:76" x14ac:dyDescent="0.25">
       <c r="K38" s="10">
         <v>0</v>
       </c>
@@ -12683,16 +13419,10 @@
       <c r="Y38" s="10"/>
       <c r="Z38" s="10"/>
       <c r="AA38" s="10"/>
-      <c r="AB38" s="75">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="10">
+      <c r="AB38" s="105"/>
+      <c r="AC38" s="105"/>
+      <c r="AD38" s="105"/>
+      <c r="AE38" s="75">
         <v>0</v>
       </c>
       <c r="AF38" s="10">
@@ -12701,85 +13431,97 @@
       <c r="AG38" s="10">
         <v>0</v>
       </c>
-      <c r="AH38" s="10"/>
+      <c r="AH38" s="10">
+        <v>0</v>
+      </c>
       <c r="AI38" s="10">
         <v>0</v>
       </c>
       <c r="AJ38" s="10">
         <v>0</v>
       </c>
-      <c r="AK38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AL38" s="10"/>
-      <c r="AM38" s="10"/>
-      <c r="AN38" s="10"/>
-      <c r="AO38" s="10"/>
+      <c r="AK38" s="10"/>
+      <c r="AL38" s="105"/>
+      <c r="AM38" s="105"/>
+      <c r="AN38" s="105"/>
+      <c r="AO38" s="10">
+        <v>0</v>
+      </c>
       <c r="AP38" s="10">
         <v>0</v>
       </c>
-      <c r="AQ38" s="75">
-        <v>0</v>
-      </c>
-      <c r="AR38" s="10">
-        <v>0</v>
-      </c>
+      <c r="AQ38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="10"/>
       <c r="AS38" s="10"/>
       <c r="AT38" s="10"/>
       <c r="AU38" s="10"/>
-      <c r="AV38" s="10"/>
-      <c r="AW38" s="10">
-        <v>0</v>
-      </c>
-      <c r="AX38" s="75">
-        <v>0</v>
-      </c>
-      <c r="AY38" s="10">
-        <v>0</v>
-      </c>
+      <c r="AV38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="75">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="10"/>
       <c r="AZ38" s="10"/>
       <c r="BA38" s="10"/>
       <c r="BB38" s="10"/>
-      <c r="BC38" s="10"/>
-      <c r="BD38" s="10">
-        <v>0</v>
-      </c>
-      <c r="BE38" s="75">
-        <v>0</v>
-      </c>
-      <c r="BF38" s="10">
-        <v>0</v>
-      </c>
+      <c r="BC38" s="10">
+        <v>0</v>
+      </c>
+      <c r="BD38" s="75">
+        <v>0</v>
+      </c>
+      <c r="BE38" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF38" s="10"/>
       <c r="BG38" s="10"/>
       <c r="BH38" s="10"/>
       <c r="BI38" s="10"/>
-      <c r="BJ38" s="10"/>
-      <c r="BK38" s="10">
+      <c r="BJ38" s="10">
+        <v>0</v>
+      </c>
+      <c r="BK38" s="75">
         <v>0</v>
       </c>
       <c r="BL38" s="10">
         <v>0</v>
       </c>
-      <c r="BM38" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN38" s="10">
-        <v>0</v>
-      </c>
+      <c r="BM38" s="10"/>
+      <c r="BN38" s="10"/>
       <c r="BO38" s="10"/>
       <c r="BP38" s="10"/>
-      <c r="BQ38" s="10"/>
-      <c r="BR38" s="10"/>
+      <c r="BQ38" s="10">
+        <v>0</v>
+      </c>
+      <c r="BR38" s="10">
+        <v>0</v>
+      </c>
+      <c r="BS38" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT38" s="10">
+        <v>0</v>
+      </c>
+      <c r="BU38" s="10"/>
+      <c r="BV38" s="10"/>
+      <c r="BW38" s="10"/>
+      <c r="BX38" s="10"/>
     </row>
-    <row r="41" spans="6:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="6:70" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F42" s="108" t="s">
+    <row r="41" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="6:76" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" s="109" t="s">
         <v>188</v>
       </c>
-      <c r="G42" s="109"/>
-      <c r="H42" s="110"/>
+      <c r="G42" s="110"/>
+      <c r="H42" s="111"/>
     </row>
-    <row r="43" spans="6:70" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:76" ht="31.5" x14ac:dyDescent="0.25">
       <c r="F43" s="45" t="s">
         <v>109</v>
       </c>
@@ -12790,35 +13532,35 @@
         <v>111</v>
       </c>
     </row>
-    <row r="44" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F44" s="36">
         <v>125</v>
       </c>
       <c r="G44" s="37"/>
       <c r="H44" s="38"/>
     </row>
-    <row r="45" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F45" s="36">
         <v>100</v>
       </c>
       <c r="G45" s="37"/>
       <c r="H45" s="38"/>
     </row>
-    <row r="46" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F46" s="36">
         <v>63</v>
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="38"/>
     </row>
-    <row r="47" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F47" s="36">
         <v>40</v>
       </c>
       <c r="G47" s="37"/>
       <c r="H47" s="38"/>
     </row>
-    <row r="48" spans="6:70" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:76" x14ac:dyDescent="0.25">
       <c r="F48" s="36">
         <v>32</v>
       </c>
@@ -12844,19 +13586,19 @@
         <v>156</v>
       </c>
       <c r="H61">
-        <f>INDEX(BD!$AC$7:$AC$11974,MATCH(BK24,BD!$AC$7:$AC$11974,-1))</f>
+        <f>INDEX(BD!$AF$7:$AF$11974,MATCH(BQ24,BD!$AF$7:$AF$11974,-1))</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="6:8" x14ac:dyDescent="0.25">
       <c r="H63" t="e">
-        <f>MATCH(G61,K4:BR4,0)</f>
+        <f>MATCH(G61,K4:BX4,0)</f>
         <v>#N/A</v>
       </c>
     </row>
     <row r="65" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G65" t="e">
-        <f>HLOOKUP(G61,K4:BR13,2,FALSE)</f>
+        <f>HLOOKUP(G61,K4:BX13,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -12872,121 +13614,131 @@
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="F42:H42"/>
-    <mergeCell ref="K3:BR3"/>
+    <mergeCell ref="K3:BX3"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
-  <conditionalFormatting sqref="K6:M37 U13:Z37 U6:W12 Y6:AD6 Y7:Z12 AA7:AD37 BD6:BL37 BO6:BR37 AQ6:BA6 AI13:BB37 AI6:AO12 AP8:AP12 AQ7:BB12">
+  <conditionalFormatting sqref="K6:M37 U13:Z37 U6:W12 Y6:AA6 Y7:Z12 AA7:AA37 BJ6:BR37 BU6:BX37 AW6:BG6 AO13:BH37 AO6:AU12 AV8:AV12 AW7:BH12 AE6:AG37">
+    <cfRule type="cellIs" dxfId="127" priority="25" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K38:M38 U38:AG38 AO38:AP38">
+    <cfRule type="cellIs" dxfId="126" priority="24" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ38:AW38">
     <cfRule type="cellIs" dxfId="125" priority="23" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38:M38 U38:AD38 AI38:AJ38">
+  <conditionalFormatting sqref="AX38:BR38 BU38:BX38">
     <cfRule type="cellIs" dxfId="124" priority="22" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AK38:AQ38">
+  <conditionalFormatting sqref="N6:T37">
     <cfRule type="cellIs" dxfId="123" priority="21" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AR38:BL38 BO38:BR38">
+  <conditionalFormatting sqref="N38:T38">
     <cfRule type="cellIs" dxfId="122" priority="20" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N6:T37">
+  <conditionalFormatting sqref="AH6:AI15">
     <cfRule type="cellIs" dxfId="121" priority="19" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N38:T38">
+  <conditionalFormatting sqref="AJ38:AN38">
     <cfRule type="cellIs" dxfId="120" priority="18" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE6:AF15">
+  <conditionalFormatting sqref="AH16:AH37">
     <cfRule type="cellIs" dxfId="119" priority="17" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG38:AH38">
+  <conditionalFormatting sqref="AH38">
     <cfRule type="cellIs" dxfId="118" priority="16" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE16:AE37">
+  <conditionalFormatting sqref="AI16:AI37">
     <cfRule type="cellIs" dxfId="117" priority="15" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE38">
+  <conditionalFormatting sqref="AI38">
     <cfRule type="cellIs" dxfId="116" priority="14" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF16:AF37">
+  <conditionalFormatting sqref="AJ6:AK6 AJ7 AK7:AK15">
     <cfRule type="cellIs" dxfId="115" priority="13" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AF38">
+  <conditionalFormatting sqref="AJ8:AJ11">
     <cfRule type="cellIs" dxfId="114" priority="12" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG6:AH6 AG7 AH7:AH15">
+  <conditionalFormatting sqref="AJ12:AJ14">
     <cfRule type="cellIs" dxfId="113" priority="11" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG8:AG11">
+  <conditionalFormatting sqref="AJ16:AK36 AJ15">
     <cfRule type="cellIs" dxfId="112" priority="10" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG12:AG14">
+  <conditionalFormatting sqref="AJ37:AK37">
     <cfRule type="cellIs" dxfId="111" priority="9" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG16:AH36 AG15">
+  <conditionalFormatting sqref="BS6:BS37">
     <cfRule type="cellIs" dxfId="110" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG37:AH37">
+  <conditionalFormatting sqref="BS38">
     <cfRule type="cellIs" dxfId="109" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM6:BM37">
+  <conditionalFormatting sqref="BT6:BT37">
     <cfRule type="cellIs" dxfId="108" priority="6" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BM38">
+  <conditionalFormatting sqref="BT38">
     <cfRule type="cellIs" dxfId="107" priority="5" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN6:BN37">
+  <conditionalFormatting sqref="X6:X12">
     <cfRule type="cellIs" dxfId="106" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BN38">
+  <conditionalFormatting sqref="AV6:AV7">
     <cfRule type="cellIs" dxfId="105" priority="3" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X6:X12">
+  <conditionalFormatting sqref="AL6:AN37">
     <cfRule type="cellIs" dxfId="104" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP6:AP7">
-    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
+  <conditionalFormatting sqref="AB6:AD37">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13007,41 +13759,41 @@
   <sheetData>
     <row r="1" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:34" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="114" t="s">
         <v>142</v>
       </c>
-      <c r="C2" s="114"/>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="114"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="114"/>
-      <c r="I2" s="114"/>
-      <c r="J2" s="114"/>
-      <c r="K2" s="114"/>
-      <c r="L2" s="114"/>
-      <c r="M2" s="114"/>
-      <c r="N2" s="114"/>
-      <c r="O2" s="114"/>
-      <c r="P2" s="114"/>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="114"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="114"/>
-      <c r="U2" s="114"/>
-      <c r="V2" s="114"/>
-      <c r="W2" s="114"/>
-      <c r="X2" s="114"/>
-      <c r="Y2" s="114"/>
-      <c r="Z2" s="114"/>
-      <c r="AA2" s="114"/>
-      <c r="AB2" s="114"/>
-      <c r="AC2" s="114"/>
-      <c r="AD2" s="114"/>
-      <c r="AE2" s="114"/>
-      <c r="AF2" s="114"/>
-      <c r="AG2" s="114"/>
-      <c r="AH2" s="115"/>
+      <c r="C2" s="115"/>
+      <c r="D2" s="115"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="115"/>
+      <c r="O2" s="115"/>
+      <c r="P2" s="115"/>
+      <c r="Q2" s="115"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
+      <c r="AA2" s="115"/>
+      <c r="AB2" s="115"/>
+      <c r="AC2" s="115"/>
+      <c r="AD2" s="115"/>
+      <c r="AE2" s="115"/>
+      <c r="AF2" s="115"/>
+      <c r="AG2" s="115"/>
+      <c r="AH2" s="116"/>
     </row>
     <row r="3" spans="2:34" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="54" t="s">
@@ -13982,49 +14734,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="116"/>
-      <c r="P1" s="116"/>
-      <c r="Q1" s="116"/>
-      <c r="R1" s="116"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="117"/>
+      <c r="R1" s="117"/>
     </row>
     <row r="2" spans="1:18" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="33"/>
       <c r="B2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="117" t="s">
+      <c r="C2" s="118" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="117"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="117"/>
-      <c r="G2" s="117"/>
-      <c r="H2" s="117"/>
-      <c r="I2" s="117"/>
-      <c r="J2" s="117"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
-      <c r="M2" s="117"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="117"/>
-      <c r="P2" s="117"/>
-      <c r="Q2" s="117"/>
-      <c r="R2" s="118"/>
+      <c r="D2" s="118"/>
+      <c r="E2" s="118"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="118"/>
+      <c r="I2" s="118"/>
+      <c r="J2" s="118"/>
+      <c r="K2" s="118"/>
+      <c r="L2" s="118"/>
+      <c r="M2" s="118"/>
+      <c r="N2" s="118"/>
+      <c r="O2" s="118"/>
+      <c r="P2" s="118"/>
+      <c r="Q2" s="118"/>
+      <c r="R2" s="119"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="21"/>
@@ -14520,20 +15272,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D1" s="119" t="s">
+      <c r="D1" s="120" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="119"/>
-      <c r="F1" s="119"/>
-      <c r="G1" s="119"/>
-      <c r="H1" s="119"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
@@ -14607,216 +15359,216 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="8" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E8" s="120" t="s">
+      <c r="E8" s="121" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
-      <c r="M8" s="120"/>
-      <c r="N8" s="120"/>
-      <c r="O8" s="120"/>
-      <c r="P8" s="120"/>
+      <c r="F8" s="121"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="121"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="121"/>
+      <c r="K8" s="121"/>
+      <c r="L8" s="121"/>
+      <c r="M8" s="121"/>
+      <c r="N8" s="121"/>
+      <c r="O8" s="121"/>
+      <c r="P8" s="121"/>
     </row>
     <row r="9" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
-      <c r="M9" s="120"/>
-      <c r="N9" s="120"/>
-      <c r="O9" s="120"/>
-      <c r="P9" s="120"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
+      <c r="G9" s="121"/>
+      <c r="H9" s="121"/>
+      <c r="I9" s="121"/>
+      <c r="J9" s="121"/>
+      <c r="K9" s="121"/>
+      <c r="L9" s="121"/>
+      <c r="M9" s="121"/>
+      <c r="N9" s="121"/>
+      <c r="O9" s="121"/>
+      <c r="P9" s="121"/>
     </row>
     <row r="10" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="120"/>
-      <c r="N10" s="120"/>
-      <c r="O10" s="120"/>
-      <c r="P10" s="120"/>
+      <c r="E10" s="121"/>
+      <c r="F10" s="121"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="121"/>
+      <c r="O10" s="121"/>
+      <c r="P10" s="121"/>
     </row>
     <row r="11" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
-      <c r="K11" s="120"/>
-      <c r="L11" s="120"/>
-      <c r="M11" s="120"/>
-      <c r="N11" s="120"/>
-      <c r="O11" s="120"/>
-      <c r="P11" s="120"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="121"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="121"/>
+      <c r="N11" s="121"/>
+      <c r="O11" s="121"/>
+      <c r="P11" s="121"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
-      <c r="K12" s="120"/>
-      <c r="L12" s="120"/>
-      <c r="M12" s="120"/>
-      <c r="N12" s="120"/>
-      <c r="O12" s="120"/>
-      <c r="P12" s="120"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="121"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="121"/>
+      <c r="K12" s="121"/>
+      <c r="L12" s="121"/>
+      <c r="M12" s="121"/>
+      <c r="N12" s="121"/>
+      <c r="O12" s="121"/>
+      <c r="P12" s="121"/>
     </row>
     <row r="13" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E13" s="120"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="120"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="120"/>
-      <c r="K13" s="120"/>
-      <c r="L13" s="120"/>
-      <c r="M13" s="120"/>
-      <c r="N13" s="120"/>
-      <c r="O13" s="120"/>
-      <c r="P13" s="120"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="121"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="121"/>
+      <c r="L13" s="121"/>
+      <c r="M13" s="121"/>
+      <c r="N13" s="121"/>
+      <c r="O13" s="121"/>
+      <c r="P13" s="121"/>
     </row>
     <row r="14" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E14" s="120"/>
-      <c r="F14" s="120"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="120"/>
-      <c r="K14" s="120"/>
-      <c r="L14" s="120"/>
-      <c r="M14" s="120"/>
-      <c r="N14" s="120"/>
-      <c r="O14" s="120"/>
-      <c r="P14" s="120"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="121"/>
+      <c r="I14" s="121"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="121"/>
+      <c r="L14" s="121"/>
+      <c r="M14" s="121"/>
+      <c r="N14" s="121"/>
+      <c r="O14" s="121"/>
+      <c r="P14" s="121"/>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
-      <c r="K15" s="120"/>
-      <c r="L15" s="120"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="120"/>
-      <c r="O15" s="120"/>
-      <c r="P15" s="120"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="121"/>
+      <c r="I15" s="121"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="121"/>
+      <c r="L15" s="121"/>
+      <c r="M15" s="121"/>
+      <c r="N15" s="121"/>
+      <c r="O15" s="121"/>
+      <c r="P15" s="121"/>
     </row>
     <row r="16" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E16" s="120"/>
-      <c r="F16" s="120"/>
-      <c r="G16" s="120"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="120"/>
-      <c r="K16" s="120"/>
-      <c r="L16" s="120"/>
-      <c r="M16" s="120"/>
-      <c r="N16" s="120"/>
-      <c r="O16" s="120"/>
-      <c r="P16" s="120"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="121"/>
+      <c r="I16" s="121"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="121"/>
+      <c r="L16" s="121"/>
+      <c r="M16" s="121"/>
+      <c r="N16" s="121"/>
+      <c r="O16" s="121"/>
+      <c r="P16" s="121"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="120"/>
-      <c r="F17" s="120"/>
-      <c r="G17" s="120"/>
-      <c r="H17" s="120"/>
-      <c r="I17" s="120"/>
-      <c r="J17" s="120"/>
-      <c r="K17" s="120"/>
-      <c r="L17" s="120"/>
-      <c r="M17" s="120"/>
-      <c r="N17" s="120"/>
-      <c r="O17" s="120"/>
-      <c r="P17" s="120"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="121"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="121"/>
+      <c r="K17" s="121"/>
+      <c r="L17" s="121"/>
+      <c r="M17" s="121"/>
+      <c r="N17" s="121"/>
+      <c r="O17" s="121"/>
+      <c r="P17" s="121"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E18" s="120"/>
-      <c r="F18" s="120"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="120"/>
-      <c r="I18" s="120"/>
-      <c r="J18" s="120"/>
-      <c r="K18" s="120"/>
-      <c r="L18" s="120"/>
-      <c r="M18" s="120"/>
-      <c r="N18" s="120"/>
-      <c r="O18" s="120"/>
-      <c r="P18" s="120"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="121"/>
+      <c r="K18" s="121"/>
+      <c r="L18" s="121"/>
+      <c r="M18" s="121"/>
+      <c r="N18" s="121"/>
+      <c r="O18" s="121"/>
+      <c r="P18" s="121"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="120"/>
-      <c r="F19" s="120"/>
-      <c r="G19" s="120"/>
-      <c r="H19" s="120"/>
-      <c r="I19" s="120"/>
-      <c r="J19" s="120"/>
-      <c r="K19" s="120"/>
-      <c r="L19" s="120"/>
-      <c r="M19" s="120"/>
-      <c r="N19" s="120"/>
-      <c r="O19" s="120"/>
-      <c r="P19" s="120"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="121"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="121"/>
+      <c r="K19" s="121"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="121"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="121"/>
+      <c r="P19" s="121"/>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E20" s="120"/>
-      <c r="F20" s="120"/>
-      <c r="G20" s="120"/>
-      <c r="H20" s="120"/>
-      <c r="I20" s="120"/>
-      <c r="J20" s="120"/>
-      <c r="K20" s="120"/>
-      <c r="L20" s="120"/>
-      <c r="M20" s="120"/>
-      <c r="N20" s="120"/>
-      <c r="O20" s="120"/>
-      <c r="P20" s="120"/>
+      <c r="E20" s="121"/>
+      <c r="F20" s="121"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="121"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="121"/>
+      <c r="K20" s="121"/>
+      <c r="L20" s="121"/>
+      <c r="M20" s="121"/>
+      <c r="N20" s="121"/>
+      <c r="O20" s="121"/>
+      <c r="P20" s="121"/>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="120"/>
-      <c r="F21" s="120"/>
-      <c r="G21" s="120"/>
-      <c r="H21" s="120"/>
-      <c r="I21" s="120"/>
-      <c r="J21" s="120"/>
-      <c r="K21" s="120"/>
-      <c r="L21" s="120"/>
-      <c r="M21" s="120"/>
-      <c r="N21" s="120"/>
-      <c r="O21" s="120"/>
-      <c r="P21" s="120"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="121"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="121"/>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="120"/>
-      <c r="F22" s="120"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="120"/>
-      <c r="I22" s="120"/>
-      <c r="J22" s="120"/>
-      <c r="K22" s="120"/>
-      <c r="L22" s="120"/>
-      <c r="M22" s="120"/>
-      <c r="N22" s="120"/>
-      <c r="O22" s="120"/>
-      <c r="P22" s="120"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="121"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="121"/>
+      <c r="K22" s="121"/>
+      <c r="L22" s="121"/>
+      <c r="M22" s="121"/>
+      <c r="N22" s="121"/>
+      <c r="O22" s="121"/>
+      <c r="P22" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO2.xlsx
+++ b/environment/runtimefiles/zcadelectrotech/preload/xlsxtemplates/modelinxlsx/EMO2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\zcad\zcad\environment\runtimefiles\zcadelectrotech\preload\xlsxtemplates\modelinxlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49107703-AFE7-4B3B-BD36-37D69F8828F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43DB8C3D-F83C-43EC-A45D-06CAC45472A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14880" yWindow="5460" windowWidth="28005" windowHeight="14670" firstSheet="2" activeTab="3" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
+    <workbookView xWindow="17925" yWindow="2490" windowWidth="16695" windowHeight="11580" firstSheet="8" activeTab="11" xr2:uid="{456AB35E-0355-4F16-B1D8-5CF582B696FE}"/>
   </bookViews>
   <sheets>
     <sheet name="&lt;workbook&gt;SET" sheetId="7" r:id="rId1"/>
@@ -3294,6 +3294,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -3350,9 +3353,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3360,16 +3360,6 @@
     <cellStyle name="Обычный_расчет нагрузки" xfId="1" xr:uid="{2A78680A-EF87-4AAC-8D9D-BEC6B0A95A74}"/>
   </cellStyles>
   <dxfs count="128">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4337,6 +4327,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4942,8 +4942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D8C22C-893A-456C-B6B4-5CEC07C317DD}">
   <dimension ref="C1:EJ24"/>
   <sheetViews>
-    <sheetView topLeftCell="DI1" workbookViewId="0">
-      <selection activeCell="EI25" sqref="EI25"/>
+    <sheetView tabSelected="1" topLeftCell="L7" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5304,6 +5304,7 @@
       <c r="R15" s="126"/>
       <c r="S15" s="126"/>
       <c r="T15" s="126" t="e">
+        <f ca="1">ROUNDUP((T6*1000)/(VLOOKUP(H11,BD!$B$4:$C$5,2,FALSE)*T8),2)</f>
         <v>#VALUE!</v>
       </c>
       <c r="U15" s="126"/>
@@ -5406,12 +5407,12 @@
       <c r="I22" s="143" t="s">
         <v>194</v>
       </c>
-      <c r="J22" s="148" t="s">
+      <c r="J22" s="149" t="s">
         <v>329</v>
       </c>
-      <c r="K22" s="148"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="149" t="s">
+      <c r="K22" s="149"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="150" t="s">
         <v>334</v>
       </c>
       <c r="O22" s="139" t="s">
@@ -5428,66 +5429,66 @@
       <c r="X22" s="140"/>
       <c r="Y22" s="140"/>
       <c r="Z22" s="140"/>
-      <c r="AA22" s="145" t="s">
+      <c r="AA22" s="146" t="s">
         <v>49</v>
       </c>
-      <c r="AB22" s="146"/>
-      <c r="AC22" s="146"/>
-      <c r="AD22" s="146"/>
-      <c r="AE22" s="146"/>
-      <c r="AF22" s="146"/>
-      <c r="AG22" s="146"/>
-      <c r="AH22" s="146"/>
-      <c r="AI22" s="147"/>
-      <c r="AJ22" s="153" t="s">
+      <c r="AB22" s="147"/>
+      <c r="AC22" s="147"/>
+      <c r="AD22" s="147"/>
+      <c r="AE22" s="147"/>
+      <c r="AF22" s="147"/>
+      <c r="AG22" s="147"/>
+      <c r="AH22" s="147"/>
+      <c r="AI22" s="148"/>
+      <c r="AJ22" s="154" t="s">
         <v>133</v>
       </c>
-      <c r="AK22" s="154"/>
-      <c r="AL22" s="154"/>
-      <c r="AM22" s="154"/>
-      <c r="AN22" s="154"/>
-      <c r="AO22" s="154"/>
-      <c r="AP22" s="154"/>
-      <c r="AQ22" s="154"/>
-      <c r="AR22" s="154"/>
-      <c r="AS22" s="154"/>
-      <c r="AT22" s="154"/>
-      <c r="AU22" s="154"/>
-      <c r="AV22" s="154"/>
-      <c r="AW22" s="155"/>
-      <c r="AX22" s="145" t="s">
+      <c r="AK22" s="155"/>
+      <c r="AL22" s="155"/>
+      <c r="AM22" s="155"/>
+      <c r="AN22" s="155"/>
+      <c r="AO22" s="155"/>
+      <c r="AP22" s="155"/>
+      <c r="AQ22" s="155"/>
+      <c r="AR22" s="155"/>
+      <c r="AS22" s="155"/>
+      <c r="AT22" s="155"/>
+      <c r="AU22" s="155"/>
+      <c r="AV22" s="155"/>
+      <c r="AW22" s="156"/>
+      <c r="AX22" s="146" t="s">
         <v>222</v>
       </c>
-      <c r="AY22" s="146"/>
-      <c r="AZ22" s="146"/>
-      <c r="BA22" s="146"/>
-      <c r="BB22" s="146"/>
-      <c r="BC22" s="146"/>
-      <c r="BD22" s="146"/>
-      <c r="BE22" s="147"/>
-      <c r="BF22" s="156" t="s">
+      <c r="AY22" s="147"/>
+      <c r="AZ22" s="147"/>
+      <c r="BA22" s="147"/>
+      <c r="BB22" s="147"/>
+      <c r="BC22" s="147"/>
+      <c r="BD22" s="147"/>
+      <c r="BE22" s="148"/>
+      <c r="BF22" s="157" t="s">
         <v>230</v>
       </c>
-      <c r="BG22" s="157"/>
-      <c r="BH22" s="157"/>
-      <c r="BI22" s="157"/>
-      <c r="BJ22" s="157"/>
-      <c r="BK22" s="157"/>
-      <c r="BL22" s="158"/>
-      <c r="BM22" s="151" t="s">
+      <c r="BG22" s="158"/>
+      <c r="BH22" s="158"/>
+      <c r="BI22" s="158"/>
+      <c r="BJ22" s="158"/>
+      <c r="BK22" s="158"/>
+      <c r="BL22" s="159"/>
+      <c r="BM22" s="152" t="s">
         <v>126</v>
       </c>
-      <c r="BN22" s="152"/>
-      <c r="BO22" s="152"/>
-      <c r="BP22" s="152"/>
-      <c r="BQ22" s="152"/>
-      <c r="BR22" s="152"/>
-      <c r="BS22" s="152"/>
-      <c r="BT22" s="152"/>
-      <c r="BU22" s="152"/>
-      <c r="BV22" s="152"/>
-      <c r="BW22" s="152"/>
-      <c r="BX22" s="152"/>
+      <c r="BN22" s="153"/>
+      <c r="BO22" s="153"/>
+      <c r="BP22" s="153"/>
+      <c r="BQ22" s="153"/>
+      <c r="BR22" s="153"/>
+      <c r="BS22" s="153"/>
+      <c r="BT22" s="153"/>
+      <c r="BU22" s="153"/>
+      <c r="BV22" s="153"/>
+      <c r="BW22" s="153"/>
+      <c r="BX22" s="153"/>
       <c r="BY22" s="89"/>
       <c r="BZ22" s="91"/>
       <c r="CA22" s="95"/>
@@ -5557,7 +5558,7 @@
         <v>357</v>
       </c>
       <c r="CW22" t="e">
-        <f>"Расчетный ток, Iр = "&amp;T15&amp;"А"</f>
+        <f ca="1">"Расчетный ток, Iр = "&amp;T15&amp;"А"</f>
         <v>#VALUE!</v>
       </c>
       <c r="DR22" t="s">
@@ -5580,7 +5581,7 @@
       <c r="L23" s="85" t="s">
         <v>332</v>
       </c>
-      <c r="M23" s="150"/>
+      <c r="M23" s="151"/>
       <c r="O23" s="56" t="s">
         <v>125</v>
       </c>
@@ -5731,18 +5732,18 @@
       <c r="BL23" s="76" t="s">
         <v>223</v>
       </c>
-      <c r="BM23" s="151"/>
-      <c r="BN23" s="152"/>
-      <c r="BO23" s="152"/>
-      <c r="BP23" s="152"/>
-      <c r="BQ23" s="152"/>
-      <c r="BR23" s="152"/>
-      <c r="BS23" s="152"/>
-      <c r="BT23" s="152"/>
-      <c r="BU23" s="152"/>
-      <c r="BV23" s="152"/>
-      <c r="BW23" s="152"/>
-      <c r="BX23" s="152"/>
+      <c r="BM23" s="152"/>
+      <c r="BN23" s="153"/>
+      <c r="BO23" s="153"/>
+      <c r="BP23" s="153"/>
+      <c r="BQ23" s="153"/>
+      <c r="BR23" s="153"/>
+      <c r="BS23" s="153"/>
+      <c r="BT23" s="153"/>
+      <c r="BU23" s="153"/>
+      <c r="BV23" s="153"/>
+      <c r="BW23" s="153"/>
+      <c r="BX23" s="153"/>
       <c r="BY23" s="89"/>
       <c r="BZ23" s="91"/>
       <c r="CA23" s="95"/>
@@ -5751,28 +5752,28 @@
       <c r="CF23" s="1">
         <v>35</v>
       </c>
-      <c r="DS23" s="159" t="s">
+      <c r="DS23" s="145" t="s">
         <v>366</v>
       </c>
-      <c r="DT23" s="159"/>
-      <c r="DU23" s="159"/>
-      <c r="DV23" s="159"/>
-      <c r="DW23" s="159"/>
-      <c r="DX23" s="159"/>
-      <c r="DY23" s="159"/>
-      <c r="DZ23" s="159"/>
-      <c r="EA23" s="159"/>
-      <c r="EB23" s="159" t="s">
+      <c r="DT23" s="145"/>
+      <c r="DU23" s="145"/>
+      <c r="DV23" s="145"/>
+      <c r="DW23" s="145"/>
+      <c r="DX23" s="145"/>
+      <c r="DY23" s="145"/>
+      <c r="DZ23" s="145"/>
+      <c r="EA23" s="145"/>
+      <c r="EB23" s="145" t="s">
         <v>370</v>
       </c>
-      <c r="EC23" s="159"/>
-      <c r="ED23" s="159"/>
-      <c r="EE23" s="159"/>
-      <c r="EF23" s="159"/>
-      <c r="EG23" s="159"/>
-      <c r="EH23" s="159"/>
-      <c r="EI23" s="159"/>
-      <c r="EJ23" s="159"/>
+      <c r="EC23" s="145"/>
+      <c r="ED23" s="145"/>
+      <c r="EE23" s="145"/>
+      <c r="EF23" s="145"/>
+      <c r="EG23" s="145"/>
+      <c r="EH23" s="145"/>
+      <c r="EI23" s="145"/>
+      <c r="EJ23" s="145"/>
     </row>
     <row r="24" spans="3:140" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
@@ -6336,393 +6337,393 @@
     <mergeCell ref="T15:U15"/>
   </mergeCells>
   <conditionalFormatting sqref="P24">
-    <cfRule type="expression" dxfId="103" priority="332">
+    <cfRule type="expression" dxfId="102" priority="332">
       <formula>NOT(_xlfn.ISFORMULA(P24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24">
-    <cfRule type="expression" dxfId="102" priority="326">
+    <cfRule type="expression" dxfId="101" priority="326">
       <formula>NOT(_xlfn.ISFORMULA(Q24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24">
-    <cfRule type="expression" dxfId="101" priority="325">
+    <cfRule type="expression" dxfId="100" priority="325">
       <formula>NOT(_xlfn.ISFORMULA(R24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S24">
-    <cfRule type="expression" dxfId="100" priority="324">
+    <cfRule type="expression" dxfId="99" priority="324">
       <formula>NOT(_xlfn.ISFORMULA(S24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y24">
-    <cfRule type="expression" dxfId="99" priority="323">
+    <cfRule type="expression" dxfId="98" priority="323">
       <formula>NOT(_xlfn.ISFORMULA(Y24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP24">
-    <cfRule type="expression" dxfId="98" priority="321">
+    <cfRule type="expression" dxfId="97" priority="321">
       <formula>NOT(_xlfn.ISFORMULA(AP24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS24">
-    <cfRule type="expression" dxfId="97" priority="320">
+    <cfRule type="expression" dxfId="96" priority="320">
       <formula>NOT(_xlfn.ISFORMULA(AS24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV24">
-    <cfRule type="expression" dxfId="96" priority="318">
+    <cfRule type="expression" dxfId="95" priority="318">
       <formula>NOT(_xlfn.ISFORMULA(AV24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ24">
-    <cfRule type="expression" dxfId="95" priority="317">
+    <cfRule type="expression" dxfId="94" priority="317">
       <formula>NOT(_xlfn.ISFORMULA(AQ24))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24">
-    <cfRule type="cellIs" dxfId="94" priority="315" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="315" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="316" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="316" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:L24">
-    <cfRule type="cellIs" dxfId="92" priority="313" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="313" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="314" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="314" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM24">
-    <cfRule type="cellIs" dxfId="90" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="126" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CM24">
-    <cfRule type="cellIs" dxfId="89" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="121" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="122" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="123" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="124" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="125" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN24">
-    <cfRule type="cellIs" dxfId="84" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="120" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CN24">
-    <cfRule type="cellIs" dxfId="83" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="115" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="116" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="117" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="118" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="79" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="119" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO24">
-    <cfRule type="cellIs" dxfId="78" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="114" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CO24">
-    <cfRule type="cellIs" dxfId="77" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="109" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="110" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="111" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="112" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="113" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP24">
-    <cfRule type="cellIs" dxfId="72" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="108" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CP24">
-    <cfRule type="cellIs" dxfId="71" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="103" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="104" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="105" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="106" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="107" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ24">
-    <cfRule type="cellIs" dxfId="66" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="102" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CQ24">
-    <cfRule type="cellIs" dxfId="65" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="97" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="98" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="99" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="100" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="101" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR24">
-    <cfRule type="cellIs" dxfId="60" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="96" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CR24">
-    <cfRule type="cellIs" dxfId="59" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="91" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="92" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="93" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="94" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="95" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS24">
-    <cfRule type="cellIs" dxfId="54" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="90" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CS24">
-    <cfRule type="cellIs" dxfId="53" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="85" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="86" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="87" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="88" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="89" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT24">
-    <cfRule type="cellIs" dxfId="48" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="84" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CT24">
-    <cfRule type="cellIs" dxfId="47" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="79" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="80" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="81" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="82" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="83" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV24">
-    <cfRule type="cellIs" dxfId="42" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="72" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CV24">
-    <cfRule type="cellIs" dxfId="41" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="67" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="68" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="68" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="69" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="70" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="71" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW24">
-    <cfRule type="cellIs" dxfId="36" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="66" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CW24">
-    <cfRule type="cellIs" dxfId="35" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="61" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="62" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="63" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="64" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="65" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU24">
-    <cfRule type="cellIs" dxfId="30" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="30" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CU24">
-    <cfRule type="cellIs" dxfId="29" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="26" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="27" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="28" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="29" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX24">
-    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CX24">
-    <cfRule type="cellIs" dxfId="23" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="20" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="21" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="22" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="23" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY24">
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CY24">
-    <cfRule type="cellIs" dxfId="17" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="14" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="16" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="17" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ24">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CZ24">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DA24:DQ24">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"INTEGER_0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DA24:DQ24">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"INTEGER_5"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"INTEGER_4"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"INTEGER_3"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"INTEGER_2"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"INTEGER_1"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6737,7 +6738,7 @@
   <dimension ref="B5:W11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6911,7 +6912,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="1">
-        <f>IF(R11=1,1,0)</f>
+        <f>IF(G11&lt;&gt;"Вкл",IF(R11=1,1,0),0)</f>
         <v>1</v>
       </c>
       <c r="T11" s="1">
@@ -7334,7 +7335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A712ECE2-33D4-468C-AC42-3438B4F27DC9}">
   <dimension ref="A2:BX67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BA3" workbookViewId="0">
+    <sheetView topLeftCell="BA3" workbookViewId="0">
       <selection activeCell="BI15" sqref="BI15"/>
     </sheetView>
   </sheetViews>
@@ -13738,7 +13739,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB6:AD37">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
